--- a/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9568889630174073</v>
+        <v>0.956888963017407</v>
       </c>
       <c r="D2">
         <v>1.022675394270417</v>
       </c>
       <c r="E2">
-        <v>0.9710839293687192</v>
+        <v>0.9710839293687191</v>
       </c>
       <c r="F2">
-        <v>0.9923956402032232</v>
+        <v>0.9923956402032229</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,13 +439,13 @@
         <v>1.042885362396436</v>
       </c>
       <c r="J2">
-        <v>0.9804402850012834</v>
+        <v>0.9804402850012832</v>
       </c>
       <c r="K2">
         <v>1.033827611215213</v>
       </c>
       <c r="L2">
-        <v>0.9829613717016893</v>
+        <v>0.982961371701689</v>
       </c>
       <c r="M2">
         <v>1.00396194239386</v>
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9695625434491324</v>
+        <v>0.9695625434491318</v>
       </c>
       <c r="D3">
         <v>1.027542930510569</v>
       </c>
       <c r="E3">
-        <v>0.9818101993404906</v>
+        <v>0.9818101993404902</v>
       </c>
       <c r="F3">
         <v>1.002195275190644</v>
@@ -477,16 +477,16 @@
         <v>1.045884416316167</v>
       </c>
       <c r="J3">
-        <v>0.9909188162254409</v>
+        <v>0.9909188162254403</v>
       </c>
       <c r="K3">
         <v>1.03783511790484</v>
       </c>
       <c r="L3">
-        <v>0.9926812371403155</v>
+        <v>0.9926812371403152</v>
       </c>
       <c r="M3">
-        <v>1.012800143911782</v>
+        <v>1.012800143911781</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9773668146386331</v>
+        <v>0.9773668146386327</v>
       </c>
       <c r="D4">
-        <v>1.03055958550052</v>
+        <v>1.030559585500519</v>
       </c>
       <c r="E4">
-        <v>0.9884241072834763</v>
+        <v>0.988424107283476</v>
       </c>
       <c r="F4">
         <v>1.008246315830086</v>
@@ -512,16 +512,16 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047718322831869</v>
+        <v>1.047718322831868</v>
       </c>
       <c r="J4">
-        <v>0.9973677504703653</v>
+        <v>0.997367750470365</v>
       </c>
       <c r="K4">
-        <v>1.040302659705198</v>
+        <v>1.040302659705197</v>
       </c>
       <c r="L4">
-        <v>0.9986642805690262</v>
+        <v>0.9986642805690261</v>
       </c>
       <c r="M4">
         <v>1.018246223579175</v>
@@ -538,7 +538,7 @@
         <v>0.980561650181235</v>
       </c>
       <c r="D5">
-        <v>1.031798430977073</v>
+        <v>1.031798430977072</v>
       </c>
       <c r="E5">
         <v>0.9911334454052618</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9810932610116404</v>
+        <v>0.9810932610116413</v>
       </c>
       <c r="D6">
         <v>1.032004782564701</v>
       </c>
       <c r="E6">
-        <v>0.99158436898416</v>
+        <v>0.9915843689841607</v>
       </c>
       <c r="F6">
-        <v>1.011139737332601</v>
+        <v>1.011139737332602</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.048589830053033</v>
       </c>
       <c r="J6">
-        <v>1.000445721530867</v>
+        <v>1.000445721530868</v>
       </c>
       <c r="K6">
         <v>1.041480229502712</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9774098317643325</v>
+        <v>0.9774098317643328</v>
       </c>
       <c r="D7">
-        <v>1.030576251354222</v>
+        <v>1.030576251354221</v>
       </c>
       <c r="E7">
-        <v>0.9884605806021481</v>
+        <v>0.988460580602148</v>
       </c>
       <c r="F7">
         <v>1.008279701925561</v>
@@ -629,10 +629,10 @@
         <v>1.047728399518752</v>
       </c>
       <c r="J7">
-        <v>0.997403287052377</v>
+        <v>0.9974032870523772</v>
       </c>
       <c r="K7">
-        <v>1.040316256412623</v>
+        <v>1.040316256412622</v>
       </c>
       <c r="L7">
         <v>0.9986972517293283</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9612598927048633</v>
+        <v>0.9612598927048628</v>
       </c>
       <c r="D8">
-        <v>1.024349543409407</v>
+        <v>1.024349543409406</v>
       </c>
       <c r="E8">
-        <v>0.9747811802016941</v>
+        <v>0.9747811802016935</v>
       </c>
       <c r="F8">
-        <v>0.9957714623968508</v>
+        <v>0.9957714623968503</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043922248530176</v>
       </c>
       <c r="J8">
-        <v>0.9840548222984696</v>
+        <v>0.9840548222984692</v>
       </c>
       <c r="K8">
         <v>1.035209484539664</v>
       </c>
       <c r="L8">
-        <v>0.9863139508563389</v>
+        <v>0.9863139508563383</v>
       </c>
       <c r="M8">
-        <v>1.007009018218701</v>
+        <v>1.0070090182187</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.929278194458075</v>
+        <v>0.9292781944580731</v>
       </c>
       <c r="D9">
-        <v>1.012223588071443</v>
+        <v>1.012223588071442</v>
       </c>
       <c r="E9">
-        <v>0.9477846700462373</v>
+        <v>0.9477846700462355</v>
       </c>
       <c r="F9">
-        <v>0.9711766855918652</v>
+        <v>0.9711766855918641</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036292772046256</v>
       </c>
       <c r="J9">
-        <v>0.957601713332552</v>
+        <v>0.9576017133325501</v>
       </c>
       <c r="K9">
         <v>1.025121410967395</v>
       </c>
       <c r="L9">
-        <v>0.9617858020144661</v>
+        <v>0.9617858020144642</v>
       </c>
       <c r="M9">
-        <v>0.9847553775966142</v>
+        <v>0.9847553775966131</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9047005789019987</v>
+        <v>0.904700578901999</v>
       </c>
       <c r="D10">
-        <v>1.003121288294311</v>
+        <v>1.003121288294312</v>
       </c>
       <c r="E10">
         <v>0.9271370756010213</v>
       </c>
       <c r="F10">
-        <v>0.9524627115696548</v>
+        <v>0.9524627115696546</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.030396161283327</v>
       </c>
       <c r="J10">
-        <v>0.9372814758685224</v>
+        <v>0.9372814758685225</v>
       </c>
       <c r="K10">
         <v>1.017434414680137</v>
       </c>
       <c r="L10">
-        <v>0.9429595198627537</v>
+        <v>0.9429595198627535</v>
       </c>
       <c r="M10">
-        <v>0.9677467994505992</v>
+        <v>0.9677467994505989</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8929972842873615</v>
+        <v>0.8929972842873626</v>
       </c>
       <c r="D11">
-        <v>0.9988609842255848</v>
+        <v>0.998860984225585</v>
       </c>
       <c r="E11">
-        <v>0.9173398339737993</v>
+        <v>0.9173398339738</v>
       </c>
       <c r="F11">
-        <v>0.9436166386424462</v>
+        <v>0.943616638642447</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.027589740450132</v>
       </c>
       <c r="J11">
-        <v>0.9276146490897292</v>
+        <v>0.9276146490897303</v>
       </c>
       <c r="K11">
         <v>1.013804412730023</v>
       </c>
       <c r="L11">
-        <v>0.934009248251318</v>
+        <v>0.9340092482513189</v>
       </c>
       <c r="M11">
-        <v>0.9596864023931126</v>
+        <v>0.9596864023931134</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8884557896885543</v>
+        <v>0.8884557896885541</v>
       </c>
       <c r="D12">
-        <v>0.9972213681267418</v>
+        <v>0.9972213681267417</v>
       </c>
       <c r="E12">
-        <v>0.9135444906761696</v>
+        <v>0.9135444906761694</v>
       </c>
       <c r="F12">
-        <v>0.940196040105443</v>
+        <v>0.9401960401054429</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.026501977152667</v>
       </c>
       <c r="J12">
-        <v>0.9238656353456041</v>
+        <v>0.923865635345604</v>
       </c>
       <c r="K12">
         <v>1.01240199665729</v>
       </c>
       <c r="L12">
-        <v>0.9305392695619378</v>
+        <v>0.9305392695619377</v>
       </c>
       <c r="M12">
-        <v>0.956566261847329</v>
+        <v>0.9565662618473288</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8894394447286094</v>
+        <v>0.8894394447286077</v>
       </c>
       <c r="D13">
-        <v>0.9975758390268655</v>
+        <v>0.9975758390268645</v>
       </c>
       <c r="E13">
-        <v>0.9143662175409505</v>
+        <v>0.914366217540949</v>
       </c>
       <c r="F13">
-        <v>0.9409363261533464</v>
+        <v>0.9409363261533449</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026737501415368</v>
+        <v>1.026737501415367</v>
       </c>
       <c r="J13">
-        <v>0.9246775285093244</v>
+        <v>0.9246775285093227</v>
       </c>
       <c r="K13">
-        <v>1.012705439398652</v>
+        <v>1.012705439398651</v>
       </c>
       <c r="L13">
-        <v>0.9312906781517419</v>
+        <v>0.9312906781517404</v>
       </c>
       <c r="M13">
-        <v>0.9572416785393308</v>
+        <v>0.9572416785393294</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8926260930819817</v>
+        <v>0.8926260930819798</v>
       </c>
       <c r="D14">
-        <v>0.9987266830891444</v>
+        <v>0.9987266830891441</v>
       </c>
       <c r="E14">
-        <v>0.917029488674807</v>
+        <v>0.917029488674805</v>
       </c>
       <c r="F14">
-        <v>0.9433368019216732</v>
+        <v>0.9433368019216718</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.027500801274883</v>
       </c>
       <c r="J14">
-        <v>0.927308179508689</v>
+        <v>0.9273081795086872</v>
       </c>
       <c r="K14">
         <v>1.01368965276185</v>
       </c>
       <c r="L14">
-        <v>0.9337255641976968</v>
+        <v>0.933725564197695</v>
       </c>
       <c r="M14">
-        <v>0.9594312151414964</v>
+        <v>0.9594312151414953</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8945624892824596</v>
+        <v>0.8945624892824589</v>
       </c>
       <c r="D15">
-        <v>0.9994278562623046</v>
+        <v>0.9994278562623045</v>
       </c>
       <c r="E15">
-        <v>0.9186487395927986</v>
+        <v>0.9186487395927979</v>
       </c>
       <c r="F15">
-        <v>0.944797132351324</v>
+        <v>0.9447971323513232</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027964829282098</v>
+        <v>1.027964829282099</v>
       </c>
       <c r="J15">
-        <v>0.9289070369184155</v>
+        <v>0.9289070369184146</v>
       </c>
       <c r="K15">
         <v>1.014288582786284</v>
       </c>
       <c r="L15">
-        <v>0.9352055966359885</v>
+        <v>0.9352055966359878</v>
       </c>
       <c r="M15">
-        <v>0.9607627754969083</v>
+        <v>0.9607627754969075</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9054522029268974</v>
+        <v>0.9054522029268981</v>
       </c>
       <c r="D16">
         <v>1.003396587030079</v>
       </c>
       <c r="E16">
-        <v>0.9277670860439275</v>
+        <v>0.9277670860439287</v>
       </c>
       <c r="F16">
-        <v>0.9530323320834028</v>
+        <v>0.9530323320834041</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030576508811708</v>
+        <v>1.030576508811709</v>
       </c>
       <c r="J16">
-        <v>0.9379025611302562</v>
+        <v>0.9379025611302567</v>
       </c>
       <c r="K16">
         <v>1.017668286365611</v>
       </c>
       <c r="L16">
-        <v>0.9435347050914035</v>
+        <v>0.9435347050914045</v>
       </c>
       <c r="M16">
-        <v>0.9682653923216981</v>
+        <v>0.9682653923216991</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9119776272126122</v>
+        <v>0.9119776272126134</v>
       </c>
       <c r="D17">
         <v>1.005795005245748</v>
       </c>
       <c r="E17">
-        <v>0.9332406013779991</v>
+        <v>0.9332406013780002</v>
       </c>
       <c r="F17">
-        <v>0.9579849867877595</v>
+        <v>0.9579849867877605</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032142494159067</v>
+        <v>1.032142494159068</v>
       </c>
       <c r="J17">
-        <v>0.9432957592430451</v>
+        <v>0.9432957592430465</v>
       </c>
       <c r="K17">
         <v>1.019702184274621</v>
       </c>
       <c r="L17">
-        <v>0.9485299932433735</v>
+        <v>0.9485299932433747</v>
       </c>
       <c r="M17">
-        <v>0.9727721032124226</v>
+        <v>0.9727721032124239</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9156842695548726</v>
+        <v>0.9156842695548751</v>
       </c>
       <c r="D18">
-        <v>1.007163934960901</v>
+        <v>1.007163934960903</v>
       </c>
       <c r="E18">
-        <v>0.9363527860257521</v>
+        <v>0.9363527860257543</v>
       </c>
       <c r="F18">
-        <v>0.9608039969660708</v>
+        <v>0.9608039969660725</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033032073335119</v>
+        <v>1.03303207333512</v>
       </c>
       <c r="J18">
-        <v>0.9463600373636247</v>
+        <v>0.9463600373636271</v>
       </c>
       <c r="K18">
-        <v>1.020860144813464</v>
+        <v>1.020860144813465</v>
       </c>
       <c r="L18">
-        <v>0.9513687018706131</v>
+        <v>0.9513687018706153</v>
       </c>
       <c r="M18">
-        <v>0.9753354355856692</v>
+        <v>0.9753354355856712</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9169321438737267</v>
+        <v>0.9169321438737268</v>
       </c>
       <c r="D19">
-        <v>1.007625847496682</v>
+        <v>1.007625847496683</v>
       </c>
       <c r="E19">
-        <v>0.937401018471288</v>
+        <v>0.9374010184712883</v>
       </c>
       <c r="F19">
-        <v>0.9617539596830295</v>
+        <v>0.9617539596830298</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.033331540497515</v>
       </c>
       <c r="J19">
-        <v>0.9473917651812594</v>
+        <v>0.9473917651812596</v>
       </c>
       <c r="K19">
         <v>1.021250390159571</v>
       </c>
       <c r="L19">
-        <v>0.9523245622329238</v>
+        <v>0.9523245622329243</v>
       </c>
       <c r="M19">
-        <v>0.97619893157418</v>
+        <v>0.9761989315741805</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9112880225587482</v>
+        <v>0.9112880225587466</v>
       </c>
       <c r="D20">
-        <v>1.005540841208093</v>
+        <v>1.005540841208092</v>
       </c>
       <c r="E20">
-        <v>0.9326618347522517</v>
+        <v>0.9326618347522507</v>
       </c>
       <c r="F20">
-        <v>0.9574609769423749</v>
+        <v>0.9574609769423735</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031976989522515</v>
+        <v>1.031976989522514</v>
       </c>
       <c r="J20">
-        <v>0.9427257218501667</v>
+        <v>0.9427257218501656</v>
       </c>
       <c r="K20">
         <v>1.019486956315599</v>
       </c>
       <c r="L20">
-        <v>0.9480019580572607</v>
+        <v>0.9480019580572597</v>
       </c>
       <c r="M20">
-        <v>0.9722954707361348</v>
+        <v>0.9722954707361333</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8916934109053075</v>
+        <v>0.8916934109053091</v>
       </c>
       <c r="D21">
-        <v>0.998389455087929</v>
+        <v>0.9983894550879296</v>
       </c>
       <c r="E21">
-        <v>0.9162498013016307</v>
+        <v>0.9162498013016322</v>
       </c>
       <c r="F21">
-        <v>0.9426338668725576</v>
+        <v>0.9426338668725585</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027277350679827</v>
       </c>
       <c r="J21">
-        <v>0.9265381604509069</v>
+        <v>0.9265381604509083</v>
       </c>
       <c r="K21">
         <v>1.013401404112018</v>
       </c>
       <c r="L21">
-        <v>0.933012814054568</v>
+        <v>0.9330128140545695</v>
       </c>
       <c r="M21">
-        <v>0.9587901436767593</v>
+        <v>0.9587901436767603</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8782216134299023</v>
+        <v>0.8782216134298999</v>
       </c>
       <c r="D22">
-        <v>0.9935553537085895</v>
+        <v>0.9935553537085886</v>
       </c>
       <c r="E22">
-        <v>0.9050057403173603</v>
+        <v>0.9050057403173584</v>
       </c>
       <c r="F22">
-        <v>0.9325137960847373</v>
+        <v>0.9325137960847352</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0240545807717</v>
+        <v>1.024054580771699</v>
       </c>
       <c r="J22">
-        <v>0.9154226573304561</v>
+        <v>0.915422657330454</v>
       </c>
       <c r="K22">
         <v>1.009255570591626</v>
       </c>
       <c r="L22">
-        <v>0.922727193447977</v>
+        <v>0.922727193447975</v>
       </c>
       <c r="M22">
-        <v>0.9495521812501626</v>
+        <v>0.9495521812501608</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8854875881076065</v>
+        <v>0.8854875881076057</v>
       </c>
       <c r="D23">
-        <v>0.9961539705485014</v>
+        <v>0.9961539705485009</v>
       </c>
       <c r="E23">
-        <v>0.9110659887365119</v>
+        <v>0.9110659887365109</v>
       </c>
       <c r="F23">
-        <v>0.9379642155464846</v>
+        <v>0.9379642155464837</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025791563805336</v>
+        <v>1.025791563805335</v>
       </c>
       <c r="J23">
-        <v>0.9214161361767181</v>
+        <v>0.9214161361767171</v>
       </c>
       <c r="K23">
-        <v>1.011487416952983</v>
+        <v>1.011487416952982</v>
       </c>
       <c r="L23">
-        <v>0.9282724458140759</v>
+        <v>0.9282724458140751</v>
       </c>
       <c r="M23">
-        <v>0.9545294892563166</v>
+        <v>0.9545294892563159</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.911599930284076</v>
+        <v>0.9115999302840773</v>
       </c>
       <c r="D24">
-        <v>1.005655779126587</v>
+        <v>1.005655779126588</v>
       </c>
       <c r="E24">
-        <v>0.9329236010418668</v>
+        <v>0.9329236010418684</v>
       </c>
       <c r="F24">
-        <v>0.9576979684442143</v>
+        <v>0.9576979684442158</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.03205184707278</v>
       </c>
       <c r="J24">
-        <v>0.9429835470184831</v>
+        <v>0.9429835470184843</v>
       </c>
       <c r="K24">
         <v>1.019584295631728</v>
       </c>
       <c r="L24">
-        <v>0.9482407842452887</v>
+        <v>0.94824078424529</v>
       </c>
       <c r="M24">
-        <v>0.9725110408525822</v>
+        <v>0.9725110408525837</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9380421640428288</v>
+        <v>0.9380421640428295</v>
       </c>
       <c r="D25">
         <v>1.015516771114391</v>
       </c>
       <c r="E25">
-        <v>0.9551690819515025</v>
+        <v>0.9551690819515033</v>
       </c>
       <c r="F25">
-        <v>0.977890943991082</v>
+        <v>0.9778909439910831</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03839138503424</v>
       </c>
       <c r="J25">
-        <v>0.9648510299327704</v>
+        <v>0.9648510299327711</v>
       </c>
       <c r="K25">
-        <v>1.027878891583243</v>
+        <v>1.027878891583244</v>
       </c>
       <c r="L25">
-        <v>0.9685056352431763</v>
+        <v>0.9685056352431771</v>
       </c>
       <c r="M25">
-        <v>0.9908424529724313</v>
+        <v>0.9908424529724323</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.956888963017407</v>
+        <v>0.9568889630174073</v>
       </c>
       <c r="D2">
         <v>1.022675394270417</v>
       </c>
       <c r="E2">
-        <v>0.9710839293687191</v>
+        <v>0.9710839293687192</v>
       </c>
       <c r="F2">
-        <v>0.9923956402032229</v>
+        <v>0.9923956402032232</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,13 +439,13 @@
         <v>1.042885362396436</v>
       </c>
       <c r="J2">
-        <v>0.9804402850012832</v>
+        <v>0.9804402850012834</v>
       </c>
       <c r="K2">
         <v>1.033827611215213</v>
       </c>
       <c r="L2">
-        <v>0.982961371701689</v>
+        <v>0.9829613717016893</v>
       </c>
       <c r="M2">
         <v>1.00396194239386</v>
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9695625434491318</v>
+        <v>0.9695625434491324</v>
       </c>
       <c r="D3">
         <v>1.027542930510569</v>
       </c>
       <c r="E3">
-        <v>0.9818101993404902</v>
+        <v>0.9818101993404906</v>
       </c>
       <c r="F3">
         <v>1.002195275190644</v>
@@ -477,16 +477,16 @@
         <v>1.045884416316167</v>
       </c>
       <c r="J3">
-        <v>0.9909188162254403</v>
+        <v>0.9909188162254409</v>
       </c>
       <c r="K3">
         <v>1.03783511790484</v>
       </c>
       <c r="L3">
-        <v>0.9926812371403152</v>
+        <v>0.9926812371403155</v>
       </c>
       <c r="M3">
-        <v>1.012800143911781</v>
+        <v>1.012800143911782</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9773668146386327</v>
+        <v>0.9773668146386331</v>
       </c>
       <c r="D4">
-        <v>1.030559585500519</v>
+        <v>1.03055958550052</v>
       </c>
       <c r="E4">
-        <v>0.988424107283476</v>
+        <v>0.9884241072834763</v>
       </c>
       <c r="F4">
         <v>1.008246315830086</v>
@@ -512,16 +512,16 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047718322831868</v>
+        <v>1.047718322831869</v>
       </c>
       <c r="J4">
-        <v>0.997367750470365</v>
+        <v>0.9973677504703653</v>
       </c>
       <c r="K4">
-        <v>1.040302659705197</v>
+        <v>1.040302659705198</v>
       </c>
       <c r="L4">
-        <v>0.9986642805690261</v>
+        <v>0.9986642805690262</v>
       </c>
       <c r="M4">
         <v>1.018246223579175</v>
@@ -538,7 +538,7 @@
         <v>0.980561650181235</v>
       </c>
       <c r="D5">
-        <v>1.031798430977072</v>
+        <v>1.031798430977073</v>
       </c>
       <c r="E5">
         <v>0.9911334454052618</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9810932610116413</v>
+        <v>0.9810932610116404</v>
       </c>
       <c r="D6">
         <v>1.032004782564701</v>
       </c>
       <c r="E6">
-        <v>0.9915843689841607</v>
+        <v>0.99158436898416</v>
       </c>
       <c r="F6">
-        <v>1.011139737332602</v>
+        <v>1.011139737332601</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.048589830053033</v>
       </c>
       <c r="J6">
-        <v>1.000445721530868</v>
+        <v>1.000445721530867</v>
       </c>
       <c r="K6">
         <v>1.041480229502712</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9774098317643328</v>
+        <v>0.9774098317643325</v>
       </c>
       <c r="D7">
-        <v>1.030576251354221</v>
+        <v>1.030576251354222</v>
       </c>
       <c r="E7">
-        <v>0.988460580602148</v>
+        <v>0.9884605806021481</v>
       </c>
       <c r="F7">
         <v>1.008279701925561</v>
@@ -629,10 +629,10 @@
         <v>1.047728399518752</v>
       </c>
       <c r="J7">
-        <v>0.9974032870523772</v>
+        <v>0.997403287052377</v>
       </c>
       <c r="K7">
-        <v>1.040316256412622</v>
+        <v>1.040316256412623</v>
       </c>
       <c r="L7">
         <v>0.9986972517293283</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9612598927048628</v>
+        <v>0.9612598927048633</v>
       </c>
       <c r="D8">
-        <v>1.024349543409406</v>
+        <v>1.024349543409407</v>
       </c>
       <c r="E8">
-        <v>0.9747811802016935</v>
+        <v>0.9747811802016941</v>
       </c>
       <c r="F8">
-        <v>0.9957714623968503</v>
+        <v>0.9957714623968508</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043922248530176</v>
       </c>
       <c r="J8">
-        <v>0.9840548222984692</v>
+        <v>0.9840548222984696</v>
       </c>
       <c r="K8">
         <v>1.035209484539664</v>
       </c>
       <c r="L8">
-        <v>0.9863139508563383</v>
+        <v>0.9863139508563389</v>
       </c>
       <c r="M8">
-        <v>1.0070090182187</v>
+        <v>1.007009018218701</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9292781944580731</v>
+        <v>0.929278194458075</v>
       </c>
       <c r="D9">
-        <v>1.012223588071442</v>
+        <v>1.012223588071443</v>
       </c>
       <c r="E9">
-        <v>0.9477846700462355</v>
+        <v>0.9477846700462373</v>
       </c>
       <c r="F9">
-        <v>0.9711766855918641</v>
+        <v>0.9711766855918652</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036292772046256</v>
       </c>
       <c r="J9">
-        <v>0.9576017133325501</v>
+        <v>0.957601713332552</v>
       </c>
       <c r="K9">
         <v>1.025121410967395</v>
       </c>
       <c r="L9">
-        <v>0.9617858020144642</v>
+        <v>0.9617858020144661</v>
       </c>
       <c r="M9">
-        <v>0.9847553775966131</v>
+        <v>0.9847553775966142</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.904700578901999</v>
+        <v>0.9047005789019987</v>
       </c>
       <c r="D10">
-        <v>1.003121288294312</v>
+        <v>1.003121288294311</v>
       </c>
       <c r="E10">
         <v>0.9271370756010213</v>
       </c>
       <c r="F10">
-        <v>0.9524627115696546</v>
+        <v>0.9524627115696548</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.030396161283327</v>
       </c>
       <c r="J10">
-        <v>0.9372814758685225</v>
+        <v>0.9372814758685224</v>
       </c>
       <c r="K10">
         <v>1.017434414680137</v>
       </c>
       <c r="L10">
-        <v>0.9429595198627535</v>
+        <v>0.9429595198627537</v>
       </c>
       <c r="M10">
-        <v>0.9677467994505989</v>
+        <v>0.9677467994505992</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8929972842873626</v>
+        <v>0.8929972842873615</v>
       </c>
       <c r="D11">
-        <v>0.998860984225585</v>
+        <v>0.9988609842255848</v>
       </c>
       <c r="E11">
-        <v>0.9173398339738</v>
+        <v>0.9173398339737993</v>
       </c>
       <c r="F11">
-        <v>0.943616638642447</v>
+        <v>0.9436166386424462</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.027589740450132</v>
       </c>
       <c r="J11">
-        <v>0.9276146490897303</v>
+        <v>0.9276146490897292</v>
       </c>
       <c r="K11">
         <v>1.013804412730023</v>
       </c>
       <c r="L11">
-        <v>0.9340092482513189</v>
+        <v>0.934009248251318</v>
       </c>
       <c r="M11">
-        <v>0.9596864023931134</v>
+        <v>0.9596864023931126</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8884557896885541</v>
+        <v>0.8884557896885543</v>
       </c>
       <c r="D12">
-        <v>0.9972213681267417</v>
+        <v>0.9972213681267418</v>
       </c>
       <c r="E12">
-        <v>0.9135444906761694</v>
+        <v>0.9135444906761696</v>
       </c>
       <c r="F12">
-        <v>0.9401960401054429</v>
+        <v>0.940196040105443</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.026501977152667</v>
       </c>
       <c r="J12">
-        <v>0.923865635345604</v>
+        <v>0.9238656353456041</v>
       </c>
       <c r="K12">
         <v>1.01240199665729</v>
       </c>
       <c r="L12">
-        <v>0.9305392695619377</v>
+        <v>0.9305392695619378</v>
       </c>
       <c r="M12">
-        <v>0.9565662618473288</v>
+        <v>0.956566261847329</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8894394447286077</v>
+        <v>0.8894394447286094</v>
       </c>
       <c r="D13">
-        <v>0.9975758390268645</v>
+        <v>0.9975758390268655</v>
       </c>
       <c r="E13">
-        <v>0.914366217540949</v>
+        <v>0.9143662175409505</v>
       </c>
       <c r="F13">
-        <v>0.9409363261533449</v>
+        <v>0.9409363261533464</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026737501415367</v>
+        <v>1.026737501415368</v>
       </c>
       <c r="J13">
-        <v>0.9246775285093227</v>
+        <v>0.9246775285093244</v>
       </c>
       <c r="K13">
-        <v>1.012705439398651</v>
+        <v>1.012705439398652</v>
       </c>
       <c r="L13">
-        <v>0.9312906781517404</v>
+        <v>0.9312906781517419</v>
       </c>
       <c r="M13">
-        <v>0.9572416785393294</v>
+        <v>0.9572416785393308</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8926260930819798</v>
+        <v>0.8926260930819817</v>
       </c>
       <c r="D14">
-        <v>0.9987266830891441</v>
+        <v>0.9987266830891444</v>
       </c>
       <c r="E14">
-        <v>0.917029488674805</v>
+        <v>0.917029488674807</v>
       </c>
       <c r="F14">
-        <v>0.9433368019216718</v>
+        <v>0.9433368019216732</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.027500801274883</v>
       </c>
       <c r="J14">
-        <v>0.9273081795086872</v>
+        <v>0.927308179508689</v>
       </c>
       <c r="K14">
         <v>1.01368965276185</v>
       </c>
       <c r="L14">
-        <v>0.933725564197695</v>
+        <v>0.9337255641976968</v>
       </c>
       <c r="M14">
-        <v>0.9594312151414953</v>
+        <v>0.9594312151414964</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8945624892824589</v>
+        <v>0.8945624892824596</v>
       </c>
       <c r="D15">
-        <v>0.9994278562623045</v>
+        <v>0.9994278562623046</v>
       </c>
       <c r="E15">
-        <v>0.9186487395927979</v>
+        <v>0.9186487395927986</v>
       </c>
       <c r="F15">
-        <v>0.9447971323513232</v>
+        <v>0.944797132351324</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027964829282099</v>
+        <v>1.027964829282098</v>
       </c>
       <c r="J15">
-        <v>0.9289070369184146</v>
+        <v>0.9289070369184155</v>
       </c>
       <c r="K15">
         <v>1.014288582786284</v>
       </c>
       <c r="L15">
-        <v>0.9352055966359878</v>
+        <v>0.9352055966359885</v>
       </c>
       <c r="M15">
-        <v>0.9607627754969075</v>
+        <v>0.9607627754969083</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9054522029268981</v>
+        <v>0.9054522029268974</v>
       </c>
       <c r="D16">
         <v>1.003396587030079</v>
       </c>
       <c r="E16">
-        <v>0.9277670860439287</v>
+        <v>0.9277670860439275</v>
       </c>
       <c r="F16">
-        <v>0.9530323320834041</v>
+        <v>0.9530323320834028</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030576508811709</v>
+        <v>1.030576508811708</v>
       </c>
       <c r="J16">
-        <v>0.9379025611302567</v>
+        <v>0.9379025611302562</v>
       </c>
       <c r="K16">
         <v>1.017668286365611</v>
       </c>
       <c r="L16">
-        <v>0.9435347050914045</v>
+        <v>0.9435347050914035</v>
       </c>
       <c r="M16">
-        <v>0.9682653923216991</v>
+        <v>0.9682653923216981</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9119776272126134</v>
+        <v>0.9119776272126122</v>
       </c>
       <c r="D17">
         <v>1.005795005245748</v>
       </c>
       <c r="E17">
-        <v>0.9332406013780002</v>
+        <v>0.9332406013779991</v>
       </c>
       <c r="F17">
-        <v>0.9579849867877605</v>
+        <v>0.9579849867877595</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032142494159068</v>
+        <v>1.032142494159067</v>
       </c>
       <c r="J17">
-        <v>0.9432957592430465</v>
+        <v>0.9432957592430451</v>
       </c>
       <c r="K17">
         <v>1.019702184274621</v>
       </c>
       <c r="L17">
-        <v>0.9485299932433747</v>
+        <v>0.9485299932433735</v>
       </c>
       <c r="M17">
-        <v>0.9727721032124239</v>
+        <v>0.9727721032124226</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9156842695548751</v>
+        <v>0.9156842695548726</v>
       </c>
       <c r="D18">
-        <v>1.007163934960903</v>
+        <v>1.007163934960901</v>
       </c>
       <c r="E18">
-        <v>0.9363527860257543</v>
+        <v>0.9363527860257521</v>
       </c>
       <c r="F18">
-        <v>0.9608039969660725</v>
+        <v>0.9608039969660708</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03303207333512</v>
+        <v>1.033032073335119</v>
       </c>
       <c r="J18">
-        <v>0.9463600373636271</v>
+        <v>0.9463600373636247</v>
       </c>
       <c r="K18">
-        <v>1.020860144813465</v>
+        <v>1.020860144813464</v>
       </c>
       <c r="L18">
-        <v>0.9513687018706153</v>
+        <v>0.9513687018706131</v>
       </c>
       <c r="M18">
-        <v>0.9753354355856712</v>
+        <v>0.9753354355856692</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9169321438737268</v>
+        <v>0.9169321438737267</v>
       </c>
       <c r="D19">
-        <v>1.007625847496683</v>
+        <v>1.007625847496682</v>
       </c>
       <c r="E19">
-        <v>0.9374010184712883</v>
+        <v>0.937401018471288</v>
       </c>
       <c r="F19">
-        <v>0.9617539596830298</v>
+        <v>0.9617539596830295</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.033331540497515</v>
       </c>
       <c r="J19">
-        <v>0.9473917651812596</v>
+        <v>0.9473917651812594</v>
       </c>
       <c r="K19">
         <v>1.021250390159571</v>
       </c>
       <c r="L19">
-        <v>0.9523245622329243</v>
+        <v>0.9523245622329238</v>
       </c>
       <c r="M19">
-        <v>0.9761989315741805</v>
+        <v>0.97619893157418</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9112880225587466</v>
+        <v>0.9112880225587482</v>
       </c>
       <c r="D20">
-        <v>1.005540841208092</v>
+        <v>1.005540841208093</v>
       </c>
       <c r="E20">
-        <v>0.9326618347522507</v>
+        <v>0.9326618347522517</v>
       </c>
       <c r="F20">
-        <v>0.9574609769423735</v>
+        <v>0.9574609769423749</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031976989522514</v>
+        <v>1.031976989522515</v>
       </c>
       <c r="J20">
-        <v>0.9427257218501656</v>
+        <v>0.9427257218501667</v>
       </c>
       <c r="K20">
         <v>1.019486956315599</v>
       </c>
       <c r="L20">
-        <v>0.9480019580572597</v>
+        <v>0.9480019580572607</v>
       </c>
       <c r="M20">
-        <v>0.9722954707361333</v>
+        <v>0.9722954707361348</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8916934109053091</v>
+        <v>0.8916934109053075</v>
       </c>
       <c r="D21">
-        <v>0.9983894550879296</v>
+        <v>0.998389455087929</v>
       </c>
       <c r="E21">
-        <v>0.9162498013016322</v>
+        <v>0.9162498013016307</v>
       </c>
       <c r="F21">
-        <v>0.9426338668725585</v>
+        <v>0.9426338668725576</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027277350679827</v>
       </c>
       <c r="J21">
-        <v>0.9265381604509083</v>
+        <v>0.9265381604509069</v>
       </c>
       <c r="K21">
         <v>1.013401404112018</v>
       </c>
       <c r="L21">
-        <v>0.9330128140545695</v>
+        <v>0.933012814054568</v>
       </c>
       <c r="M21">
-        <v>0.9587901436767603</v>
+        <v>0.9587901436767593</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8782216134298999</v>
+        <v>0.8782216134299023</v>
       </c>
       <c r="D22">
-        <v>0.9935553537085886</v>
+        <v>0.9935553537085895</v>
       </c>
       <c r="E22">
-        <v>0.9050057403173584</v>
+        <v>0.9050057403173603</v>
       </c>
       <c r="F22">
-        <v>0.9325137960847352</v>
+        <v>0.9325137960847373</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024054580771699</v>
+        <v>1.0240545807717</v>
       </c>
       <c r="J22">
-        <v>0.915422657330454</v>
+        <v>0.9154226573304561</v>
       </c>
       <c r="K22">
         <v>1.009255570591626</v>
       </c>
       <c r="L22">
-        <v>0.922727193447975</v>
+        <v>0.922727193447977</v>
       </c>
       <c r="M22">
-        <v>0.9495521812501608</v>
+        <v>0.9495521812501626</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8854875881076057</v>
+        <v>0.8854875881076065</v>
       </c>
       <c r="D23">
-        <v>0.9961539705485009</v>
+        <v>0.9961539705485014</v>
       </c>
       <c r="E23">
-        <v>0.9110659887365109</v>
+        <v>0.9110659887365119</v>
       </c>
       <c r="F23">
-        <v>0.9379642155464837</v>
+        <v>0.9379642155464846</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025791563805335</v>
+        <v>1.025791563805336</v>
       </c>
       <c r="J23">
-        <v>0.9214161361767171</v>
+        <v>0.9214161361767181</v>
       </c>
       <c r="K23">
-        <v>1.011487416952982</v>
+        <v>1.011487416952983</v>
       </c>
       <c r="L23">
-        <v>0.9282724458140751</v>
+        <v>0.9282724458140759</v>
       </c>
       <c r="M23">
-        <v>0.9545294892563159</v>
+        <v>0.9545294892563166</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9115999302840773</v>
+        <v>0.911599930284076</v>
       </c>
       <c r="D24">
-        <v>1.005655779126588</v>
+        <v>1.005655779126587</v>
       </c>
       <c r="E24">
-        <v>0.9329236010418684</v>
+        <v>0.9329236010418668</v>
       </c>
       <c r="F24">
-        <v>0.9576979684442158</v>
+        <v>0.9576979684442143</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.03205184707278</v>
       </c>
       <c r="J24">
-        <v>0.9429835470184843</v>
+        <v>0.9429835470184831</v>
       </c>
       <c r="K24">
         <v>1.019584295631728</v>
       </c>
       <c r="L24">
-        <v>0.94824078424529</v>
+        <v>0.9482407842452887</v>
       </c>
       <c r="M24">
-        <v>0.9725110408525837</v>
+        <v>0.9725110408525822</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9380421640428295</v>
+        <v>0.9380421640428288</v>
       </c>
       <c r="D25">
         <v>1.015516771114391</v>
       </c>
       <c r="E25">
-        <v>0.9551690819515033</v>
+        <v>0.9551690819515025</v>
       </c>
       <c r="F25">
-        <v>0.9778909439910831</v>
+        <v>0.977890943991082</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03839138503424</v>
       </c>
       <c r="J25">
-        <v>0.9648510299327711</v>
+        <v>0.9648510299327704</v>
       </c>
       <c r="K25">
-        <v>1.027878891583244</v>
+        <v>1.027878891583243</v>
       </c>
       <c r="L25">
-        <v>0.9685056352431771</v>
+        <v>0.9685056352431763</v>
       </c>
       <c r="M25">
-        <v>0.9908424529724323</v>
+        <v>0.9908424529724313</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9568889630174073</v>
+        <v>0.9608193504142978</v>
       </c>
       <c r="D2">
-        <v>1.022675394270417</v>
+        <v>1.02366111266269</v>
       </c>
       <c r="E2">
-        <v>0.9710839293687192</v>
+        <v>0.9743948512051304</v>
       </c>
       <c r="F2">
-        <v>0.9923956402032232</v>
+        <v>0.9949500294913107</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042885362396436</v>
+        <v>1.043724687713395</v>
       </c>
       <c r="J2">
-        <v>0.9804402850012834</v>
+        <v>0.9842386164222711</v>
       </c>
       <c r="K2">
-        <v>1.033827611215213</v>
+        <v>1.034800365849889</v>
       </c>
       <c r="L2">
-        <v>0.9829613717016893</v>
+        <v>0.9862228204664925</v>
       </c>
       <c r="M2">
-        <v>1.00396194239386</v>
+        <v>1.00648016967095</v>
+      </c>
+      <c r="N2">
+        <v>0.9856363481513378</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9695625434491324</v>
+        <v>0.9734413477919873</v>
       </c>
       <c r="D3">
-        <v>1.027542930510569</v>
+        <v>1.02851457178852</v>
       </c>
       <c r="E3">
-        <v>0.9818101993404906</v>
+        <v>0.9850821727926242</v>
       </c>
       <c r="F3">
-        <v>1.002195275190644</v>
+        <v>1.004714697933503</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045884416316167</v>
+        <v>1.046713682219705</v>
       </c>
       <c r="J3">
-        <v>0.9909188162254409</v>
+        <v>0.9946831782918352</v>
       </c>
       <c r="K3">
-        <v>1.03783511790484</v>
+        <v>1.038795153718709</v>
       </c>
       <c r="L3">
-        <v>0.9926812371403155</v>
+        <v>0.9959095568570941</v>
       </c>
       <c r="M3">
-        <v>1.012800143911782</v>
+        <v>1.015287606668752</v>
+      </c>
+      <c r="N3">
+        <v>0.9960957424967648</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9773668146386331</v>
+        <v>0.9812172514961152</v>
       </c>
       <c r="D4">
-        <v>1.03055958550052</v>
+        <v>1.031523442214499</v>
       </c>
       <c r="E4">
-        <v>0.9884241072834763</v>
+        <v>0.9916747609708463</v>
       </c>
       <c r="F4">
-        <v>1.008246315830086</v>
+        <v>1.010746418694102</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047718322831869</v>
+        <v>1.048542130399683</v>
       </c>
       <c r="J4">
-        <v>0.9973677504703653</v>
+        <v>1.001113938744192</v>
       </c>
       <c r="K4">
-        <v>1.040302659705198</v>
+        <v>1.041255730338487</v>
       </c>
       <c r="L4">
-        <v>0.9986642805690262</v>
+        <v>1.001874713775493</v>
       </c>
       <c r="M4">
-        <v>1.018246223579175</v>
+        <v>1.020716851307008</v>
+      </c>
+      <c r="N4">
+        <v>1.002535635366583</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.980561650181235</v>
+        <v>0.9844011830098907</v>
       </c>
       <c r="D5">
-        <v>1.031798430977073</v>
+        <v>1.032759287901237</v>
       </c>
       <c r="E5">
-        <v>0.9911334454052618</v>
+        <v>0.994375929485551</v>
       </c>
       <c r="F5">
-        <v>1.010726807916472</v>
+        <v>1.013219466433632</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04846567975905</v>
+        <v>1.049287408993248</v>
       </c>
       <c r="J5">
-        <v>1.000006680043177</v>
+        <v>1.003746003639042</v>
       </c>
       <c r="K5">
-        <v>1.041312275725836</v>
+        <v>1.042262678651314</v>
       </c>
       <c r="L5">
-        <v>1.001112753161907</v>
+        <v>1.004316391804368</v>
       </c>
       <c r="M5">
-        <v>1.020476073581515</v>
+        <v>1.022940253370287</v>
+      </c>
+      <c r="N5">
+        <v>1.005171438095485</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9810932610116404</v>
+        <v>0.9849310184634315</v>
       </c>
       <c r="D6">
-        <v>1.032004782564701</v>
+        <v>1.032965150700956</v>
       </c>
       <c r="E6">
-        <v>0.99158436898416</v>
+        <v>0.9948255244514412</v>
       </c>
       <c r="F6">
-        <v>1.011139737332601</v>
+        <v>1.013631182800614</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048589830053033</v>
+        <v>1.049411222129859</v>
       </c>
       <c r="J6">
-        <v>1.000445721530867</v>
+        <v>1.004183934601153</v>
       </c>
       <c r="K6">
-        <v>1.041480229502712</v>
+        <v>1.042430198719327</v>
       </c>
       <c r="L6">
-        <v>1.001520117612964</v>
+        <v>1.004722654797373</v>
       </c>
       <c r="M6">
-        <v>1.020847123896571</v>
+        <v>1.023310255307936</v>
+      </c>
+      <c r="N6">
+        <v>1.005609990969794</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9774098317643325</v>
+        <v>0.9812601191133463</v>
       </c>
       <c r="D7">
-        <v>1.030576251354222</v>
+        <v>1.031540066964129</v>
       </c>
       <c r="E7">
-        <v>0.9884605806021481</v>
+        <v>0.9917111221680665</v>
       </c>
       <c r="F7">
-        <v>1.008279701925561</v>
+        <v>1.010779702786862</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047728399518752</v>
+        <v>1.048552178506525</v>
       </c>
       <c r="J7">
-        <v>0.997403287052377</v>
+        <v>1.001149380709767</v>
       </c>
       <c r="K7">
-        <v>1.040316256412623</v>
+        <v>1.041269290425618</v>
       </c>
       <c r="L7">
-        <v>0.9986972517293283</v>
+        <v>1.00190759144296</v>
       </c>
       <c r="M7">
-        <v>1.018276246623686</v>
+        <v>1.020746785843172</v>
+      </c>
+      <c r="N7">
+        <v>1.002571127663814</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9612598927048633</v>
+        <v>0.9651716893867515</v>
       </c>
       <c r="D8">
-        <v>1.024349543409407</v>
+        <v>1.025330200256855</v>
       </c>
       <c r="E8">
-        <v>0.9747811802016941</v>
+        <v>0.97807804300721</v>
       </c>
       <c r="F8">
-        <v>0.9957714623968508</v>
+        <v>0.9983132730881178</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043922248530176</v>
+        <v>1.044757932794216</v>
       </c>
       <c r="J8">
-        <v>0.9840548222984696</v>
+        <v>0.9878407932988981</v>
       </c>
       <c r="K8">
-        <v>1.035209484539664</v>
+        <v>1.036177650245385</v>
       </c>
       <c r="L8">
-        <v>0.9863139508563389</v>
+        <v>0.989563383630504</v>
       </c>
       <c r="M8">
-        <v>1.007009018218701</v>
+        <v>1.009516140741453</v>
+      </c>
+      <c r="N8">
+        <v>0.9892436405323054</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.929278194458075</v>
+        <v>0.9333476633323348</v>
       </c>
       <c r="D9">
-        <v>1.012223588071443</v>
+        <v>1.013246762537069</v>
       </c>
       <c r="E9">
-        <v>0.9477846700462373</v>
+        <v>0.95120124140119</v>
       </c>
       <c r="F9">
-        <v>0.9711766855918652</v>
+        <v>0.9738244394967603</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036292772046256</v>
+        <v>1.037159637640118</v>
       </c>
       <c r="J9">
-        <v>0.957601713332552</v>
+        <v>0.9614954541041795</v>
       </c>
       <c r="K9">
-        <v>1.025121410967395</v>
+        <v>1.026128515040964</v>
       </c>
       <c r="L9">
-        <v>0.9617858020144661</v>
+        <v>0.9651389840681147</v>
       </c>
       <c r="M9">
-        <v>0.9847553775966142</v>
+        <v>0.9873569702520544</v>
+      </c>
+      <c r="N9">
+        <v>0.9628608879340778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9047005789019987</v>
+        <v>0.9089310268025329</v>
       </c>
       <c r="D10">
-        <v>1.003121288294311</v>
+        <v>1.004187027791193</v>
       </c>
       <c r="E10">
-        <v>0.9271370756010213</v>
+        <v>0.9306764141856777</v>
       </c>
       <c r="F10">
-        <v>0.9524627115696548</v>
+        <v>0.9552171944906025</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030396161283327</v>
+        <v>1.03129514580346</v>
       </c>
       <c r="J10">
-        <v>0.9372814758685224</v>
+        <v>0.9412896922174067</v>
       </c>
       <c r="K10">
-        <v>1.017434414680137</v>
+        <v>1.01848109344573</v>
       </c>
       <c r="L10">
-        <v>0.9429595198627537</v>
+        <v>0.9464212814947707</v>
       </c>
       <c r="M10">
-        <v>0.9677467994505992</v>
+        <v>0.9704449974486955</v>
+      </c>
+      <c r="N10">
+        <v>0.9426264315477924</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8929972842873615</v>
+        <v>0.8973194889920212</v>
       </c>
       <c r="D11">
-        <v>0.9988609842255848</v>
+        <v>0.9999506752527142</v>
       </c>
       <c r="E11">
-        <v>0.9173398339737993</v>
+        <v>0.9209492264552768</v>
       </c>
       <c r="F11">
-        <v>0.9436166386424462</v>
+        <v>0.9464314444546141</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027589740450132</v>
+        <v>1.028507044214171</v>
       </c>
       <c r="J11">
-        <v>0.9276146490897292</v>
+        <v>0.9316893024197475</v>
       </c>
       <c r="K11">
-        <v>1.013804412730023</v>
+        <v>1.014873521826126</v>
       </c>
       <c r="L11">
-        <v>0.934009248251318</v>
+        <v>0.9375335567225741</v>
       </c>
       <c r="M11">
-        <v>0.9596864023931126</v>
+        <v>0.9624395946575764</v>
+      </c>
+      <c r="N11">
+        <v>0.9330124080954403</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8884557896885543</v>
+        <v>0.8928166271261156</v>
       </c>
       <c r="D12">
-        <v>0.9972213681267418</v>
+        <v>0.9983210854883656</v>
       </c>
       <c r="E12">
-        <v>0.9135444906761696</v>
+        <v>0.9171833832044543</v>
       </c>
       <c r="F12">
-        <v>0.940196040105443</v>
+        <v>0.9430361482704029</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026501977152667</v>
+        <v>1.027426989739054</v>
       </c>
       <c r="J12">
-        <v>0.9238656353456041</v>
+        <v>0.9279684515813216</v>
       </c>
       <c r="K12">
-        <v>1.01240199665729</v>
+        <v>1.013480521691516</v>
       </c>
       <c r="L12">
-        <v>0.9305392695619378</v>
+        <v>0.9340900126876385</v>
       </c>
       <c r="M12">
-        <v>0.956566261847329</v>
+        <v>0.9593425860400276</v>
+      </c>
+      <c r="N12">
+        <v>0.9292862732220359</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8894394447286094</v>
+        <v>0.8937917627144615</v>
       </c>
       <c r="D13">
-        <v>0.9975758390268655</v>
+        <v>0.9986733481248243</v>
       </c>
       <c r="E13">
-        <v>0.9143662175409505</v>
+        <v>0.9179986045048392</v>
       </c>
       <c r="F13">
-        <v>0.9409363261533464</v>
+        <v>0.9437708591315258</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026737501415368</v>
+        <v>1.027660814314031</v>
       </c>
       <c r="J13">
-        <v>0.9246775285093244</v>
+        <v>0.9287741254590958</v>
       </c>
       <c r="K13">
-        <v>1.012705439398652</v>
+        <v>1.013781889395066</v>
       </c>
       <c r="L13">
-        <v>0.9312906781517419</v>
+        <v>0.9348355873220978</v>
       </c>
       <c r="M13">
-        <v>0.9572416785393308</v>
+        <v>0.9600129028059365</v>
+      </c>
+      <c r="N13">
+        <v>0.9300930912491288</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8926260930819817</v>
+        <v>0.896951388993568</v>
       </c>
       <c r="D14">
-        <v>0.9987266830891444</v>
+        <v>0.9998171775841809</v>
       </c>
       <c r="E14">
-        <v>0.917029488674807</v>
+        <v>0.920641241556897</v>
       </c>
       <c r="F14">
-        <v>0.9433368019216732</v>
+        <v>0.9461536342994971</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027500801274883</v>
+        <v>1.028418721981716</v>
       </c>
       <c r="J14">
-        <v>0.927308179508689</v>
+        <v>0.9313850824926673</v>
       </c>
       <c r="K14">
-        <v>1.01368965276185</v>
+        <v>1.014759515880305</v>
       </c>
       <c r="L14">
-        <v>0.9337255641976968</v>
+        <v>0.9372519858734011</v>
       </c>
       <c r="M14">
-        <v>0.9594312151414964</v>
+        <v>0.962186258830778</v>
+      </c>
+      <c r="N14">
+        <v>0.932707756141169</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8945624892824596</v>
+        <v>0.8988717862596978</v>
       </c>
       <c r="D15">
-        <v>0.9994278562623046</v>
+        <v>1.000514189978494</v>
       </c>
       <c r="E15">
-        <v>0.9186487395927986</v>
+        <v>0.9222482760710889</v>
       </c>
       <c r="F15">
-        <v>0.944797132351324</v>
+        <v>0.9476034721451655</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027964829282098</v>
+        <v>1.028879556722664</v>
       </c>
       <c r="J15">
-        <v>0.9289070369184155</v>
+        <v>0.9329723040192145</v>
       </c>
       <c r="K15">
-        <v>1.014288582786284</v>
+        <v>1.015354542222568</v>
       </c>
       <c r="L15">
-        <v>0.9352055966359885</v>
+        <v>0.9387210850601905</v>
       </c>
       <c r="M15">
-        <v>0.9607627754969083</v>
+        <v>0.9635082359498884</v>
+      </c>
+      <c r="N15">
+        <v>0.9342972317043408</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9054522029268974</v>
+        <v>0.9096771186594749</v>
       </c>
       <c r="D16">
-        <v>1.003396587030079</v>
+        <v>1.004460875815747</v>
       </c>
       <c r="E16">
-        <v>0.9277670860439275</v>
+        <v>0.9313022019507743</v>
       </c>
       <c r="F16">
-        <v>0.9530323320834028</v>
+        <v>0.9557831671216755</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030576508811708</v>
+        <v>1.031474388623303</v>
       </c>
       <c r="J16">
-        <v>0.9379025611302562</v>
+        <v>0.9419067950020847</v>
       </c>
       <c r="K16">
-        <v>1.017668286365611</v>
+        <v>1.018713609750301</v>
       </c>
       <c r="L16">
-        <v>0.9435347050914035</v>
+        <v>0.9469927081003396</v>
       </c>
       <c r="M16">
-        <v>0.9682653923216981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9709602724593361</v>
+      </c>
+      <c r="N16">
+        <v>0.9432444106892069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9119776272126122</v>
+        <v>0.9161562240514877</v>
       </c>
       <c r="D17">
-        <v>1.005795005245748</v>
+        <v>1.006847115921036</v>
       </c>
       <c r="E17">
-        <v>0.9332406013779991</v>
+        <v>0.9367403694666979</v>
       </c>
       <c r="F17">
-        <v>0.9579849867877595</v>
+        <v>0.9607052269952847</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032142494159067</v>
+        <v>1.033031125255517</v>
       </c>
       <c r="J17">
-        <v>0.9432957592430451</v>
+        <v>0.9472667681582924</v>
       </c>
       <c r="K17">
-        <v>1.019702184274621</v>
+        <v>1.02073614613251</v>
       </c>
       <c r="L17">
-        <v>0.9485299932433735</v>
+        <v>0.9519565920483998</v>
       </c>
       <c r="M17">
-        <v>0.9727721032124226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9754391960970493</v>
+      </c>
+      <c r="N17">
+        <v>0.9486119956220943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9156842695548726</v>
+        <v>0.919837871070417</v>
       </c>
       <c r="D18">
-        <v>1.007163934960901</v>
+        <v>1.00820944932895</v>
       </c>
       <c r="E18">
-        <v>0.9363527860257521</v>
+        <v>0.9398334859084435</v>
       </c>
       <c r="F18">
-        <v>0.9608039969660708</v>
+        <v>0.9635076866016217</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033032073335119</v>
+        <v>1.033915714800363</v>
       </c>
       <c r="J18">
-        <v>0.9463600373636247</v>
+        <v>0.9503132127735757</v>
       </c>
       <c r="K18">
-        <v>1.020860144813464</v>
+        <v>1.021887965785984</v>
       </c>
       <c r="L18">
-        <v>0.9513687018706131</v>
+        <v>0.9547784072719812</v>
       </c>
       <c r="M18">
-        <v>0.9753354355856692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9779875285119844</v>
+      </c>
+      <c r="N18">
+        <v>0.9516627665381635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9169321438737267</v>
+        <v>0.9210775366747286</v>
       </c>
       <c r="D19">
-        <v>1.007625847496682</v>
+        <v>1.008669191658647</v>
       </c>
       <c r="E19">
-        <v>0.937401018471288</v>
+        <v>0.9408754574481827</v>
       </c>
       <c r="F19">
-        <v>0.9617539596830295</v>
+        <v>0.9644522074780988</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033331540497515</v>
+        <v>1.03421354367446</v>
       </c>
       <c r="J19">
-        <v>0.9473917651812594</v>
+        <v>0.9513390998846391</v>
       </c>
       <c r="K19">
-        <v>1.021250390159571</v>
+        <v>1.022276192940774</v>
       </c>
       <c r="L19">
-        <v>0.9523245622329238</v>
+        <v>0.9557287287014629</v>
       </c>
       <c r="M19">
-        <v>0.97619893157418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9788460977846531</v>
+      </c>
+      <c r="N19">
+        <v>0.9526901105265949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9112880225587482</v>
+        <v>0.915471372708355</v>
       </c>
       <c r="D20">
-        <v>1.005540841208093</v>
+        <v>1.006594204299504</v>
       </c>
       <c r="E20">
-        <v>0.9326618347522517</v>
+        <v>0.93616522960274</v>
       </c>
       <c r="F20">
-        <v>0.9574609769423749</v>
+        <v>0.9601843612533948</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031976989522515</v>
+        <v>1.032866569630189</v>
       </c>
       <c r="J20">
-        <v>0.9427257218501667</v>
+        <v>0.9467001300774309</v>
       </c>
       <c r="K20">
-        <v>1.019486956315599</v>
+        <v>1.020522085203849</v>
       </c>
       <c r="L20">
-        <v>0.9480019580572607</v>
+        <v>0.9514317739068018</v>
       </c>
       <c r="M20">
-        <v>0.9722954707361348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9749654157838183</v>
+      </c>
+      <c r="N20">
+        <v>0.9480445528501635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8916934109053075</v>
+        <v>0.896026525514162</v>
       </c>
       <c r="D21">
-        <v>0.998389455087929</v>
+        <v>0.9994819808715164</v>
       </c>
       <c r="E21">
-        <v>0.9162498013016307</v>
+        <v>0.9198675244788054</v>
       </c>
       <c r="F21">
-        <v>0.9426338668725576</v>
+        <v>0.9454558235467124</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027277350679827</v>
+        <v>1.028196831753859</v>
       </c>
       <c r="J21">
-        <v>0.9265381604509069</v>
+        <v>0.9306207565906947</v>
       </c>
       <c r="K21">
-        <v>1.013401404112018</v>
+        <v>1.014473173934589</v>
       </c>
       <c r="L21">
-        <v>0.933012814054568</v>
+        <v>0.9365445823056728</v>
       </c>
       <c r="M21">
-        <v>0.9587901436767593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9615498698415414</v>
+      </c>
+      <c r="N21">
+        <v>0.9319423448087462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8782216134299023</v>
+        <v>0.8826763662295947</v>
       </c>
       <c r="D22">
-        <v>0.9935553537085895</v>
+        <v>0.9946793160006356</v>
       </c>
       <c r="E22">
-        <v>0.9050057403173603</v>
+        <v>0.9087163463393754</v>
       </c>
       <c r="F22">
-        <v>0.9325137960847373</v>
+        <v>0.935415200785313</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0240545807717</v>
+        <v>1.024998316939955</v>
       </c>
       <c r="J22">
-        <v>0.9154226573304561</v>
+        <v>0.9195943246757612</v>
       </c>
       <c r="K22">
-        <v>1.009255570591626</v>
+        <v>1.010356918733789</v>
       </c>
       <c r="L22">
-        <v>0.922727193447977</v>
+        <v>0.926342395344622</v>
       </c>
       <c r="M22">
-        <v>0.9495521812501626</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9523846775943405</v>
+      </c>
+      <c r="N22">
+        <v>0.9209002540957443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8854875881076065</v>
+        <v>0.8898746570786281</v>
       </c>
       <c r="D23">
-        <v>0.9961539705485014</v>
+        <v>0.9972604775940642</v>
       </c>
       <c r="E23">
-        <v>0.9110659887365119</v>
+        <v>0.9147249120809926</v>
       </c>
       <c r="F23">
-        <v>0.9379642155464846</v>
+        <v>0.9408214739597465</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025791563805336</v>
+        <v>1.02672180860221</v>
       </c>
       <c r="J23">
-        <v>0.9214161361767181</v>
+        <v>0.9255381308951072</v>
       </c>
       <c r="K23">
-        <v>1.011487416952983</v>
+        <v>1.012572326129694</v>
       </c>
       <c r="L23">
-        <v>0.9282724458140759</v>
+        <v>0.931841166673977</v>
       </c>
       <c r="M23">
-        <v>0.9545294892563166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9573215117643227</v>
+      </c>
+      <c r="N23">
+        <v>0.9268525012016857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.911599930284076</v>
+        <v>0.9157811264548439</v>
       </c>
       <c r="D24">
-        <v>1.005655779126587</v>
+        <v>1.006708574759089</v>
       </c>
       <c r="E24">
-        <v>0.9329236010418668</v>
+        <v>0.9364253523910804</v>
       </c>
       <c r="F24">
-        <v>0.9576979684442143</v>
+        <v>0.9604199281222515</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03205184707278</v>
+        <v>1.032940997128271</v>
       </c>
       <c r="J24">
-        <v>0.9429835470184831</v>
+        <v>0.946956414530802</v>
       </c>
       <c r="K24">
-        <v>1.019584295631728</v>
+        <v>1.02061889570695</v>
       </c>
       <c r="L24">
-        <v>0.9482407842452887</v>
+        <v>0.9516691421098131</v>
       </c>
       <c r="M24">
-        <v>0.9725110408525822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9751796934480426</v>
+      </c>
+      <c r="N24">
+        <v>0.9483012012568547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9380421640428288</v>
+        <v>0.9420631737775949</v>
       </c>
       <c r="D25">
-        <v>1.015516771114391</v>
+        <v>1.01652697405633</v>
       </c>
       <c r="E25">
-        <v>0.9551690819515025</v>
+        <v>0.9585487731853902</v>
       </c>
       <c r="F25">
-        <v>0.977890943991082</v>
+        <v>0.9805063050021611</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03839138503424</v>
+        <v>1.039248614361044</v>
       </c>
       <c r="J25">
-        <v>0.9648510299327704</v>
+        <v>0.9687110444090767</v>
       </c>
       <c r="K25">
-        <v>1.027878891583243</v>
+        <v>1.028874035210611</v>
       </c>
       <c r="L25">
-        <v>0.9685056352431763</v>
+        <v>0.9718265591232638</v>
       </c>
       <c r="M25">
-        <v>0.9908424529724313</v>
+        <v>0.9934149660634942</v>
+      </c>
+      <c r="N25">
+        <v>0.9700867252048475</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9608193504142978</v>
+        <v>0.9774909175398101</v>
       </c>
       <c r="D2">
-        <v>1.02366111266269</v>
+        <v>1.040630164556484</v>
       </c>
       <c r="E2">
-        <v>0.9743948512051304</v>
+        <v>0.9864530077046078</v>
       </c>
       <c r="F2">
-        <v>0.9949500294913107</v>
+        <v>1.034507965841321</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043724687713395</v>
+        <v>1.049903619972246</v>
       </c>
       <c r="J2">
-        <v>0.9842386164222711</v>
+        <v>1.00036636638715</v>
       </c>
       <c r="K2">
-        <v>1.034800365849889</v>
+        <v>1.051551053780688</v>
       </c>
       <c r="L2">
-        <v>0.9862228204664925</v>
+        <v>0.9981043566264738</v>
       </c>
       <c r="M2">
-        <v>1.00648016967095</v>
+        <v>1.045506605370698</v>
       </c>
       <c r="N2">
-        <v>0.9856363481513378</v>
+        <v>1.001787001371046</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9734413477919873</v>
+        <v>0.9854051733191269</v>
       </c>
       <c r="D3">
-        <v>1.02851457178852</v>
+        <v>1.04466830133777</v>
       </c>
       <c r="E3">
-        <v>0.9850821727926242</v>
+        <v>0.9930395862010214</v>
       </c>
       <c r="F3">
-        <v>1.004714697933503</v>
+        <v>1.039686336972108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046713682219705</v>
+        <v>1.051578162126687</v>
       </c>
       <c r="J3">
-        <v>0.9946831782918352</v>
+        <v>1.006301773035789</v>
       </c>
       <c r="K3">
-        <v>1.038795153718709</v>
+        <v>1.054759846526681</v>
       </c>
       <c r="L3">
-        <v>0.9959095568570941</v>
+        <v>1.003762308395043</v>
       </c>
       <c r="M3">
-        <v>1.015287606668752</v>
+        <v>1.049835408435051</v>
       </c>
       <c r="N3">
-        <v>0.9960957424967648</v>
+        <v>1.007730836977927</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9812172514961152</v>
+        <v>0.9903669794474887</v>
       </c>
       <c r="D4">
-        <v>1.031523442214499</v>
+        <v>1.047210867411394</v>
       </c>
       <c r="E4">
-        <v>0.9916747609708463</v>
+        <v>0.9971760667622824</v>
       </c>
       <c r="F4">
-        <v>1.010746418694102</v>
+        <v>1.042946134863255</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048542130399683</v>
+        <v>1.052618911429612</v>
       </c>
       <c r="J4">
-        <v>1.001113938744192</v>
+        <v>1.010020350515654</v>
       </c>
       <c r="K4">
-        <v>1.041255730338487</v>
+        <v>1.056771027849133</v>
       </c>
       <c r="L4">
-        <v>1.001874713775493</v>
+        <v>1.007308694084518</v>
       </c>
       <c r="M4">
-        <v>1.020716851307008</v>
+        <v>1.052552460408717</v>
       </c>
       <c r="N4">
-        <v>1.002535635366583</v>
+        <v>1.011454695264339</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9844011830098907</v>
+        <v>0.9924170692511055</v>
       </c>
       <c r="D5">
-        <v>1.032759287901237</v>
+        <v>1.04826368511748</v>
       </c>
       <c r="E5">
-        <v>0.994375929485551</v>
+        <v>0.9988867266455864</v>
       </c>
       <c r="F5">
-        <v>1.013219466433632</v>
+        <v>1.04429586071378</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049287408993248</v>
+        <v>1.05304660905121</v>
       </c>
       <c r="J5">
-        <v>1.003746003639042</v>
+        <v>1.011556056310455</v>
       </c>
       <c r="K5">
-        <v>1.042262678651314</v>
+        <v>1.057601629396359</v>
       </c>
       <c r="L5">
-        <v>1.004316391804368</v>
+        <v>1.008773668457295</v>
       </c>
       <c r="M5">
-        <v>1.022940253370287</v>
+        <v>1.053675573166637</v>
       </c>
       <c r="N5">
-        <v>1.005171438095485</v>
+        <v>1.012992581937517</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9849310184634315</v>
+        <v>0.9927592481347527</v>
       </c>
       <c r="D6">
-        <v>1.032965150700956</v>
+        <v>1.048439536355954</v>
       </c>
       <c r="E6">
-        <v>0.9948255244514412</v>
+        <v>0.9991723407754219</v>
       </c>
       <c r="F6">
-        <v>1.013631182800614</v>
+        <v>1.044521301962566</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049411222129859</v>
+        <v>1.053117856035949</v>
       </c>
       <c r="J6">
-        <v>1.004183934601153</v>
+        <v>1.011812335242081</v>
       </c>
       <c r="K6">
-        <v>1.042430198719327</v>
+        <v>1.057740236400163</v>
       </c>
       <c r="L6">
-        <v>1.004722654797373</v>
+        <v>1.009018165784977</v>
       </c>
       <c r="M6">
-        <v>1.023310255307936</v>
+        <v>1.053863053232094</v>
       </c>
       <c r="N6">
-        <v>1.005609990969794</v>
+        <v>1.013249224814622</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9812601191133463</v>
+        <v>0.9903945108765111</v>
       </c>
       <c r="D7">
-        <v>1.031540066964129</v>
+        <v>1.047224997409957</v>
       </c>
       <c r="E7">
-        <v>0.9917111221680665</v>
+        <v>0.9971990337816323</v>
       </c>
       <c r="F7">
-        <v>1.010779702786862</v>
+        <v>1.042964249911244</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048552178506525</v>
+        <v>1.05262466446633</v>
       </c>
       <c r="J7">
-        <v>1.001149380709767</v>
+        <v>1.010040977030313</v>
       </c>
       <c r="K7">
-        <v>1.041269290425618</v>
+        <v>1.056782184058409</v>
       </c>
       <c r="L7">
-        <v>1.00190759144296</v>
+        <v>1.007328369091926</v>
       </c>
       <c r="M7">
-        <v>1.020746785843172</v>
+        <v>1.052567541467329</v>
       </c>
       <c r="N7">
-        <v>1.002571127663814</v>
+        <v>1.011475351071015</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9651716893867515</v>
+        <v>0.9801999841604969</v>
       </c>
       <c r="D8">
-        <v>1.025330200256855</v>
+        <v>1.042009929182796</v>
       </c>
       <c r="E8">
-        <v>0.97807804300721</v>
+        <v>0.988706039978595</v>
       </c>
       <c r="F8">
-        <v>0.9983132730881178</v>
+        <v>1.036277533663172</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044757932794216</v>
+        <v>1.050478658396968</v>
       </c>
       <c r="J8">
-        <v>0.9878407932988981</v>
+        <v>1.002398559615418</v>
       </c>
       <c r="K8">
-        <v>1.036177650245385</v>
+        <v>1.052649399279871</v>
       </c>
       <c r="L8">
-        <v>0.989563383630504</v>
+        <v>1.000041200082413</v>
       </c>
       <c r="M8">
-        <v>1.009516140741453</v>
+        <v>1.046987540825242</v>
       </c>
       <c r="N8">
-        <v>0.9892436405323054</v>
+        <v>1.003822080546793</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9333476633323348</v>
+        <v>0.9609020764189676</v>
       </c>
       <c r="D9">
-        <v>1.013246762537069</v>
+        <v>1.032242940245186</v>
       </c>
       <c r="E9">
-        <v>0.95120124140119</v>
+        <v>0.9726929149791868</v>
       </c>
       <c r="F9">
-        <v>0.9738244394967603</v>
+        <v>1.023744222961142</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037159637640118</v>
+        <v>1.046348868000633</v>
       </c>
       <c r="J9">
-        <v>0.9614954541041795</v>
+        <v>0.9879152657227468</v>
       </c>
       <c r="K9">
-        <v>1.026128515040964</v>
+        <v>1.044833694806587</v>
       </c>
       <c r="L9">
-        <v>0.9651389840681147</v>
+        <v>0.9862451330490787</v>
       </c>
       <c r="M9">
-        <v>0.9873569702520544</v>
+        <v>1.036463464760462</v>
       </c>
       <c r="N9">
-        <v>0.9628608879340778</v>
+        <v>0.9893182187155379</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9089310268025329</v>
+        <v>0.9469576381507712</v>
       </c>
       <c r="D10">
-        <v>1.004187027791193</v>
+        <v>1.025283054781639</v>
       </c>
       <c r="E10">
-        <v>0.9306764141856777</v>
+        <v>0.9611758817048996</v>
       </c>
       <c r="F10">
-        <v>0.9552171944906025</v>
+        <v>1.01479915496894</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03129514580346</v>
+        <v>1.043329064313599</v>
       </c>
       <c r="J10">
-        <v>0.9412896922174067</v>
+        <v>0.9774461266085729</v>
       </c>
       <c r="K10">
-        <v>1.01848109344573</v>
+        <v>1.03921034321867</v>
       </c>
       <c r="L10">
-        <v>0.9464212814947707</v>
+        <v>0.9762833771870645</v>
       </c>
       <c r="M10">
-        <v>0.9704449974486955</v>
+        <v>1.028906250070072</v>
       </c>
       <c r="N10">
-        <v>0.9426264315477924</v>
+        <v>0.9788342122229945</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8973194889920212</v>
+        <v>0.9406147435055016</v>
       </c>
       <c r="D11">
-        <v>0.9999506752527142</v>
+        <v>1.022147103748301</v>
       </c>
       <c r="E11">
-        <v>0.9209492264552768</v>
+        <v>0.955952649126916</v>
       </c>
       <c r="F11">
-        <v>0.9464314444546141</v>
+        <v>1.010763633933294</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028507044214171</v>
+        <v>1.041949639137519</v>
       </c>
       <c r="J11">
-        <v>0.9316893024197475</v>
+        <v>0.9726851426953456</v>
       </c>
       <c r="K11">
-        <v>1.014873521826126</v>
+        <v>1.036663104532368</v>
       </c>
       <c r="L11">
-        <v>0.9375335567225741</v>
+        <v>0.9717559497730928</v>
       </c>
       <c r="M11">
-        <v>0.9624395946575764</v>
+        <v>1.025485379057372</v>
       </c>
       <c r="N11">
-        <v>0.9330124080954403</v>
+        <v>0.9740664671665182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8928166271261156</v>
+        <v>0.9382079929875361</v>
       </c>
       <c r="D12">
-        <v>0.9983210854883656</v>
+        <v>1.020962331977029</v>
       </c>
       <c r="E12">
-        <v>0.9171833832044543</v>
+        <v>0.9539733406235574</v>
       </c>
       <c r="F12">
-        <v>0.9430361482704029</v>
+        <v>1.009238064116724</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027426989739054</v>
+        <v>1.041425613469608</v>
       </c>
       <c r="J12">
-        <v>0.9279684515813216</v>
+        <v>0.9708789932664759</v>
       </c>
       <c r="K12">
-        <v>1.013480521691516</v>
+        <v>1.035698652449523</v>
       </c>
       <c r="L12">
-        <v>0.9340900126876385</v>
+        <v>0.9700388559517947</v>
       </c>
       <c r="M12">
-        <v>0.9593425860400276</v>
+        <v>1.024190392013969</v>
       </c>
       <c r="N12">
-        <v>0.9292862732220359</v>
+        <v>0.9722577527982914</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8937917627144615</v>
+        <v>0.9387266312428403</v>
       </c>
       <c r="D13">
-        <v>0.9986733481248243</v>
+        <v>1.02121739941538</v>
       </c>
       <c r="E13">
-        <v>0.9179986045048392</v>
+        <v>0.9543997462423972</v>
       </c>
       <c r="F13">
-        <v>0.9437708591315258</v>
+        <v>1.009566546672278</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027660814314031</v>
+        <v>1.041538560778042</v>
       </c>
       <c r="J13">
-        <v>0.9287741254590958</v>
+        <v>0.9712681864654772</v>
       </c>
       <c r="K13">
-        <v>1.013781889395066</v>
+        <v>1.035906383579011</v>
       </c>
       <c r="L13">
-        <v>0.9348355873220978</v>
+        <v>0.9704088383148153</v>
       </c>
       <c r="M13">
-        <v>0.9600129028059365</v>
+        <v>1.024469307106094</v>
       </c>
       <c r="N13">
-        <v>0.9300930912491288</v>
+        <v>0.9726474986962763</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.896951388993568</v>
+        <v>0.9404168664363336</v>
       </c>
       <c r="D14">
-        <v>0.9998171775841809</v>
+        <v>1.022049586751222</v>
       </c>
       <c r="E14">
-        <v>0.920641241556897</v>
+        <v>0.9557898610097585</v>
       </c>
       <c r="F14">
-        <v>0.9461536342994971</v>
+        <v>1.010638086385864</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028418721981716</v>
+        <v>1.041906565948568</v>
       </c>
       <c r="J14">
-        <v>0.9313850824926673</v>
+        <v>0.9725366370576842</v>
       </c>
       <c r="K14">
-        <v>1.014759515880305</v>
+        <v>1.036583764757802</v>
       </c>
       <c r="L14">
-        <v>0.9372519858734011</v>
+        <v>0.9716147571340518</v>
       </c>
       <c r="M14">
-        <v>0.962186258830778</v>
+        <v>1.025378843814956</v>
       </c>
       <c r="N14">
-        <v>0.932707756141169</v>
+        <v>0.9739177506338176</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8988717862596978</v>
+        <v>0.9414513960378322</v>
       </c>
       <c r="D15">
-        <v>1.000514189978494</v>
+        <v>1.022559632026875</v>
       </c>
       <c r="E15">
-        <v>0.9222482760710889</v>
+        <v>0.9566410476606554</v>
       </c>
       <c r="F15">
-        <v>0.9476034721451655</v>
+        <v>1.011294701246505</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028879556722664</v>
+        <v>1.042131735325403</v>
       </c>
       <c r="J15">
-        <v>0.9329723040192145</v>
+        <v>0.9733130616006749</v>
       </c>
       <c r="K15">
-        <v>1.015354542222568</v>
+        <v>1.036998651553603</v>
       </c>
       <c r="L15">
-        <v>0.9387210850601905</v>
+        <v>0.9723529660524751</v>
       </c>
       <c r="M15">
-        <v>0.9635082359498884</v>
+        <v>1.025935951560084</v>
       </c>
       <c r="N15">
-        <v>0.9342972317043408</v>
+        <v>0.9746952777887163</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9096771186594749</v>
+        <v>0.9473717689542995</v>
       </c>
       <c r="D16">
-        <v>1.004460875815747</v>
+        <v>1.02548847210241</v>
       </c>
       <c r="E16">
-        <v>0.9313022019507743</v>
+        <v>0.9615172510451209</v>
       </c>
       <c r="F16">
-        <v>0.9557831671216755</v>
+        <v>1.015063378017526</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031474388623303</v>
+        <v>1.043419028596171</v>
       </c>
       <c r="J16">
-        <v>0.9419067950020847</v>
+        <v>0.977757012190271</v>
       </c>
       <c r="K16">
-        <v>1.018713609750301</v>
+        <v>1.039376912075162</v>
       </c>
       <c r="L16">
-        <v>0.9469927081003396</v>
+        <v>0.9765790723925334</v>
       </c>
       <c r="M16">
-        <v>0.9709602724593361</v>
+        <v>1.029129987336422</v>
       </c>
       <c r="N16">
-        <v>0.9432444106892069</v>
+        <v>0.9791455392978781</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9161562240514877</v>
+        <v>0.9510005940330704</v>
       </c>
       <c r="D17">
-        <v>1.006847115921036</v>
+        <v>1.027291875740478</v>
       </c>
       <c r="E17">
-        <v>0.9367403694666979</v>
+        <v>0.964510276578372</v>
       </c>
       <c r="F17">
-        <v>0.9607052269952847</v>
+        <v>1.017382454878003</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033031125255517</v>
+        <v>1.044206715660647</v>
       </c>
       <c r="J17">
-        <v>0.9472667681582924</v>
+        <v>0.9804812949896639</v>
       </c>
       <c r="K17">
-        <v>1.02073614613251</v>
+        <v>1.040837722789479</v>
       </c>
       <c r="L17">
-        <v>0.9519565920483998</v>
+        <v>0.9791705623646016</v>
       </c>
       <c r="M17">
-        <v>0.9754391960970493</v>
+        <v>1.031092419763448</v>
       </c>
       <c r="N17">
-        <v>0.9486119956220943</v>
+        <v>0.9818736908913256</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.919837871070417</v>
+        <v>0.9530881795529524</v>
       </c>
       <c r="D18">
-        <v>1.00820944932895</v>
+        <v>1.028332089277074</v>
       </c>
       <c r="E18">
-        <v>0.9398334859084435</v>
+        <v>0.9662335340044503</v>
       </c>
       <c r="F18">
-        <v>0.9635076866016217</v>
+        <v>1.018719643708976</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033915714800363</v>
+        <v>1.044659293154236</v>
       </c>
       <c r="J18">
-        <v>0.9503132127735757</v>
+        <v>0.9820486063868951</v>
       </c>
       <c r="K18">
-        <v>1.021887965785984</v>
+        <v>1.041679060384593</v>
       </c>
       <c r="L18">
-        <v>0.9547784072719812</v>
+        <v>0.9806617383054358</v>
       </c>
       <c r="M18">
-        <v>0.9779875285119844</v>
+        <v>1.032222889947908</v>
       </c>
       <c r="N18">
-        <v>0.9516627665381635</v>
+        <v>0.9834432280505141</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9210775366747286</v>
+        <v>0.9537952031209717</v>
       </c>
       <c r="D19">
-        <v>1.008669191658647</v>
+        <v>1.028684838172849</v>
       </c>
       <c r="E19">
-        <v>0.9408754574481827</v>
+        <v>0.9668174028234698</v>
       </c>
       <c r="F19">
-        <v>0.9644522074780988</v>
+        <v>1.019173025907434</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03421354367446</v>
+        <v>1.044812469670248</v>
       </c>
       <c r="J19">
-        <v>0.9513390998846391</v>
+        <v>0.9825794333750203</v>
       </c>
       <c r="K19">
-        <v>1.022276192940774</v>
+        <v>1.041964155150886</v>
       </c>
       <c r="L19">
-        <v>0.9557287287014629</v>
+        <v>0.9811668228655542</v>
       </c>
       <c r="M19">
-        <v>0.9788460977846531</v>
+        <v>1.032606001801643</v>
       </c>
       <c r="N19">
-        <v>0.9526901105265949</v>
+        <v>0.9839748088738491</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.915471372708355</v>
+        <v>0.9506142930976786</v>
       </c>
       <c r="D20">
-        <v>1.006594204299504</v>
+        <v>1.027099606523851</v>
       </c>
       <c r="E20">
-        <v>0.93616522960274</v>
+        <v>0.9641915078317788</v>
       </c>
       <c r="F20">
-        <v>0.9601843612533948</v>
+        <v>1.017135257121654</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032866569630189</v>
+        <v>1.04412292038166</v>
       </c>
       <c r="J20">
-        <v>0.9467001300774309</v>
+        <v>0.9801912750756946</v>
       </c>
       <c r="K20">
-        <v>1.020522085203849</v>
+        <v>1.040682111005174</v>
       </c>
       <c r="L20">
-        <v>0.9514317739068018</v>
+        <v>0.9788946518074491</v>
       </c>
       <c r="M20">
-        <v>0.9749654157838183</v>
+        <v>1.030883350012079</v>
       </c>
       <c r="N20">
-        <v>0.9480445528501635</v>
+        <v>0.9815832591158129</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.896026525514162</v>
+        <v>0.9399205775327467</v>
       </c>
       <c r="D21">
-        <v>0.9994819808715164</v>
+        <v>1.021805092441336</v>
       </c>
       <c r="E21">
-        <v>0.9198675244788054</v>
+        <v>0.9553816202405013</v>
       </c>
       <c r="F21">
-        <v>0.9454558235467124</v>
+        <v>1.010323298262136</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028196831753859</v>
+        <v>1.041798526539151</v>
       </c>
       <c r="J21">
-        <v>0.9306207565906947</v>
+        <v>0.972164181494717</v>
       </c>
       <c r="K21">
-        <v>1.014473173934589</v>
+        <v>1.036384810322222</v>
       </c>
       <c r="L21">
-        <v>0.9365445823056728</v>
+        <v>0.9712606501191799</v>
       </c>
       <c r="M21">
-        <v>0.9615498698415414</v>
+        <v>1.025111696888068</v>
       </c>
       <c r="N21">
-        <v>0.9319423448087462</v>
+        <v>0.9735447661412299</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8826763662295947</v>
+        <v>0.9329005729460973</v>
       </c>
       <c r="D22">
-        <v>0.9946793160006356</v>
+        <v>1.018359912733101</v>
       </c>
       <c r="E22">
-        <v>0.9087163463393754</v>
+        <v>0.9496136500135275</v>
       </c>
       <c r="F22">
-        <v>0.935415200785313</v>
+        <v>1.005885125656645</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024998316939955</v>
+        <v>1.040269193602844</v>
       </c>
       <c r="J22">
-        <v>0.9195943246757612</v>
+        <v>0.9668969360181556</v>
       </c>
       <c r="K22">
-        <v>1.010356918733789</v>
+        <v>1.03357622430808</v>
       </c>
       <c r="L22">
-        <v>0.926342395344622</v>
+        <v>0.9662540137072574</v>
       </c>
       <c r="M22">
-        <v>0.9523846775943405</v>
+        <v>1.02134089168844</v>
       </c>
       <c r="N22">
-        <v>0.9209002540957443</v>
+        <v>0.9682700405719302</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8898746570786281</v>
+        <v>0.9366519533766648</v>
       </c>
       <c r="D23">
-        <v>0.9972604775940642</v>
+        <v>1.020197874831083</v>
       </c>
       <c r="E23">
-        <v>0.9147249120809926</v>
+        <v>0.9526944243885237</v>
       </c>
       <c r="F23">
-        <v>0.9408214739597465</v>
+        <v>1.008253424292344</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02672180860221</v>
+        <v>1.04108667546408</v>
       </c>
       <c r="J23">
-        <v>0.9255381308951072</v>
+        <v>0.9697113891927511</v>
       </c>
       <c r="K23">
-        <v>1.012572326129694</v>
+        <v>1.035075752487491</v>
       </c>
       <c r="L23">
-        <v>0.931841166673977</v>
+        <v>0.9689289544343135</v>
       </c>
       <c r="M23">
-        <v>0.9573215117643227</v>
+        <v>1.023354067658554</v>
       </c>
       <c r="N23">
-        <v>0.9268525012016857</v>
+        <v>0.9710884905928557</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9157811264548439</v>
+        <v>0.9507889352623129</v>
       </c>
       <c r="D24">
-        <v>1.006708574759089</v>
+        <v>1.027186520689859</v>
       </c>
       <c r="E24">
-        <v>0.9364253523910804</v>
+        <v>0.9643356150412288</v>
       </c>
       <c r="F24">
-        <v>0.9604199281222515</v>
+        <v>1.017247002850552</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032940997128271</v>
+        <v>1.044160805019435</v>
       </c>
       <c r="J24">
-        <v>0.946956414530802</v>
+        <v>0.9803223894444409</v>
       </c>
       <c r="K24">
-        <v>1.02061889570695</v>
+        <v>1.040752458321785</v>
       </c>
       <c r="L24">
-        <v>0.9516691421098131</v>
+        <v>0.9790193867011969</v>
       </c>
       <c r="M24">
-        <v>0.9751796934480426</v>
+        <v>1.030977863316558</v>
       </c>
       <c r="N24">
-        <v>0.9483012012568547</v>
+        <v>0.9817145596820017</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9420631737775949</v>
+        <v>0.9660664844650299</v>
       </c>
       <c r="D25">
-        <v>1.01652697405633</v>
+        <v>1.034842157691174</v>
       </c>
       <c r="E25">
-        <v>0.9585487731853902</v>
+        <v>0.9769699266556632</v>
       </c>
       <c r="F25">
-        <v>0.9805063050021611</v>
+        <v>1.027081463295715</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039248614361044</v>
+        <v>1.047460895797328</v>
       </c>
       <c r="J25">
-        <v>0.9687110444090767</v>
+        <v>0.9917924141584524</v>
       </c>
       <c r="K25">
-        <v>1.028874035210611</v>
+        <v>1.046922642153718</v>
       </c>
       <c r="L25">
-        <v>0.9718265591232638</v>
+        <v>0.9899365950930463</v>
       </c>
       <c r="M25">
-        <v>0.9934149660634942</v>
+        <v>1.039273432711379</v>
       </c>
       <c r="N25">
-        <v>0.9700867252048475</v>
+        <v>0.9932008731467372</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9774909175398101</v>
+        <v>1.002014192743482</v>
       </c>
       <c r="D2">
-        <v>1.040630164556484</v>
+        <v>1.039221151413201</v>
       </c>
       <c r="E2">
-        <v>0.9864530077046078</v>
+        <v>1.005749227195335</v>
       </c>
       <c r="F2">
-        <v>1.034507965841321</v>
+        <v>1.01111151773282</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049903619972246</v>
+        <v>1.051809453247977</v>
       </c>
       <c r="J2">
-        <v>1.00036636638715</v>
+        <v>1.024134826100172</v>
       </c>
       <c r="K2">
-        <v>1.051551053780688</v>
+        <v>1.050159833436216</v>
       </c>
       <c r="L2">
-        <v>0.9981043566264738</v>
+        <v>1.01712904305051</v>
       </c>
       <c r="M2">
-        <v>1.045506605370698</v>
+        <v>1.022418191881103</v>
       </c>
       <c r="N2">
-        <v>1.001787001371046</v>
+        <v>1.02558921502314</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9854051733191269</v>
+        <v>1.010764040764375</v>
       </c>
       <c r="D3">
-        <v>1.04466830133777</v>
+        <v>1.04408637185178</v>
       </c>
       <c r="E3">
-        <v>0.9930395862010214</v>
+        <v>1.013341917340099</v>
       </c>
       <c r="F3">
-        <v>1.039686336972108</v>
+        <v>1.020033308959933</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051578162126687</v>
+        <v>1.055215566390453</v>
       </c>
       <c r="J3">
-        <v>1.006301773035789</v>
+        <v>1.030965507130633</v>
       </c>
       <c r="K3">
-        <v>1.054759846526681</v>
+        <v>1.054184601560347</v>
       </c>
       <c r="L3">
-        <v>1.003762308395043</v>
+        <v>1.023806885208723</v>
       </c>
       <c r="M3">
-        <v>1.049835408435051</v>
+        <v>1.030416119330924</v>
       </c>
       <c r="N3">
-        <v>1.007730836977927</v>
+        <v>1.032429596404155</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9903669794474887</v>
+        <v>1.016219782459983</v>
       </c>
       <c r="D4">
-        <v>1.047210867411394</v>
+        <v>1.04712993726031</v>
       </c>
       <c r="E4">
-        <v>0.9971760667622824</v>
+        <v>1.01807632932272</v>
       </c>
       <c r="F4">
-        <v>1.042946134863255</v>
+        <v>1.02560550252178</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052618911429612</v>
+        <v>1.05732763146167</v>
       </c>
       <c r="J4">
-        <v>1.010020350515654</v>
+        <v>1.035217491866895</v>
       </c>
       <c r="K4">
-        <v>1.056771027849133</v>
+        <v>1.056690969464328</v>
       </c>
       <c r="L4">
-        <v>1.007308694084518</v>
+        <v>1.02796137641898</v>
       </c>
       <c r="M4">
-        <v>1.052552460408717</v>
+        <v>1.035404409906423</v>
       </c>
       <c r="N4">
-        <v>1.011454695264339</v>
+        <v>1.036687619446452</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9924170692511055</v>
+        <v>1.018467366424806</v>
       </c>
       <c r="D5">
-        <v>1.04826368511748</v>
+        <v>1.048385919627691</v>
       </c>
       <c r="E5">
-        <v>0.9988867266455864</v>
+        <v>1.020026701727998</v>
       </c>
       <c r="F5">
-        <v>1.04429586071378</v>
+        <v>1.027903227233723</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05304660905121</v>
+        <v>1.058194824537393</v>
       </c>
       <c r="J5">
-        <v>1.011556056310455</v>
+        <v>1.036967400029929</v>
       </c>
       <c r="K5">
-        <v>1.057601629396359</v>
+        <v>1.057722583312692</v>
       </c>
       <c r="L5">
-        <v>1.008773668457295</v>
+        <v>1.029670588903016</v>
       </c>
       <c r="M5">
-        <v>1.053675573166637</v>
+        <v>1.037459697229586</v>
       </c>
       <c r="N5">
-        <v>1.012992581937517</v>
+        <v>1.038440012679794</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9927592481347527</v>
+        <v>1.018842137327539</v>
       </c>
       <c r="D6">
-        <v>1.048439536355954</v>
+        <v>1.048595465414679</v>
       </c>
       <c r="E6">
-        <v>0.9991723407754219</v>
+        <v>1.020351909082521</v>
       </c>
       <c r="F6">
-        <v>1.044521301962566</v>
+        <v>1.028286484875708</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053117856035949</v>
+        <v>1.058339250033365</v>
       </c>
       <c r="J6">
-        <v>1.011812335242081</v>
+        <v>1.037259080797468</v>
       </c>
       <c r="K6">
-        <v>1.057740236400163</v>
+        <v>1.057894539547402</v>
       </c>
       <c r="L6">
-        <v>1.009018165784977</v>
+        <v>1.029955452510039</v>
       </c>
       <c r="M6">
-        <v>1.053863053232094</v>
+        <v>1.037802418647247</v>
       </c>
       <c r="N6">
-        <v>1.013249224814622</v>
+        <v>1.03873210766748</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9903945108765111</v>
+        <v>1.01624999146174</v>
       </c>
       <c r="D7">
-        <v>1.047224997409957</v>
+        <v>1.047146810355296</v>
       </c>
       <c r="E7">
-        <v>0.9971990337816323</v>
+        <v>1.018102543911451</v>
       </c>
       <c r="F7">
-        <v>1.042964249911244</v>
+        <v>1.025636376924778</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05262466446633</v>
+        <v>1.05733929874773</v>
       </c>
       <c r="J7">
-        <v>1.010040977030313</v>
+        <v>1.035241018865834</v>
       </c>
       <c r="K7">
-        <v>1.056782184058409</v>
+        <v>1.056704838911739</v>
       </c>
       <c r="L7">
-        <v>1.007328369091926</v>
+        <v>1.02798435855428</v>
       </c>
       <c r="M7">
-        <v>1.052567541467329</v>
+        <v>1.03543203328492</v>
       </c>
       <c r="N7">
-        <v>1.011475351071015</v>
+        <v>1.036711179856428</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9801999841604969</v>
+        <v>1.005016002527141</v>
       </c>
       <c r="D8">
-        <v>1.042009929182796</v>
+        <v>1.040887977103225</v>
       </c>
       <c r="E8">
-        <v>0.988706039978595</v>
+        <v>1.008353951283822</v>
       </c>
       <c r="F8">
-        <v>1.036277533663172</v>
+        <v>1.014170323206428</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050478658396968</v>
+        <v>1.05298041569419</v>
       </c>
       <c r="J8">
-        <v>1.002398559615418</v>
+        <v>1.026479695075532</v>
       </c>
       <c r="K8">
-        <v>1.052649399279871</v>
+        <v>1.051541176757427</v>
       </c>
       <c r="L8">
-        <v>1.000041200082413</v>
+        <v>1.019421939660811</v>
       </c>
       <c r="M8">
-        <v>1.046987540825242</v>
+        <v>1.02516170948633</v>
       </c>
       <c r="N8">
-        <v>1.003822080546793</v>
+        <v>1.027937413981406</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9609020764189676</v>
+        <v>0.9834725448029736</v>
       </c>
       <c r="D9">
-        <v>1.032242940245186</v>
+        <v>1.028981658022621</v>
       </c>
       <c r="E9">
-        <v>0.9726929149791868</v>
+        <v>0.9896656187537891</v>
       </c>
       <c r="F9">
-        <v>1.023744222961142</v>
+        <v>0.9922608563293743</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046348868000633</v>
+        <v>1.044529511281636</v>
       </c>
       <c r="J9">
-        <v>0.9879152657227468</v>
+        <v>1.009622739839963</v>
       </c>
       <c r="K9">
-        <v>1.044833694806587</v>
+        <v>1.041621398446606</v>
       </c>
       <c r="L9">
-        <v>0.9862451330490787</v>
+        <v>1.002928619299357</v>
       </c>
       <c r="M9">
-        <v>1.036463464760462</v>
+        <v>1.005480756222612</v>
       </c>
       <c r="N9">
-        <v>0.9893182187155379</v>
+        <v>1.011056519935883</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9469576381507712</v>
+        <v>0.9676555636882421</v>
       </c>
       <c r="D10">
-        <v>1.025283054781639</v>
+        <v>1.020328961310608</v>
       </c>
       <c r="E10">
-        <v>0.9611758817048996</v>
+        <v>0.9759577828387878</v>
       </c>
       <c r="F10">
-        <v>1.01479915496894</v>
+        <v>0.9762341190058482</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043329064313599</v>
+        <v>1.038269668252067</v>
       </c>
       <c r="J10">
-        <v>0.9774461266085729</v>
+        <v>0.9972139514168976</v>
       </c>
       <c r="K10">
-        <v>1.03921034321867</v>
+        <v>1.034340621035247</v>
       </c>
       <c r="L10">
-        <v>0.9762833771870645</v>
+        <v>0.9907751324655857</v>
       </c>
       <c r="M10">
-        <v>1.028906250070072</v>
+        <v>0.9910461541296834</v>
       </c>
       <c r="N10">
-        <v>0.9788342122229945</v>
+        <v>0.9986301096099486</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9406147435055016</v>
+        <v>0.9603834978244461</v>
       </c>
       <c r="D11">
-        <v>1.022147103748301</v>
+        <v>1.016377964047231</v>
       </c>
       <c r="E11">
-        <v>0.955952649126916</v>
+        <v>0.9696608420070884</v>
       </c>
       <c r="F11">
-        <v>1.010763633933294</v>
+        <v>0.9688809359385464</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041949639137519</v>
+        <v>1.035380531960394</v>
       </c>
       <c r="J11">
-        <v>0.9726851426953456</v>
+        <v>0.9915025667657724</v>
       </c>
       <c r="K11">
-        <v>1.036663104532368</v>
+        <v>1.030997487094984</v>
       </c>
       <c r="L11">
-        <v>0.9717559497730928</v>
+        <v>0.9851785242778034</v>
       </c>
       <c r="M11">
-        <v>1.025485379057372</v>
+        <v>0.9844145820420331</v>
       </c>
       <c r="N11">
-        <v>0.9740664671665182</v>
+        <v>0.9929106141375138</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9382079929875361</v>
+        <v>0.9576105735001998</v>
       </c>
       <c r="D12">
-        <v>1.020962331977029</v>
+        <v>1.014876090972956</v>
       </c>
       <c r="E12">
-        <v>0.9539733406235574</v>
+        <v>0.9672607989553743</v>
       </c>
       <c r="F12">
-        <v>1.009238064116724</v>
+        <v>0.966079512298583</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041425613469608</v>
+        <v>1.034277410290662</v>
       </c>
       <c r="J12">
-        <v>0.9708789932664759</v>
+        <v>0.9893239560253682</v>
       </c>
       <c r="K12">
-        <v>1.035698652449523</v>
+        <v>1.02972373230188</v>
       </c>
       <c r="L12">
-        <v>0.9700388559517947</v>
+        <v>0.9830433087016074</v>
       </c>
       <c r="M12">
-        <v>1.024190392013969</v>
+        <v>0.981886764974242</v>
       </c>
       <c r="N12">
-        <v>0.9722577527982914</v>
+        <v>0.9907289095199679</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9387266312428403</v>
+        <v>0.9582087703212967</v>
       </c>
       <c r="D13">
-        <v>1.02121739941538</v>
+        <v>1.015199864794234</v>
       </c>
       <c r="E13">
-        <v>0.9543997462423972</v>
+        <v>0.9677785030863185</v>
       </c>
       <c r="F13">
-        <v>1.009566546672278</v>
+        <v>0.9666837453123505</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041538560778042</v>
+        <v>1.034515446465341</v>
       </c>
       <c r="J13">
-        <v>0.9712681864654772</v>
+        <v>0.9897939759262411</v>
       </c>
       <c r="K13">
-        <v>1.035906383579011</v>
+        <v>1.029998463959934</v>
       </c>
       <c r="L13">
-        <v>0.9704088383148153</v>
+        <v>0.9835039833726628</v>
       </c>
       <c r="M13">
-        <v>1.024469307106094</v>
+        <v>0.9824320432356897</v>
       </c>
       <c r="N13">
-        <v>0.9726474986962763</v>
+        <v>0.9911995969030121</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9404168664363336</v>
+        <v>0.9601558035671266</v>
       </c>
       <c r="D14">
-        <v>1.022049586751222</v>
+        <v>1.0162545415385</v>
       </c>
       <c r="E14">
-        <v>0.9557898610097585</v>
+        <v>0.9694637434426492</v>
       </c>
       <c r="F14">
-        <v>1.010638086385864</v>
+        <v>0.9686508515074398</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041906565948568</v>
+        <v>1.035289979124601</v>
       </c>
       <c r="J14">
-        <v>0.9725366370576842</v>
+        <v>0.9913236886947384</v>
       </c>
       <c r="K14">
-        <v>1.036583764757802</v>
+        <v>1.030892871745976</v>
       </c>
       <c r="L14">
-        <v>0.9716147571340518</v>
+        <v>0.9850032168880214</v>
       </c>
       <c r="M14">
-        <v>1.025378843814956</v>
+        <v>0.9842069957100262</v>
       </c>
       <c r="N14">
-        <v>0.9739177506338176</v>
+        <v>0.9927314820391013</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9414513960378322</v>
+        <v>0.9613456562755607</v>
       </c>
       <c r="D15">
-        <v>1.022559632026875</v>
+        <v>1.016899699321816</v>
       </c>
       <c r="E15">
-        <v>0.9566410476606554</v>
+        <v>0.9704937577305632</v>
       </c>
       <c r="F15">
-        <v>1.011294701246505</v>
+        <v>0.9698532937863569</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042131735325403</v>
+        <v>1.035763119580247</v>
       </c>
       <c r="J15">
-        <v>0.9733130616006749</v>
+        <v>0.992258413475725</v>
       </c>
       <c r="K15">
-        <v>1.036998651553603</v>
+        <v>1.031439599710735</v>
       </c>
       <c r="L15">
-        <v>0.9723529660524751</v>
+        <v>0.9859192676303006</v>
       </c>
       <c r="M15">
-        <v>1.025935951560084</v>
+        <v>0.9852918077556146</v>
       </c>
       <c r="N15">
-        <v>0.9746952777887163</v>
+        <v>0.9936675342364912</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9473717689542995</v>
+        <v>0.9681286062635888</v>
       </c>
       <c r="D16">
-        <v>1.02548847210241</v>
+        <v>1.020586578197406</v>
       </c>
       <c r="E16">
-        <v>0.9615172510451209</v>
+        <v>0.9763675247775037</v>
       </c>
       <c r="F16">
-        <v>1.015063378017526</v>
+        <v>0.9767127635106819</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043419028596171</v>
+        <v>1.038457393035216</v>
       </c>
       <c r="J16">
-        <v>0.977757012190271</v>
+        <v>0.9975853557737935</v>
       </c>
       <c r="K16">
-        <v>1.039376912075162</v>
+        <v>1.03455820798506</v>
       </c>
       <c r="L16">
-        <v>0.9765790723925334</v>
+        <v>0.9911390188067667</v>
       </c>
       <c r="M16">
-        <v>1.029129987336422</v>
+        <v>0.9914776454466846</v>
       </c>
       <c r="N16">
-        <v>0.9791455392978781</v>
+        <v>0.9990020414036318</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9510005940330704</v>
+        <v>0.972264749215474</v>
       </c>
       <c r="D17">
-        <v>1.027291875740478</v>
+        <v>1.022842208168433</v>
       </c>
       <c r="E17">
-        <v>0.964510276578372</v>
+        <v>0.9799508161960907</v>
       </c>
       <c r="F17">
-        <v>1.017382454878003</v>
+        <v>0.9808996151968693</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044206715660647</v>
+        <v>1.040097583362379</v>
       </c>
       <c r="J17">
-        <v>0.9804812949896639</v>
+        <v>1.000832117365696</v>
       </c>
       <c r="K17">
-        <v>1.040837722789479</v>
+        <v>1.036461243429071</v>
       </c>
       <c r="L17">
-        <v>0.9791705623646016</v>
+        <v>0.9943197559341164</v>
       </c>
       <c r="M17">
-        <v>1.031092419763448</v>
+        <v>0.9952510419422326</v>
       </c>
       <c r="N17">
-        <v>0.9818736908913256</v>
+        <v>1.002253413769404</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9530881795529524</v>
+        <v>0.9746370819536344</v>
       </c>
       <c r="D18">
-        <v>1.028332089277074</v>
+        <v>1.02413843861689</v>
       </c>
       <c r="E18">
-        <v>0.9662335340044503</v>
+        <v>0.9820065413437242</v>
       </c>
       <c r="F18">
-        <v>1.018719643708976</v>
+        <v>0.9833024487925834</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044659293154236</v>
+        <v>1.041037287087573</v>
       </c>
       <c r="J18">
-        <v>0.9820486063868951</v>
+        <v>1.002693739992458</v>
       </c>
       <c r="K18">
-        <v>1.041679060384593</v>
+        <v>1.037553125058072</v>
       </c>
       <c r="L18">
-        <v>0.9806617383054358</v>
+        <v>0.9961432658414074</v>
       </c>
       <c r="M18">
-        <v>1.032222889947908</v>
+        <v>0.9974157657198673</v>
       </c>
       <c r="N18">
-        <v>0.9834432280505141</v>
+        <v>1.004117680113827</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9537952031209717</v>
+        <v>0.9754393904107213</v>
       </c>
       <c r="D19">
-        <v>1.028684838172849</v>
+        <v>1.024577221526918</v>
       </c>
       <c r="E19">
-        <v>0.9668174028234698</v>
+        <v>0.9827018512159882</v>
       </c>
       <c r="F19">
-        <v>1.019173025907434</v>
+        <v>0.9841153092078599</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044812469670248</v>
+        <v>1.041354906071608</v>
       </c>
       <c r="J19">
-        <v>0.9825794333750203</v>
+        <v>1.003323224421944</v>
       </c>
       <c r="K19">
-        <v>1.041964155150886</v>
+        <v>1.03792244597803</v>
       </c>
       <c r="L19">
-        <v>0.9811668228655542</v>
+        <v>0.9967598189380966</v>
       </c>
       <c r="M19">
-        <v>1.032606001801643</v>
+        <v>0.9981479344396843</v>
       </c>
       <c r="N19">
-        <v>0.9839748088738491</v>
+        <v>1.004748058483406</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9506142930976786</v>
+        <v>0.9718251935963244</v>
       </c>
       <c r="D20">
-        <v>1.027099606523851</v>
+        <v>1.022602235224584</v>
       </c>
       <c r="E20">
-        <v>0.9641915078317788</v>
+        <v>0.9795699609000785</v>
       </c>
       <c r="F20">
-        <v>1.017135257121654</v>
+        <v>0.9804545223783482</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04412292038166</v>
+        <v>1.039923384865745</v>
       </c>
       <c r="J20">
-        <v>0.9801912750756946</v>
+        <v>1.000487138933943</v>
       </c>
       <c r="K20">
-        <v>1.040682111005174</v>
+        <v>1.036258962947516</v>
       </c>
       <c r="L20">
-        <v>0.9788946518074491</v>
+        <v>0.9939818192800716</v>
       </c>
       <c r="M20">
-        <v>1.030883350012079</v>
+        <v>0.9948499884701439</v>
       </c>
       <c r="N20">
-        <v>0.9815832591158129</v>
+        <v>1.001907945428708</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9399205775327467</v>
+        <v>0.9595845049398629</v>
       </c>
       <c r="D21">
-        <v>1.021805092441336</v>
+        <v>1.015944944462868</v>
       </c>
       <c r="E21">
-        <v>0.9553816202405013</v>
+        <v>0.968969229070017</v>
       </c>
       <c r="F21">
-        <v>1.010323298262136</v>
+        <v>0.9680735952890496</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041798526539151</v>
+        <v>1.035062753921034</v>
       </c>
       <c r="J21">
-        <v>0.972164181494717</v>
+        <v>0.9908748606628455</v>
       </c>
       <c r="K21">
-        <v>1.036384810322222</v>
+        <v>1.030630403288719</v>
       </c>
       <c r="L21">
-        <v>0.9712606501191799</v>
+        <v>0.9845633420448142</v>
       </c>
       <c r="M21">
-        <v>1.025111696888068</v>
+        <v>0.9836861637064832</v>
       </c>
       <c r="N21">
-        <v>0.9735447661412299</v>
+        <v>0.9922820166199218</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9329005729460973</v>
+        <v>0.9514678901342853</v>
       </c>
       <c r="D22">
-        <v>1.018359912733101</v>
+        <v>1.011558516674195</v>
       </c>
       <c r="E22">
-        <v>0.9496136500135275</v>
+        <v>0.9619463945858815</v>
       </c>
       <c r="F22">
-        <v>1.005885125656645</v>
+        <v>0.9598783605232151</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040269193602844</v>
+        <v>1.031831289604205</v>
       </c>
       <c r="J22">
-        <v>0.9668969360181556</v>
+        <v>0.9844965423492351</v>
       </c>
       <c r="K22">
-        <v>1.03357622430808</v>
+        <v>1.026904422760001</v>
       </c>
       <c r="L22">
-        <v>0.9662540137072574</v>
+        <v>0.9783113676632625</v>
       </c>
       <c r="M22">
-        <v>1.02134089168844</v>
+        <v>0.9762888560458326</v>
       </c>
       <c r="N22">
-        <v>0.9682700405719302</v>
+        <v>0.9858946403627028</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9366519533766648</v>
+        <v>0.9558136643794614</v>
       </c>
       <c r="D23">
-        <v>1.020197874831083</v>
+        <v>1.01390425339815</v>
       </c>
       <c r="E23">
-        <v>0.9526944243885237</v>
+        <v>0.9657058554867975</v>
       </c>
       <c r="F23">
-        <v>1.008253424292344</v>
+        <v>0.9642648388774909</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04108667546408</v>
+        <v>1.033562182705235</v>
       </c>
       <c r="J23">
-        <v>0.9697113891927511</v>
+        <v>0.9879119714018045</v>
       </c>
       <c r="K23">
-        <v>1.035075752487491</v>
+        <v>1.028898654268972</v>
       </c>
       <c r="L23">
-        <v>0.9689289544343135</v>
+        <v>0.9816593435702338</v>
       </c>
       <c r="M23">
-        <v>1.023354067658554</v>
+        <v>0.9802489576271419</v>
       </c>
       <c r="N23">
-        <v>0.9710884905928557</v>
+        <v>0.989314919716282</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9507889352623129</v>
+        <v>0.9720239335210821</v>
       </c>
       <c r="D24">
-        <v>1.027186520689859</v>
+        <v>1.022710728481241</v>
       </c>
       <c r="E24">
-        <v>0.9643356150412288</v>
+        <v>0.9797421586630845</v>
       </c>
       <c r="F24">
-        <v>1.017247002850552</v>
+        <v>0.9806557614845512</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044160805019435</v>
+        <v>1.04000214994703</v>
       </c>
       <c r="J24">
-        <v>0.9803223894444409</v>
+        <v>1.000643118753936</v>
       </c>
       <c r="K24">
-        <v>1.040752458321785</v>
+        <v>1.036350420562092</v>
       </c>
       <c r="L24">
-        <v>0.9790193867011969</v>
+        <v>0.9941346160022537</v>
       </c>
       <c r="M24">
-        <v>1.030977863316558</v>
+        <v>0.9950313187142458</v>
       </c>
       <c r="N24">
-        <v>0.9817145596820017</v>
+        <v>1.002064146757936</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9660664844650299</v>
+        <v>0.9892753575201922</v>
       </c>
       <c r="D25">
-        <v>1.034842157691174</v>
+        <v>1.032175484418405</v>
       </c>
       <c r="E25">
-        <v>0.9769699266556632</v>
+        <v>0.9946978737322728</v>
       </c>
       <c r="F25">
-        <v>1.027081463295715</v>
+        <v>0.9981527108574252</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047460895797328</v>
+        <v>1.046815676999096</v>
       </c>
       <c r="J25">
-        <v>0.9917924141584524</v>
+        <v>1.014169118736604</v>
       </c>
       <c r="K25">
-        <v>1.046922642153718</v>
+        <v>1.044294037187134</v>
       </c>
       <c r="L25">
-        <v>0.9899365950930463</v>
+        <v>1.007379059806866</v>
       </c>
       <c r="M25">
-        <v>1.039273432711379</v>
+        <v>1.010779771456987</v>
       </c>
       <c r="N25">
-        <v>0.9932008731467372</v>
+        <v>1.015609355212034</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002014192743482</v>
+        <v>1.047038011799852</v>
       </c>
       <c r="D2">
-        <v>1.039221151413201</v>
+        <v>1.047035348639189</v>
       </c>
       <c r="E2">
-        <v>1.005749227195335</v>
+        <v>1.044322145195228</v>
       </c>
       <c r="F2">
-        <v>1.01111151773282</v>
+        <v>1.055215098588939</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051809453247977</v>
+        <v>1.046144080025894</v>
       </c>
       <c r="J2">
-        <v>1.024134826100172</v>
+        <v>1.052089209779053</v>
       </c>
       <c r="K2">
-        <v>1.050159833436216</v>
+        <v>1.049799112658989</v>
       </c>
       <c r="L2">
-        <v>1.01712904305051</v>
+        <v>1.047093521497968</v>
       </c>
       <c r="M2">
-        <v>1.022418191881103</v>
+        <v>1.057956169872057</v>
       </c>
       <c r="N2">
-        <v>1.02558921502314</v>
+        <v>1.053583297133259</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010764040764375</v>
+        <v>1.04865520034517</v>
       </c>
       <c r="D3">
-        <v>1.04408637185178</v>
+        <v>1.04790469875263</v>
       </c>
       <c r="E3">
-        <v>1.013341917340099</v>
+        <v>1.045742375168712</v>
       </c>
       <c r="F3">
-        <v>1.020033308959933</v>
+        <v>1.056945421500794</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055215566390453</v>
+        <v>1.046662590946063</v>
       </c>
       <c r="J3">
-        <v>1.030965507130633</v>
+        <v>1.053351425694158</v>
       </c>
       <c r="K3">
-        <v>1.054184601560347</v>
+        <v>1.050480076317079</v>
       </c>
       <c r="L3">
-        <v>1.023806885208723</v>
+        <v>1.048323377233204</v>
       </c>
       <c r="M3">
-        <v>1.030416119330924</v>
+        <v>1.059497551721896</v>
       </c>
       <c r="N3">
-        <v>1.032429596404155</v>
+        <v>1.054847305539741</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016219782459983</v>
+        <v>1.049698558764476</v>
       </c>
       <c r="D4">
-        <v>1.04712993726031</v>
+        <v>1.048465727194247</v>
       </c>
       <c r="E4">
-        <v>1.01807632932272</v>
+        <v>1.046658147257357</v>
       </c>
       <c r="F4">
-        <v>1.02560550252178</v>
+        <v>1.058062630481181</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05732763146167</v>
+        <v>1.046995537729852</v>
       </c>
       <c r="J4">
-        <v>1.035217491866895</v>
+        <v>1.05416476110336</v>
       </c>
       <c r="K4">
-        <v>1.056690969464328</v>
+        <v>1.050918570783206</v>
       </c>
       <c r="L4">
-        <v>1.02796137641898</v>
+        <v>1.049115454070714</v>
       </c>
       <c r="M4">
-        <v>1.035404409906423</v>
+        <v>1.060492052253332</v>
       </c>
       <c r="N4">
-        <v>1.036687619446452</v>
+        <v>1.055661795978515</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018467366424806</v>
+        <v>1.0501364652607</v>
       </c>
       <c r="D5">
-        <v>1.048385919627691</v>
+        <v>1.048701229202445</v>
       </c>
       <c r="E5">
-        <v>1.020026701727998</v>
+        <v>1.047042380957182</v>
       </c>
       <c r="F5">
-        <v>1.027903227233723</v>
+        <v>1.058531738350124</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058194824537393</v>
+        <v>1.047134899229019</v>
       </c>
       <c r="J5">
-        <v>1.036967400029929</v>
+        <v>1.054505883730136</v>
       </c>
       <c r="K5">
-        <v>1.057722583312692</v>
+        <v>1.051102407435297</v>
       </c>
       <c r="L5">
-        <v>1.029670588903016</v>
+        <v>1.049447563280325</v>
       </c>
       <c r="M5">
-        <v>1.037459697229586</v>
+        <v>1.060909464426755</v>
       </c>
       <c r="N5">
-        <v>1.038440012679794</v>
+        <v>1.056003403038548</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018842137327539</v>
+        <v>1.050209949783304</v>
       </c>
       <c r="D6">
-        <v>1.048595465414679</v>
+        <v>1.048740750378326</v>
       </c>
       <c r="E6">
-        <v>1.020351909082521</v>
+        <v>1.047106851448449</v>
       </c>
       <c r="F6">
-        <v>1.028286484875708</v>
+        <v>1.05861047079102</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058339250033365</v>
+        <v>1.047158263039567</v>
       </c>
       <c r="J6">
-        <v>1.037259080797468</v>
+        <v>1.054563112916544</v>
       </c>
       <c r="K6">
-        <v>1.057894539547402</v>
+        <v>1.051133244853847</v>
       </c>
       <c r="L6">
-        <v>1.029955452510039</v>
+        <v>1.049503274603488</v>
       </c>
       <c r="M6">
-        <v>1.037802418647247</v>
+        <v>1.060979510505359</v>
       </c>
       <c r="N6">
-        <v>1.03873210766748</v>
+        <v>1.056060713496965</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01624999146174</v>
+        <v>1.049704412908202</v>
       </c>
       <c r="D7">
-        <v>1.047146810355296</v>
+        <v>1.04846887536954</v>
       </c>
       <c r="E7">
-        <v>1.018102543911451</v>
+        <v>1.04666328436443</v>
       </c>
       <c r="F7">
-        <v>1.025636376924778</v>
+        <v>1.058068900931479</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05733929874773</v>
+        <v>1.046997402272893</v>
       </c>
       <c r="J7">
-        <v>1.035241018865834</v>
+        <v>1.054169322342959</v>
       </c>
       <c r="K7">
-        <v>1.056704838911739</v>
+        <v>1.050921029201032</v>
       </c>
       <c r="L7">
-        <v>1.02798435855428</v>
+        <v>1.049119895172259</v>
       </c>
       <c r="M7">
-        <v>1.03543203328492</v>
+        <v>1.06049763237327</v>
       </c>
       <c r="N7">
-        <v>1.036711179856428</v>
+        <v>1.055666363695597</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005016002527141</v>
+        <v>1.04758519236233</v>
       </c>
       <c r="D8">
-        <v>1.040887977103225</v>
+        <v>1.047329462767369</v>
       </c>
       <c r="E8">
-        <v>1.008353951283822</v>
+        <v>1.044802790812759</v>
       </c>
       <c r="F8">
-        <v>1.014170323206428</v>
+        <v>1.055800379977258</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05298041569419</v>
+        <v>1.046319846992757</v>
       </c>
       <c r="J8">
-        <v>1.026479695075532</v>
+        <v>1.05251649277599</v>
       </c>
       <c r="K8">
-        <v>1.051541176757427</v>
+        <v>1.050029692270666</v>
       </c>
       <c r="L8">
-        <v>1.019421939660811</v>
+        <v>1.047509934435237</v>
       </c>
       <c r="M8">
-        <v>1.02516170948633</v>
+        <v>1.058477690447846</v>
       </c>
       <c r="N8">
-        <v>1.027937413981406</v>
+        <v>1.054011186921061</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9834725448029736</v>
+        <v>1.043826717215058</v>
       </c>
       <c r="D9">
-        <v>1.028981658022621</v>
+        <v>1.04530998308282</v>
       </c>
       <c r="E9">
-        <v>0.9896656187537891</v>
+        <v>1.041499225124562</v>
       </c>
       <c r="F9">
-        <v>0.9922608563293743</v>
+        <v>1.051783751334898</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044529511281636</v>
+        <v>1.04510605922887</v>
       </c>
       <c r="J9">
-        <v>1.009622739839963</v>
+        <v>1.049577437837309</v>
       </c>
       <c r="K9">
-        <v>1.041621398446606</v>
+        <v>1.04844248662783</v>
       </c>
       <c r="L9">
-        <v>1.002928619299357</v>
+        <v>1.044643967464958</v>
       </c>
       <c r="M9">
-        <v>1.005480756222612</v>
+        <v>1.0548956857967</v>
       </c>
       <c r="N9">
-        <v>1.011056519935883</v>
+        <v>1.051067958187253</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9676555636882421</v>
+        <v>1.04130396734828</v>
       </c>
       <c r="D10">
-        <v>1.020328961310608</v>
+        <v>1.043955510947472</v>
       </c>
       <c r="E10">
-        <v>0.9759577828387878</v>
+        <v>1.039279186295376</v>
       </c>
       <c r="F10">
-        <v>0.9762341190058482</v>
+        <v>1.049092205285309</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038269668252067</v>
+        <v>1.044283228629419</v>
       </c>
       <c r="J10">
-        <v>0.9972139514168976</v>
+        <v>1.04759951213316</v>
       </c>
       <c r="K10">
-        <v>1.034340621035247</v>
+        <v>1.047372924162684</v>
       </c>
       <c r="L10">
-        <v>0.9907751324655857</v>
+        <v>1.042713109491536</v>
       </c>
       <c r="M10">
-        <v>0.9910461541296834</v>
+        <v>1.052491669979825</v>
       </c>
       <c r="N10">
-        <v>0.9986301096099486</v>
+        <v>1.049087223601733</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9603834978244461</v>
+        <v>1.040207337987183</v>
       </c>
       <c r="D11">
-        <v>1.016377964047231</v>
+        <v>1.043367009512627</v>
       </c>
       <c r="E11">
-        <v>0.9696608420070884</v>
+        <v>1.038313525581442</v>
       </c>
       <c r="F11">
-        <v>0.9688809359385464</v>
+        <v>1.047923267170889</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035380531960394</v>
+        <v>1.043923632899001</v>
       </c>
       <c r="J11">
-        <v>0.9915025667657724</v>
+        <v>1.04673849048871</v>
       </c>
       <c r="K11">
-        <v>1.030997487094984</v>
+        <v>1.046907015485614</v>
       </c>
       <c r="L11">
-        <v>0.9851785242778034</v>
+        <v>1.041872073648396</v>
       </c>
       <c r="M11">
-        <v>0.9844145820420331</v>
+        <v>1.051446724786293</v>
       </c>
       <c r="N11">
-        <v>0.9929106141375138</v>
+        <v>1.048224979207787</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9576105735001998</v>
+        <v>1.039799343789477</v>
       </c>
       <c r="D12">
-        <v>1.014876090972956</v>
+        <v>1.043148106655772</v>
       </c>
       <c r="E12">
-        <v>0.9672607989553743</v>
+        <v>1.037954164987262</v>
       </c>
       <c r="F12">
-        <v>0.966079512298583</v>
+        <v>1.047488531442945</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034277410290662</v>
+        <v>1.043789560771621</v>
       </c>
       <c r="J12">
-        <v>0.9893239560253682</v>
+        <v>1.046417968988109</v>
       </c>
       <c r="K12">
-        <v>1.02972373230188</v>
+        <v>1.046733532616784</v>
       </c>
       <c r="L12">
-        <v>0.9830433087016074</v>
+        <v>1.041558916282432</v>
       </c>
       <c r="M12">
-        <v>0.981886764974242</v>
+        <v>1.051057970322444</v>
       </c>
       <c r="N12">
-        <v>0.9907289095199679</v>
+        <v>1.047904002529891</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9582087703212967</v>
+        <v>1.039886889944162</v>
       </c>
       <c r="D13">
-        <v>1.015199864794234</v>
+        <v>1.043195076058576</v>
       </c>
       <c r="E13">
-        <v>0.9677785030863185</v>
+        <v>1.038031279667277</v>
       </c>
       <c r="F13">
-        <v>0.9666837453123505</v>
+        <v>1.047581808448002</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034515446465341</v>
+        <v>1.043818342519971</v>
       </c>
       <c r="J13">
-        <v>0.9897939759262411</v>
+        <v>1.046486753822406</v>
       </c>
       <c r="K13">
-        <v>1.029998463959934</v>
+        <v>1.046770764545941</v>
       </c>
       <c r="L13">
-        <v>0.9835039833726628</v>
+        <v>1.04162612417912</v>
       </c>
       <c r="M13">
-        <v>0.9824320432356897</v>
+        <v>1.051141387572977</v>
       </c>
       <c r="N13">
-        <v>0.9911995969030121</v>
+        <v>1.047972885046542</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9601558035671266</v>
+        <v>1.040173626565214</v>
       </c>
       <c r="D14">
-        <v>1.0162545415385</v>
+        <v>1.043348921235448</v>
       </c>
       <c r="E14">
-        <v>0.9694637434426492</v>
+        <v>1.038283834501177</v>
       </c>
       <c r="F14">
-        <v>0.9686508515074398</v>
+        <v>1.047887342896773</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035289979124601</v>
+        <v>1.043912560734793</v>
       </c>
       <c r="J14">
-        <v>0.9913236886947384</v>
+        <v>1.046712010435018</v>
       </c>
       <c r="K14">
-        <v>1.030892871745976</v>
+        <v>1.046892684013649</v>
       </c>
       <c r="L14">
-        <v>0.9850032168880214</v>
+        <v>1.041846203530714</v>
       </c>
       <c r="M14">
-        <v>0.9842069957100262</v>
+        <v>1.051414602864691</v>
       </c>
       <c r="N14">
-        <v>0.9927314820391013</v>
+        <v>1.048198461549382</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9613456562755607</v>
+        <v>1.040350206863128</v>
       </c>
       <c r="D15">
-        <v>1.016899699321816</v>
+        <v>1.043443669440767</v>
       </c>
       <c r="E15">
-        <v>0.9704937577305632</v>
+        <v>1.038439352482994</v>
       </c>
       <c r="F15">
-        <v>0.9698532937863569</v>
+        <v>1.048075520675845</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035763119580247</v>
+        <v>1.043970544957911</v>
       </c>
       <c r="J15">
-        <v>0.992258413475725</v>
+        <v>1.04685070533793</v>
       </c>
       <c r="K15">
-        <v>1.031439599710735</v>
+        <v>1.04696774630957</v>
       </c>
       <c r="L15">
-        <v>0.9859192676303006</v>
+        <v>1.041981700665493</v>
       </c>
       <c r="M15">
-        <v>0.9852918077556146</v>
+        <v>1.051582857816059</v>
       </c>
       <c r="N15">
-        <v>0.9936675342364912</v>
+        <v>1.048337353414963</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9681286062635888</v>
+        <v>1.041376655792887</v>
       </c>
       <c r="D16">
-        <v>1.020586578197406</v>
+        <v>1.04399452508814</v>
       </c>
       <c r="E16">
-        <v>0.9763675247775037</v>
+        <v>1.039343180703961</v>
       </c>
       <c r="F16">
-        <v>0.9767127635106819</v>
+        <v>1.0491697090644</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038457393035216</v>
+        <v>1.044307023697205</v>
       </c>
       <c r="J16">
-        <v>0.9975853557737935</v>
+        <v>1.047656557928589</v>
       </c>
       <c r="K16">
-        <v>1.03455820798506</v>
+        <v>1.047403785898426</v>
       </c>
       <c r="L16">
-        <v>0.9911390188067667</v>
+        <v>1.042768820562535</v>
       </c>
       <c r="M16">
-        <v>0.9914776454466846</v>
+        <v>1.052560934134261</v>
       </c>
       <c r="N16">
-        <v>0.9990020414036318</v>
+        <v>1.049144350408735</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.972264749215474</v>
+        <v>1.042019367149939</v>
       </c>
       <c r="D17">
-        <v>1.022842208168433</v>
+        <v>1.044339521110694</v>
       </c>
       <c r="E17">
-        <v>0.9799508161960907</v>
+        <v>1.039908948115182</v>
       </c>
       <c r="F17">
-        <v>0.9808996151968693</v>
+        <v>1.049855120583799</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040097583362379</v>
+        <v>1.044517199116826</v>
       </c>
       <c r="J17">
-        <v>1.000832117365696</v>
+        <v>1.048160815750269</v>
       </c>
       <c r="K17">
-        <v>1.036461243429071</v>
+        <v>1.047676553358271</v>
       </c>
       <c r="L17">
-        <v>0.9943197559341164</v>
+        <v>1.043261222036629</v>
       </c>
       <c r="M17">
-        <v>0.9952510419422326</v>
+        <v>1.053173376127994</v>
       </c>
       <c r="N17">
-        <v>1.002253413769404</v>
+        <v>1.04964932433436</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9746370819536344</v>
+        <v>1.042393839739114</v>
       </c>
       <c r="D18">
-        <v>1.02413843861689</v>
+        <v>1.044540558296764</v>
       </c>
       <c r="E18">
-        <v>0.9820065413437242</v>
+        <v>1.040238530111631</v>
       </c>
       <c r="F18">
-        <v>0.9833024487925834</v>
+        <v>1.05025457483391</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041037287087573</v>
+        <v>1.044639472426327</v>
       </c>
       <c r="J18">
-        <v>1.002693739992458</v>
+        <v>1.048454501108105</v>
       </c>
       <c r="K18">
-        <v>1.037553125058072</v>
+        <v>1.047835386066978</v>
       </c>
       <c r="L18">
-        <v>0.9961432658414074</v>
+        <v>1.043547953702332</v>
       </c>
       <c r="M18">
-        <v>0.9974157657198673</v>
+        <v>1.053530219232032</v>
       </c>
       <c r="N18">
-        <v>1.004117680113827</v>
+        <v>1.049943426759091</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9754393904107213</v>
+        <v>1.042521456168069</v>
       </c>
       <c r="D19">
-        <v>1.024577221526918</v>
+        <v>1.044609074194147</v>
       </c>
       <c r="E19">
-        <v>0.9827018512159882</v>
+        <v>1.040350838165103</v>
       </c>
       <c r="F19">
-        <v>0.9841153092078599</v>
+        <v>1.050390722154972</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041354906071608</v>
+        <v>1.044681110622795</v>
       </c>
       <c r="J19">
-        <v>1.003323224421944</v>
+        <v>1.048554566054827</v>
       </c>
       <c r="K19">
-        <v>1.03792244597803</v>
+        <v>1.047889498644148</v>
       </c>
       <c r="L19">
-        <v>0.9967598189380966</v>
+        <v>1.043645641164768</v>
       </c>
       <c r="M19">
-        <v>0.9981479344396843</v>
+        <v>1.053651828858712</v>
       </c>
       <c r="N19">
-        <v>1.004748058483406</v>
+        <v>1.050043633809515</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9718251935963244</v>
+        <v>1.04195045284153</v>
       </c>
       <c r="D20">
-        <v>1.022602235224584</v>
+        <v>1.044302526323759</v>
       </c>
       <c r="E20">
-        <v>0.9795699609000785</v>
+        <v>1.03984829023376</v>
       </c>
       <c r="F20">
-        <v>0.9804545223783482</v>
+        <v>1.049781617156707</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039923384865745</v>
+        <v>1.044494682264568</v>
       </c>
       <c r="J20">
-        <v>1.000487138933943</v>
+        <v>1.04810675923661</v>
       </c>
       <c r="K20">
-        <v>1.036258962947516</v>
+        <v>1.047647315747137</v>
       </c>
       <c r="L20">
-        <v>0.9939818192800716</v>
+        <v>1.043208441537361</v>
       </c>
       <c r="M20">
-        <v>0.9948499884701439</v>
+        <v>1.053107706725644</v>
       </c>
       <c r="N20">
-        <v>1.001907945428708</v>
+        <v>1.049595191054251</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9595845049398629</v>
+        <v>1.040089208056403</v>
       </c>
       <c r="D21">
-        <v>1.015944944462868</v>
+        <v>1.043303626193407</v>
       </c>
       <c r="E21">
-        <v>0.968969229070017</v>
+        <v>1.038209482045534</v>
       </c>
       <c r="F21">
-        <v>0.9680735952890496</v>
+        <v>1.047797385663579</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035062753921034</v>
+        <v>1.043884829730488</v>
       </c>
       <c r="J21">
-        <v>0.9908748606628455</v>
+        <v>1.04664569740298</v>
       </c>
       <c r="K21">
-        <v>1.030630403288719</v>
+        <v>1.046856793510855</v>
       </c>
       <c r="L21">
-        <v>0.9845633420448142</v>
+        <v>1.041781416716293</v>
       </c>
       <c r="M21">
-        <v>0.9836861637064832</v>
+        <v>1.05133416488362</v>
       </c>
       <c r="N21">
-        <v>0.9922820166199218</v>
+        <v>1.048132054345232</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9514678901342853</v>
+        <v>1.038915158568835</v>
       </c>
       <c r="D22">
-        <v>1.011558516674195</v>
+        <v>1.042673797599692</v>
       </c>
       <c r="E22">
-        <v>0.9619463945858815</v>
+        <v>1.037175207442537</v>
       </c>
       <c r="F22">
-        <v>0.9598783605232151</v>
+        <v>1.046546687308043</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031831289604205</v>
+        <v>1.04349848239048</v>
       </c>
       <c r="J22">
-        <v>0.9844965423492351</v>
+        <v>1.045723014584812</v>
       </c>
       <c r="K22">
-        <v>1.026904422760001</v>
+        <v>1.046357306807551</v>
       </c>
       <c r="L22">
-        <v>0.9783113676632625</v>
+        <v>1.040879790095904</v>
       </c>
       <c r="M22">
-        <v>0.9762888560458326</v>
+        <v>1.050215500899324</v>
       </c>
       <c r="N22">
-        <v>0.9858946403627028</v>
+        <v>1.047208061211629</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9558136643794614</v>
+        <v>1.039537911350336</v>
       </c>
       <c r="D23">
-        <v>1.01390425339815</v>
+        <v>1.043007852387404</v>
       </c>
       <c r="E23">
-        <v>0.9657058554867975</v>
+        <v>1.037723869763877</v>
       </c>
       <c r="F23">
-        <v>0.9642648388774909</v>
+        <v>1.047210008925871</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033562182705235</v>
+        <v>1.043703570097211</v>
       </c>
       <c r="J23">
-        <v>0.9879119714018045</v>
+        <v>1.046212535183877</v>
       </c>
       <c r="K23">
-        <v>1.028898654268972</v>
+        <v>1.046622328732265</v>
       </c>
       <c r="L23">
-        <v>0.9816593435702338</v>
+        <v>1.041358181088287</v>
       </c>
       <c r="M23">
-        <v>0.9802489576271419</v>
+        <v>1.050808869344072</v>
       </c>
       <c r="N23">
-        <v>0.989314919716282</v>
+        <v>1.047698276986093</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9720239335210821</v>
+        <v>1.04198159351799</v>
       </c>
       <c r="D24">
-        <v>1.022710728481241</v>
+        <v>1.044319243272518</v>
       </c>
       <c r="E24">
-        <v>0.9797421586630845</v>
+        <v>1.03987570021873</v>
       </c>
       <c r="F24">
-        <v>0.9806557614845512</v>
+        <v>1.04981483122547</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04000214994703</v>
+        <v>1.044504857644859</v>
       </c>
       <c r="J24">
-        <v>1.000643118753936</v>
+        <v>1.048131186406774</v>
       </c>
       <c r="K24">
-        <v>1.036350420562092</v>
+        <v>1.047660527793037</v>
       </c>
       <c r="L24">
-        <v>0.9941346160022537</v>
+        <v>1.043232292249212</v>
       </c>
       <c r="M24">
-        <v>0.9950313187142458</v>
+        <v>1.05313738108805</v>
       </c>
       <c r="N24">
-        <v>1.002064146757936</v>
+        <v>1.0496196529138</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9892753575201922</v>
+        <v>1.044801322664738</v>
       </c>
       <c r="D25">
-        <v>1.032175484418405</v>
+        <v>1.045833482137982</v>
       </c>
       <c r="E25">
-        <v>0.9946978737322728</v>
+        <v>1.042356332812538</v>
       </c>
       <c r="F25">
-        <v>0.9981527108574252</v>
+        <v>1.052824512150383</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046815676999096</v>
+        <v>1.045422234644507</v>
       </c>
       <c r="J25">
-        <v>1.014169118736604</v>
+        <v>1.050340472803735</v>
       </c>
       <c r="K25">
-        <v>1.044294037187134</v>
+        <v>1.048854809339103</v>
       </c>
       <c r="L25">
-        <v>1.007379059806866</v>
+        <v>1.045388398963912</v>
       </c>
       <c r="M25">
-        <v>1.010779771456987</v>
+        <v>1.055824482161891</v>
       </c>
       <c r="N25">
-        <v>1.015609355212034</v>
+        <v>1.051832076750852</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047038011799852</v>
+        <v>1.002014192743481</v>
       </c>
       <c r="D2">
-        <v>1.047035348639189</v>
+        <v>1.0392211514132</v>
       </c>
       <c r="E2">
-        <v>1.044322145195228</v>
+        <v>1.005749227195334</v>
       </c>
       <c r="F2">
-        <v>1.055215098588939</v>
+        <v>1.01111151773282</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046144080025894</v>
+        <v>1.051809453247976</v>
       </c>
       <c r="J2">
-        <v>1.052089209779053</v>
+        <v>1.024134826100172</v>
       </c>
       <c r="K2">
-        <v>1.049799112658989</v>
+        <v>1.050159833436215</v>
       </c>
       <c r="L2">
-        <v>1.047093521497968</v>
+        <v>1.017129043050509</v>
       </c>
       <c r="M2">
-        <v>1.057956169872057</v>
+        <v>1.022418191881103</v>
       </c>
       <c r="N2">
-        <v>1.053583297133259</v>
+        <v>1.02558921502314</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04865520034517</v>
+        <v>1.010764040764375</v>
       </c>
       <c r="D3">
-        <v>1.04790469875263</v>
+        <v>1.04408637185178</v>
       </c>
       <c r="E3">
-        <v>1.045742375168712</v>
+        <v>1.013341917340099</v>
       </c>
       <c r="F3">
-        <v>1.056945421500794</v>
+        <v>1.020033308959933</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046662590946063</v>
+        <v>1.055215566390453</v>
       </c>
       <c r="J3">
-        <v>1.053351425694158</v>
+        <v>1.030965507130633</v>
       </c>
       <c r="K3">
-        <v>1.050480076317079</v>
+        <v>1.054184601560346</v>
       </c>
       <c r="L3">
-        <v>1.048323377233204</v>
+        <v>1.023806885208723</v>
       </c>
       <c r="M3">
-        <v>1.059497551721896</v>
+        <v>1.030416119330924</v>
       </c>
       <c r="N3">
-        <v>1.054847305539741</v>
+        <v>1.032429596404155</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049698558764476</v>
+        <v>1.016219782459982</v>
       </c>
       <c r="D4">
-        <v>1.048465727194247</v>
+        <v>1.04712993726031</v>
       </c>
       <c r="E4">
-        <v>1.046658147257357</v>
+        <v>1.018076329322719</v>
       </c>
       <c r="F4">
-        <v>1.058062630481181</v>
+        <v>1.025605502521779</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046995537729852</v>
+        <v>1.05732763146167</v>
       </c>
       <c r="J4">
-        <v>1.05416476110336</v>
+        <v>1.035217491866894</v>
       </c>
       <c r="K4">
-        <v>1.050918570783206</v>
+        <v>1.056690969464327</v>
       </c>
       <c r="L4">
-        <v>1.049115454070714</v>
+        <v>1.027961376418979</v>
       </c>
       <c r="M4">
-        <v>1.060492052253332</v>
+        <v>1.035404409906422</v>
       </c>
       <c r="N4">
-        <v>1.055661795978515</v>
+        <v>1.036687619446451</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0501364652607</v>
+        <v>1.018467366424805</v>
       </c>
       <c r="D5">
-        <v>1.048701229202445</v>
+        <v>1.048385919627691</v>
       </c>
       <c r="E5">
-        <v>1.047042380957182</v>
+        <v>1.020026701727997</v>
       </c>
       <c r="F5">
-        <v>1.058531738350124</v>
+        <v>1.027903227233722</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047134899229019</v>
+        <v>1.058194824537393</v>
       </c>
       <c r="J5">
-        <v>1.054505883730136</v>
+        <v>1.036967400029928</v>
       </c>
       <c r="K5">
-        <v>1.051102407435297</v>
+        <v>1.057722583312692</v>
       </c>
       <c r="L5">
-        <v>1.049447563280325</v>
+        <v>1.029670588903015</v>
       </c>
       <c r="M5">
-        <v>1.060909464426755</v>
+        <v>1.037459697229586</v>
       </c>
       <c r="N5">
-        <v>1.056003403038548</v>
+        <v>1.038440012679793</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050209949783304</v>
+        <v>1.018842137327538</v>
       </c>
       <c r="D6">
-        <v>1.048740750378326</v>
+        <v>1.048595465414678</v>
       </c>
       <c r="E6">
-        <v>1.047106851448449</v>
+        <v>1.02035190908252</v>
       </c>
       <c r="F6">
-        <v>1.05861047079102</v>
+        <v>1.028286484875707</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047158263039567</v>
+        <v>1.058339250033364</v>
       </c>
       <c r="J6">
-        <v>1.054563112916544</v>
+        <v>1.037259080797468</v>
       </c>
       <c r="K6">
-        <v>1.051133244853847</v>
+        <v>1.0578945395474</v>
       </c>
       <c r="L6">
-        <v>1.049503274603488</v>
+        <v>1.029955452510038</v>
       </c>
       <c r="M6">
-        <v>1.060979510505359</v>
+        <v>1.037802418647246</v>
       </c>
       <c r="N6">
-        <v>1.056060713496965</v>
+        <v>1.03873210766748</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049704412908202</v>
+        <v>1.016249991461739</v>
       </c>
       <c r="D7">
-        <v>1.04846887536954</v>
+        <v>1.047146810355296</v>
       </c>
       <c r="E7">
-        <v>1.04666328436443</v>
+        <v>1.01810254391145</v>
       </c>
       <c r="F7">
-        <v>1.058068900931479</v>
+        <v>1.025636376924777</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046997402272893</v>
+        <v>1.057339298747729</v>
       </c>
       <c r="J7">
-        <v>1.054169322342959</v>
+        <v>1.035241018865833</v>
       </c>
       <c r="K7">
-        <v>1.050921029201032</v>
+        <v>1.056704838911739</v>
       </c>
       <c r="L7">
-        <v>1.049119895172259</v>
+        <v>1.027984358554279</v>
       </c>
       <c r="M7">
-        <v>1.06049763237327</v>
+        <v>1.035432033284919</v>
       </c>
       <c r="N7">
-        <v>1.055666363695597</v>
+        <v>1.036711179856427</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04758519236233</v>
+        <v>1.005016002527141</v>
       </c>
       <c r="D8">
-        <v>1.047329462767369</v>
+        <v>1.040887977103225</v>
       </c>
       <c r="E8">
-        <v>1.044802790812759</v>
+        <v>1.008353951283822</v>
       </c>
       <c r="F8">
-        <v>1.055800379977258</v>
+        <v>1.014170323206428</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046319846992757</v>
+        <v>1.05298041569419</v>
       </c>
       <c r="J8">
-        <v>1.05251649277599</v>
+        <v>1.026479695075531</v>
       </c>
       <c r="K8">
-        <v>1.050029692270666</v>
+        <v>1.051541176757428</v>
       </c>
       <c r="L8">
-        <v>1.047509934435237</v>
+        <v>1.01942193966081</v>
       </c>
       <c r="M8">
-        <v>1.058477690447846</v>
+        <v>1.02516170948633</v>
       </c>
       <c r="N8">
-        <v>1.054011186921061</v>
+        <v>1.027937413981405</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043826717215058</v>
+        <v>0.9834725448029751</v>
       </c>
       <c r="D9">
-        <v>1.04530998308282</v>
+        <v>1.028981658022623</v>
       </c>
       <c r="E9">
-        <v>1.041499225124562</v>
+        <v>0.9896656187537907</v>
       </c>
       <c r="F9">
-        <v>1.051783751334898</v>
+        <v>0.9922608563293761</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04510605922887</v>
+        <v>1.044529511281638</v>
       </c>
       <c r="J9">
-        <v>1.049577437837309</v>
+        <v>1.009622739839965</v>
       </c>
       <c r="K9">
-        <v>1.04844248662783</v>
+        <v>1.041621398446608</v>
       </c>
       <c r="L9">
-        <v>1.044643967464958</v>
+        <v>1.002928619299359</v>
       </c>
       <c r="M9">
-        <v>1.0548956857967</v>
+        <v>1.005480756222614</v>
       </c>
       <c r="N9">
-        <v>1.051067958187253</v>
+        <v>1.011056519935885</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04130396734828</v>
+        <v>0.9676555636882417</v>
       </c>
       <c r="D10">
-        <v>1.043955510947472</v>
+        <v>1.020328961310608</v>
       </c>
       <c r="E10">
-        <v>1.039279186295376</v>
+        <v>0.9759577828387879</v>
       </c>
       <c r="F10">
-        <v>1.049092205285309</v>
+        <v>0.9762341190058478</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044283228629419</v>
+        <v>1.038269668252067</v>
       </c>
       <c r="J10">
-        <v>1.04759951213316</v>
+        <v>0.9972139514168974</v>
       </c>
       <c r="K10">
-        <v>1.047372924162684</v>
+        <v>1.034340621035247</v>
       </c>
       <c r="L10">
-        <v>1.042713109491536</v>
+        <v>0.9907751324655856</v>
       </c>
       <c r="M10">
-        <v>1.052491669979825</v>
+        <v>0.9910461541296831</v>
       </c>
       <c r="N10">
-        <v>1.049087223601733</v>
+        <v>0.9986301096099485</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040207337987183</v>
+        <v>0.960383497824447</v>
       </c>
       <c r="D11">
-        <v>1.043367009512627</v>
+        <v>1.016377964047231</v>
       </c>
       <c r="E11">
-        <v>1.038313525581442</v>
+        <v>0.9696608420070889</v>
       </c>
       <c r="F11">
-        <v>1.047923267170889</v>
+        <v>0.9688809359385469</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043923632899001</v>
+        <v>1.035380531960395</v>
       </c>
       <c r="J11">
-        <v>1.04673849048871</v>
+        <v>0.9915025667657732</v>
       </c>
       <c r="K11">
-        <v>1.046907015485614</v>
+        <v>1.030997487094984</v>
       </c>
       <c r="L11">
-        <v>1.041872073648396</v>
+        <v>0.9851785242778041</v>
       </c>
       <c r="M11">
-        <v>1.051446724786293</v>
+        <v>0.9844145820420336</v>
       </c>
       <c r="N11">
-        <v>1.048224979207787</v>
+        <v>0.9929106141375147</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039799343789477</v>
+        <v>0.9576105735002005</v>
       </c>
       <c r="D12">
-        <v>1.043148106655772</v>
+        <v>1.014876090972957</v>
       </c>
       <c r="E12">
-        <v>1.037954164987262</v>
+        <v>0.9672607989553746</v>
       </c>
       <c r="F12">
-        <v>1.047488531442945</v>
+        <v>0.9660795122985839</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043789560771621</v>
+        <v>1.034277410290663</v>
       </c>
       <c r="J12">
-        <v>1.046417968988109</v>
+        <v>0.9893239560253689</v>
       </c>
       <c r="K12">
-        <v>1.046733532616784</v>
+        <v>1.029723732301881</v>
       </c>
       <c r="L12">
-        <v>1.041558916282432</v>
+        <v>0.9830433087016078</v>
       </c>
       <c r="M12">
-        <v>1.051057970322444</v>
+        <v>0.9818867649742429</v>
       </c>
       <c r="N12">
-        <v>1.047904002529891</v>
+        <v>0.9907289095199688</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039886889944162</v>
+        <v>0.9582087703212974</v>
       </c>
       <c r="D13">
-        <v>1.043195076058576</v>
+        <v>1.015199864794234</v>
       </c>
       <c r="E13">
-        <v>1.038031279667277</v>
+        <v>0.967778503086319</v>
       </c>
       <c r="F13">
-        <v>1.047581808448002</v>
+        <v>0.966683745312351</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043818342519971</v>
+        <v>1.034515446465341</v>
       </c>
       <c r="J13">
-        <v>1.046486753822406</v>
+        <v>0.9897939759262416</v>
       </c>
       <c r="K13">
-        <v>1.046770764545941</v>
+        <v>1.029998463959935</v>
       </c>
       <c r="L13">
-        <v>1.04162612417912</v>
+        <v>0.983503983372663</v>
       </c>
       <c r="M13">
-        <v>1.051141387572977</v>
+        <v>0.9824320432356903</v>
       </c>
       <c r="N13">
-        <v>1.047972885046542</v>
+        <v>0.9911995969030128</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040173626565214</v>
+        <v>0.9601558035671245</v>
       </c>
       <c r="D14">
-        <v>1.043348921235448</v>
+        <v>1.016254541538499</v>
       </c>
       <c r="E14">
-        <v>1.038283834501177</v>
+        <v>0.9694637434426474</v>
       </c>
       <c r="F14">
-        <v>1.047887342896773</v>
+        <v>0.9686508515074382</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043912560734793</v>
+        <v>1.0352899791246</v>
       </c>
       <c r="J14">
-        <v>1.046712010435018</v>
+        <v>0.9913236886947366</v>
       </c>
       <c r="K14">
-        <v>1.046892684013649</v>
+        <v>1.030892871745975</v>
       </c>
       <c r="L14">
-        <v>1.041846203530714</v>
+        <v>0.9850032168880197</v>
       </c>
       <c r="M14">
-        <v>1.051414602864691</v>
+        <v>0.9842069957100246</v>
       </c>
       <c r="N14">
-        <v>1.048198461549382</v>
+        <v>0.9927314820390994</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040350206863128</v>
+        <v>0.961345656275562</v>
       </c>
       <c r="D15">
-        <v>1.043443669440767</v>
+        <v>1.016899699321817</v>
       </c>
       <c r="E15">
-        <v>1.038439352482994</v>
+        <v>0.9704937577305647</v>
       </c>
       <c r="F15">
-        <v>1.048075520675845</v>
+        <v>0.969853293786358</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043970544957911</v>
+        <v>1.035763119580248</v>
       </c>
       <c r="J15">
-        <v>1.04685070533793</v>
+        <v>0.9922584134757264</v>
       </c>
       <c r="K15">
-        <v>1.04696774630957</v>
+        <v>1.031439599710736</v>
       </c>
       <c r="L15">
-        <v>1.041981700665493</v>
+        <v>0.985919267630302</v>
       </c>
       <c r="M15">
-        <v>1.051582857816059</v>
+        <v>0.9852918077556156</v>
       </c>
       <c r="N15">
-        <v>1.048337353414963</v>
+        <v>0.993667534236493</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041376655792887</v>
+        <v>0.9681286062635881</v>
       </c>
       <c r="D16">
-        <v>1.04399452508814</v>
+        <v>1.020586578197406</v>
       </c>
       <c r="E16">
-        <v>1.039343180703961</v>
+        <v>0.976367524777503</v>
       </c>
       <c r="F16">
-        <v>1.0491697090644</v>
+        <v>0.976712763510681</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044307023697205</v>
+        <v>1.038457393035216</v>
       </c>
       <c r="J16">
-        <v>1.047656557928589</v>
+        <v>0.9975853557737927</v>
       </c>
       <c r="K16">
-        <v>1.047403785898426</v>
+        <v>1.03455820798506</v>
       </c>
       <c r="L16">
-        <v>1.042768820562535</v>
+        <v>0.9911390188067661</v>
       </c>
       <c r="M16">
-        <v>1.052560934134261</v>
+        <v>0.9914776454466837</v>
       </c>
       <c r="N16">
-        <v>1.049144350408735</v>
+        <v>0.9990020414036309</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042019367149939</v>
+        <v>0.9722647492154762</v>
       </c>
       <c r="D17">
-        <v>1.044339521110694</v>
+        <v>1.022842208168433</v>
       </c>
       <c r="E17">
-        <v>1.039908948115182</v>
+        <v>0.9799508161960931</v>
       </c>
       <c r="F17">
-        <v>1.049855120583799</v>
+        <v>0.9808996151968711</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044517199116826</v>
+        <v>1.04009758336238</v>
       </c>
       <c r="J17">
-        <v>1.048160815750269</v>
+        <v>1.000832117365699</v>
       </c>
       <c r="K17">
-        <v>1.047676553358271</v>
+        <v>1.036461243429072</v>
       </c>
       <c r="L17">
-        <v>1.043261222036629</v>
+        <v>0.9943197559341187</v>
       </c>
       <c r="M17">
-        <v>1.053173376127994</v>
+        <v>0.9952510419422343</v>
       </c>
       <c r="N17">
-        <v>1.04964932433436</v>
+        <v>1.002253413769406</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042393839739114</v>
+        <v>0.9746370819536337</v>
       </c>
       <c r="D18">
-        <v>1.044540558296764</v>
+        <v>1.02413843861689</v>
       </c>
       <c r="E18">
-        <v>1.040238530111631</v>
+        <v>0.9820065413437232</v>
       </c>
       <c r="F18">
-        <v>1.05025457483391</v>
+        <v>0.9833024487925826</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044639472426327</v>
+        <v>1.041037287087573</v>
       </c>
       <c r="J18">
-        <v>1.048454501108105</v>
+        <v>1.002693739992457</v>
       </c>
       <c r="K18">
-        <v>1.047835386066978</v>
+        <v>1.037553125058072</v>
       </c>
       <c r="L18">
-        <v>1.043547953702332</v>
+        <v>0.9961432658414067</v>
       </c>
       <c r="M18">
-        <v>1.053530219232032</v>
+        <v>0.9974157657198665</v>
       </c>
       <c r="N18">
-        <v>1.049943426759091</v>
+        <v>1.004117680113826</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042521456168069</v>
+        <v>0.9754393904107197</v>
       </c>
       <c r="D19">
-        <v>1.044609074194147</v>
+        <v>1.024577221526916</v>
       </c>
       <c r="E19">
-        <v>1.040350838165103</v>
+        <v>0.9827018512159867</v>
       </c>
       <c r="F19">
-        <v>1.050390722154972</v>
+        <v>0.9841153092078584</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044681110622795</v>
+        <v>1.041354906071607</v>
       </c>
       <c r="J19">
-        <v>1.048554566054827</v>
+        <v>1.003323224421943</v>
       </c>
       <c r="K19">
-        <v>1.047889498644148</v>
+        <v>1.037922445978029</v>
       </c>
       <c r="L19">
-        <v>1.043645641164768</v>
+        <v>0.9967598189380952</v>
       </c>
       <c r="M19">
-        <v>1.053651828858712</v>
+        <v>0.9981479344396826</v>
       </c>
       <c r="N19">
-        <v>1.050043633809515</v>
+        <v>1.004748058483404</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04195045284153</v>
+        <v>0.9718251935963236</v>
       </c>
       <c r="D20">
-        <v>1.044302526323759</v>
+        <v>1.022602235224584</v>
       </c>
       <c r="E20">
-        <v>1.03984829023376</v>
+        <v>0.9795699609000776</v>
       </c>
       <c r="F20">
-        <v>1.049781617156707</v>
+        <v>0.9804545223783477</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044494682264568</v>
+        <v>1.039923384865745</v>
       </c>
       <c r="J20">
-        <v>1.04810675923661</v>
+        <v>1.000487138933942</v>
       </c>
       <c r="K20">
-        <v>1.047647315747137</v>
+        <v>1.036258962947515</v>
       </c>
       <c r="L20">
-        <v>1.043208441537361</v>
+        <v>0.9939818192800709</v>
       </c>
       <c r="M20">
-        <v>1.053107706725644</v>
+        <v>0.9948499884701436</v>
       </c>
       <c r="N20">
-        <v>1.049595191054251</v>
+        <v>1.001907945428707</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040089208056403</v>
+        <v>0.9595845049398629</v>
       </c>
       <c r="D21">
-        <v>1.043303626193407</v>
+        <v>1.015944944462869</v>
       </c>
       <c r="E21">
-        <v>1.038209482045534</v>
+        <v>0.9689692290700168</v>
       </c>
       <c r="F21">
-        <v>1.047797385663579</v>
+        <v>0.96807359528905</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043884829730488</v>
+        <v>1.035062753921035</v>
       </c>
       <c r="J21">
-        <v>1.04664569740298</v>
+        <v>0.9908748606628456</v>
       </c>
       <c r="K21">
-        <v>1.046856793510855</v>
+        <v>1.03063040328872</v>
       </c>
       <c r="L21">
-        <v>1.041781416716293</v>
+        <v>0.9845633420448141</v>
       </c>
       <c r="M21">
-        <v>1.05133416488362</v>
+        <v>0.9836861637064839</v>
       </c>
       <c r="N21">
-        <v>1.048132054345232</v>
+        <v>0.9922820166199218</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038915158568835</v>
+        <v>0.9514678901342849</v>
       </c>
       <c r="D22">
-        <v>1.042673797599692</v>
+        <v>1.011558516674195</v>
       </c>
       <c r="E22">
-        <v>1.037175207442537</v>
+        <v>0.9619463945858814</v>
       </c>
       <c r="F22">
-        <v>1.046546687308043</v>
+        <v>0.9598783605232144</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04349848239048</v>
+        <v>1.031831289604205</v>
       </c>
       <c r="J22">
-        <v>1.045723014584812</v>
+        <v>0.984496542349235</v>
       </c>
       <c r="K22">
-        <v>1.046357306807551</v>
+        <v>1.026904422760001</v>
       </c>
       <c r="L22">
-        <v>1.040879790095904</v>
+        <v>0.9783113676632624</v>
       </c>
       <c r="M22">
-        <v>1.050215500899324</v>
+        <v>0.9762888560458322</v>
       </c>
       <c r="N22">
-        <v>1.047208061211629</v>
+        <v>0.9858946403627025</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039537911350336</v>
+        <v>0.955813664379461</v>
       </c>
       <c r="D23">
-        <v>1.043007852387404</v>
+        <v>1.01390425339815</v>
       </c>
       <c r="E23">
-        <v>1.037723869763877</v>
+        <v>0.9657058554867972</v>
       </c>
       <c r="F23">
-        <v>1.047210008925871</v>
+        <v>0.964264838877491</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043703570097211</v>
+        <v>1.033562182705235</v>
       </c>
       <c r="J23">
-        <v>1.046212535183877</v>
+        <v>0.9879119714018042</v>
       </c>
       <c r="K23">
-        <v>1.046622328732265</v>
+        <v>1.028898654268973</v>
       </c>
       <c r="L23">
-        <v>1.041358181088287</v>
+        <v>0.9816593435702333</v>
       </c>
       <c r="M23">
-        <v>1.050808869344072</v>
+        <v>0.9802489576271421</v>
       </c>
       <c r="N23">
-        <v>1.047698276986093</v>
+        <v>0.9893149197162816</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04198159351799</v>
+        <v>0.9720239335210813</v>
       </c>
       <c r="D24">
-        <v>1.044319243272518</v>
+        <v>1.022710728481241</v>
       </c>
       <c r="E24">
-        <v>1.03987570021873</v>
+        <v>0.9797421586630838</v>
       </c>
       <c r="F24">
-        <v>1.04981483122547</v>
+        <v>0.9806557614845509</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044504857644859</v>
+        <v>1.04000214994703</v>
       </c>
       <c r="J24">
-        <v>1.048131186406774</v>
+        <v>1.000643118753935</v>
       </c>
       <c r="K24">
-        <v>1.047660527793037</v>
+        <v>1.036350420562092</v>
       </c>
       <c r="L24">
-        <v>1.043232292249212</v>
+        <v>0.9941346160022531</v>
       </c>
       <c r="M24">
-        <v>1.05313738108805</v>
+        <v>0.9950313187142455</v>
       </c>
       <c r="N24">
-        <v>1.0496196529138</v>
+        <v>1.002064146757935</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044801322664738</v>
+        <v>0.9892753575201924</v>
       </c>
       <c r="D25">
-        <v>1.045833482137982</v>
+        <v>1.032175484418404</v>
       </c>
       <c r="E25">
-        <v>1.042356332812538</v>
+        <v>0.9946978737322731</v>
       </c>
       <c r="F25">
-        <v>1.052824512150383</v>
+        <v>0.9981527108574243</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045422234644507</v>
+        <v>1.046815676999096</v>
       </c>
       <c r="J25">
-        <v>1.050340472803735</v>
+        <v>1.014169118736604</v>
       </c>
       <c r="K25">
-        <v>1.048854809339103</v>
+        <v>1.044294037187134</v>
       </c>
       <c r="L25">
-        <v>1.045388398963912</v>
+        <v>1.007379059806866</v>
       </c>
       <c r="M25">
-        <v>1.055824482161891</v>
+        <v>1.010779771456986</v>
       </c>
       <c r="N25">
-        <v>1.051832076750852</v>
+        <v>1.015609355212034</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002014192743481</v>
+        <v>0.99923609958005</v>
       </c>
       <c r="D2">
-        <v>1.0392211514132</v>
+        <v>1.04176964619767</v>
       </c>
       <c r="E2">
-        <v>1.005749227195334</v>
+        <v>1.00582051793344</v>
       </c>
       <c r="F2">
-        <v>1.01111151773282</v>
+        <v>1.041299914074903</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051809453247976</v>
+        <v>1.049489597424202</v>
       </c>
       <c r="J2">
-        <v>1.024134826100172</v>
+        <v>1.021439682808201</v>
       </c>
       <c r="K2">
-        <v>1.050159833436215</v>
+        <v>1.052676190130859</v>
       </c>
       <c r="L2">
-        <v>1.017129043050509</v>
+        <v>1.017199354937891</v>
       </c>
       <c r="M2">
-        <v>1.022418191881103</v>
+        <v>1.052212366868143</v>
       </c>
       <c r="N2">
-        <v>1.02558921502314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011103362724741</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.049894916424716</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.048316842088136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010764040764375</v>
+        <v>1.002588089934675</v>
       </c>
       <c r="D3">
-        <v>1.04408637185178</v>
+        <v>1.043590614723179</v>
       </c>
       <c r="E3">
-        <v>1.013341917340099</v>
+        <v>1.008413123743554</v>
       </c>
       <c r="F3">
-        <v>1.020033308959933</v>
+        <v>1.043406537936855</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055215566390453</v>
+        <v>1.050095197783374</v>
       </c>
       <c r="J3">
-        <v>1.030965507130633</v>
+        <v>1.023008448801099</v>
       </c>
       <c r="K3">
-        <v>1.054184601560346</v>
+        <v>1.053694546366698</v>
       </c>
       <c r="L3">
-        <v>1.023806885208723</v>
+        <v>1.018939477038175</v>
       </c>
       <c r="M3">
-        <v>1.030416119330924</v>
+        <v>1.053512588437189</v>
       </c>
       <c r="N3">
-        <v>1.032429596404155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011633097998722</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050923940723956</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.049034256423432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016219782459982</v>
+        <v>1.004722353231918</v>
       </c>
       <c r="D4">
-        <v>1.04712993726031</v>
+        <v>1.044756495729419</v>
       </c>
       <c r="E4">
-        <v>1.018076329322719</v>
+        <v>1.010069734377769</v>
       </c>
       <c r="F4">
-        <v>1.025605502521779</v>
+        <v>1.044755658944514</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05732763146167</v>
+        <v>1.050474533539961</v>
       </c>
       <c r="J4">
-        <v>1.035217491866894</v>
+        <v>1.024006027298593</v>
       </c>
       <c r="K4">
-        <v>1.056690969464327</v>
+        <v>1.054343167916701</v>
       </c>
       <c r="L4">
-        <v>1.027961376418979</v>
+        <v>1.020048126977217</v>
       </c>
       <c r="M4">
-        <v>1.035404409906422</v>
+        <v>1.054342340196671</v>
       </c>
       <c r="N4">
-        <v>1.036687619446451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01196988144701</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.051580624001158</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049493758383996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018467366424805</v>
+        <v>1.005612659332664</v>
       </c>
       <c r="D5">
-        <v>1.048385919627691</v>
+        <v>1.045248620468046</v>
       </c>
       <c r="E5">
-        <v>1.020026701727997</v>
+        <v>1.010762322147175</v>
       </c>
       <c r="F5">
-        <v>1.027903227233722</v>
+        <v>1.045322501552485</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058194824537393</v>
+        <v>1.050633020126418</v>
       </c>
       <c r="J5">
-        <v>1.036967400029928</v>
+        <v>1.024422420978952</v>
       </c>
       <c r="K5">
-        <v>1.057722583312692</v>
+        <v>1.054618268107107</v>
       </c>
       <c r="L5">
-        <v>1.029670588903015</v>
+        <v>1.020511180843236</v>
       </c>
       <c r="M5">
-        <v>1.037459697229586</v>
+        <v>1.054691369660059</v>
       </c>
       <c r="N5">
-        <v>1.038440012679793</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012110584173544</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051856853206679</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049695349738766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018842137327538</v>
+        <v>1.005763072123629</v>
       </c>
       <c r="D6">
-        <v>1.048595465414678</v>
+        <v>1.045337048728458</v>
       </c>
       <c r="E6">
-        <v>1.02035190908252</v>
+        <v>1.010879601231985</v>
       </c>
       <c r="F6">
-        <v>1.028286484875707</v>
+        <v>1.045421082406543</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058339250033364</v>
+        <v>1.050661867078778</v>
       </c>
       <c r="J6">
-        <v>1.037259080797468</v>
+        <v>1.024493457390369</v>
       </c>
       <c r="K6">
-        <v>1.0578945395474</v>
+        <v>1.054670222439018</v>
       </c>
       <c r="L6">
-        <v>1.029955452510038</v>
+        <v>1.020589954041844</v>
       </c>
       <c r="M6">
-        <v>1.037802418647246</v>
+        <v>1.054753373434462</v>
       </c>
       <c r="N6">
-        <v>1.03873210766748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012134766906989</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051905924277832</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049740716757388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016249991461739</v>
+        <v>1.004738026918903</v>
       </c>
       <c r="D7">
-        <v>1.047146810355296</v>
+        <v>1.044779075357168</v>
       </c>
       <c r="E7">
-        <v>1.01810254391145</v>
+        <v>1.010082434240547</v>
       </c>
       <c r="F7">
-        <v>1.025636376924777</v>
+        <v>1.044772884563049</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057339298747729</v>
+        <v>1.050483121748192</v>
       </c>
       <c r="J7">
-        <v>1.035241018865833</v>
+        <v>1.024015258508349</v>
       </c>
       <c r="K7">
-        <v>1.056704838911739</v>
+        <v>1.054362672574383</v>
       </c>
       <c r="L7">
-        <v>1.027984358554279</v>
+        <v>1.020057716208949</v>
       </c>
       <c r="M7">
-        <v>1.035432033284919</v>
+        <v>1.054356548819617</v>
       </c>
       <c r="N7">
-        <v>1.036711179856427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011973490827746</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051591869004038</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049527400847653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005016002527141</v>
+        <v>1.000380902018547</v>
       </c>
       <c r="D8">
-        <v>1.040887977103225</v>
+        <v>1.042407383505031</v>
       </c>
       <c r="E8">
-        <v>1.008353951283822</v>
+        <v>1.006705395098925</v>
       </c>
       <c r="F8">
-        <v>1.014170323206428</v>
+        <v>1.042026695337042</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05298041569419</v>
+        <v>1.04970485053078</v>
       </c>
       <c r="J8">
-        <v>1.026479695075531</v>
+        <v>1.021978060885431</v>
       </c>
       <c r="K8">
-        <v>1.051541176757428</v>
+        <v>1.053041998685392</v>
       </c>
       <c r="L8">
-        <v>1.01942193966081</v>
+        <v>1.017795297206509</v>
       </c>
       <c r="M8">
-        <v>1.02516170948633</v>
+        <v>1.05266596054201</v>
       </c>
       <c r="N8">
-        <v>1.027937413981405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011285812829792</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050253900718453</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04859809859045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9834725448029751</v>
+        <v>0.9924209529732657</v>
       </c>
       <c r="D9">
-        <v>1.028981658022623</v>
+        <v>1.03810532848641</v>
       </c>
       <c r="E9">
-        <v>0.9896656187537907</v>
+        <v>1.000582699914338</v>
       </c>
       <c r="F9">
-        <v>0.9922608563293761</v>
+        <v>1.037061848257274</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044529511281638</v>
+        <v>1.048225743422929</v>
       </c>
       <c r="J9">
-        <v>1.009622739839965</v>
+        <v>1.018244215263851</v>
       </c>
       <c r="K9">
-        <v>1.041621398446608</v>
+        <v>1.050609010553321</v>
       </c>
       <c r="L9">
-        <v>1.002928619299359</v>
+        <v>1.013666330288002</v>
       </c>
       <c r="M9">
-        <v>1.005480756222614</v>
+        <v>1.049580937354215</v>
       </c>
       <c r="N9">
-        <v>1.011056519935885</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010024068154574</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047812340168142</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046874734631637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9676555636882417</v>
+        <v>0.9869405918248927</v>
       </c>
       <c r="D10">
-        <v>1.020328961310608</v>
+        <v>1.035229316981792</v>
       </c>
       <c r="E10">
-        <v>0.9759577828387879</v>
+        <v>0.9964050924920613</v>
       </c>
       <c r="F10">
-        <v>0.9762341190058478</v>
+        <v>1.033777973695958</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038269668252067</v>
+        <v>1.047202017135151</v>
       </c>
       <c r="J10">
-        <v>0.9972139514168974</v>
+        <v>1.015682103634797</v>
       </c>
       <c r="K10">
-        <v>1.034340621035247</v>
+        <v>1.048990351863756</v>
       </c>
       <c r="L10">
-        <v>0.9907751324655856</v>
+        <v>1.010839558881112</v>
       </c>
       <c r="M10">
-        <v>0.9910461541296831</v>
+        <v>1.047563011413507</v>
       </c>
       <c r="N10">
-        <v>0.9986301096099485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009160749468515</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046266258193455</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.045746861284879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.960383497824447</v>
+        <v>0.9847238476141386</v>
       </c>
       <c r="D11">
-        <v>1.016377964047231</v>
+        <v>1.034432364966829</v>
       </c>
       <c r="E11">
-        <v>0.9696608420070889</v>
+        <v>0.9947532438896662</v>
       </c>
       <c r="F11">
-        <v>0.9688809359385469</v>
+        <v>1.033151611759158</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035380531960395</v>
+        <v>1.04697042885506</v>
       </c>
       <c r="J11">
-        <v>0.9915025667657732</v>
+        <v>1.014746236588491</v>
       </c>
       <c r="K11">
-        <v>1.030997487094984</v>
+        <v>1.04873289403815</v>
       </c>
       <c r="L11">
-        <v>0.9851785242778041</v>
+        <v>1.009774789320159</v>
       </c>
       <c r="M11">
-        <v>0.9844145820420336</v>
+        <v>1.0474742944212</v>
       </c>
       <c r="N11">
-        <v>0.9929106141375147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008867815193858</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04662819220103</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.045597221674319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9576105735002005</v>
+        <v>0.9839594941484994</v>
       </c>
       <c r="D12">
-        <v>1.014876090972957</v>
+        <v>1.034284784247927</v>
       </c>
       <c r="E12">
-        <v>0.9672607989553746</v>
+        <v>0.9941964350410465</v>
       </c>
       <c r="F12">
-        <v>0.9660795122985839</v>
+        <v>1.033197905842132</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034277410290663</v>
+        <v>1.046954674834684</v>
       </c>
       <c r="J12">
-        <v>0.9893239560253689</v>
+        <v>1.014458580571049</v>
       </c>
       <c r="K12">
-        <v>1.029723732301881</v>
+        <v>1.048783354746845</v>
       </c>
       <c r="L12">
-        <v>0.9830433087016078</v>
+        <v>1.009435673273986</v>
       </c>
       <c r="M12">
-        <v>0.9818867649742429</v>
+        <v>1.047715574824532</v>
       </c>
       <c r="N12">
-        <v>0.9907289095199688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00878915119048</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047142623787868</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.045632898088424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9582087703212974</v>
+        <v>0.9842671136708537</v>
       </c>
       <c r="D13">
-        <v>1.015199864794234</v>
+        <v>1.03464918528749</v>
       </c>
       <c r="E13">
-        <v>0.967778503086319</v>
+        <v>0.994447511451853</v>
       </c>
       <c r="F13">
-        <v>0.966683745312351</v>
+        <v>1.03378910115219</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034515446465341</v>
+        <v>1.047117310057415</v>
       </c>
       <c r="J13">
-        <v>0.9897939759262416</v>
+        <v>1.014657453952318</v>
       </c>
       <c r="K13">
-        <v>1.029998463959935</v>
+        <v>1.049099454040848</v>
       </c>
       <c r="L13">
-        <v>0.983503983372663</v>
+        <v>1.009637472768134</v>
       </c>
       <c r="M13">
-        <v>0.9824320432356903</v>
+        <v>1.048254414865045</v>
       </c>
       <c r="N13">
-        <v>0.9911995969030128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008873084351152</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047843228196369</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.045853927629017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9601558035671245</v>
+        <v>0.9849684664456587</v>
       </c>
       <c r="D14">
-        <v>1.016254541538499</v>
+        <v>1.035137648946372</v>
       </c>
       <c r="E14">
-        <v>0.9694637434426474</v>
+        <v>0.9949895662205894</v>
       </c>
       <c r="F14">
-        <v>0.9686508515074382</v>
+        <v>1.034449738587252</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0352899791246</v>
+        <v>1.047311793529131</v>
       </c>
       <c r="J14">
-        <v>0.9913236886947366</v>
+        <v>1.015016795445809</v>
       </c>
       <c r="K14">
-        <v>1.030892871745975</v>
+        <v>1.049442150126953</v>
       </c>
       <c r="L14">
-        <v>0.9850032168880197</v>
+        <v>1.010023688444689</v>
       </c>
       <c r="M14">
-        <v>0.9842069957100246</v>
+        <v>1.048766124412208</v>
       </c>
       <c r="N14">
-        <v>0.9927314820390994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009005501189967</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04841988959801</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.046097622709196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.961345656275562</v>
+        <v>0.9853740135427462</v>
       </c>
       <c r="D15">
-        <v>1.016899699321817</v>
+        <v>1.035378858066019</v>
       </c>
       <c r="E15">
-        <v>0.9704937577305647</v>
+        <v>0.9952992785055012</v>
       </c>
       <c r="F15">
-        <v>0.969853293786358</v>
+        <v>1.034745141667928</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035763119580248</v>
+        <v>1.047403075043126</v>
       </c>
       <c r="J15">
-        <v>0.9922584134757264</v>
+        <v>1.015213310399789</v>
       </c>
       <c r="K15">
-        <v>1.031439599710736</v>
+        <v>1.049594661752721</v>
       </c>
       <c r="L15">
-        <v>0.985919267630302</v>
+        <v>1.010237967359447</v>
       </c>
       <c r="M15">
-        <v>0.9852918077556156</v>
+        <v>1.048971812032176</v>
       </c>
       <c r="N15">
-        <v>0.993667534236493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009074336705573</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048619773280738</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.046211237476168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9681286062635881</v>
+        <v>0.9876290563293729</v>
       </c>
       <c r="D16">
-        <v>1.020586578197406</v>
+        <v>1.036537654400953</v>
       </c>
       <c r="E16">
-        <v>0.976367524777503</v>
+        <v>0.9970085486616123</v>
       </c>
       <c r="F16">
-        <v>0.976712763510681</v>
+        <v>1.036055508275123</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038457393035216</v>
+        <v>1.047822376467545</v>
       </c>
       <c r="J16">
-        <v>0.9975853557737927</v>
+        <v>1.016263855501287</v>
       </c>
       <c r="K16">
-        <v>1.03455820798506</v>
+        <v>1.050242290004544</v>
       </c>
       <c r="L16">
-        <v>0.9911390188067661</v>
+        <v>1.011395188307405</v>
       </c>
       <c r="M16">
-        <v>0.9914776454466837</v>
+        <v>1.049768059226688</v>
       </c>
       <c r="N16">
-        <v>0.9990020414036309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00942522136198</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049210647456865</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.046672247226963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9722647492154762</v>
+        <v>0.9889943898382909</v>
       </c>
       <c r="D17">
-        <v>1.022842208168433</v>
+        <v>1.037172142392539</v>
       </c>
       <c r="E17">
-        <v>0.9799508161960931</v>
+        <v>0.9980396234082299</v>
       </c>
       <c r="F17">
-        <v>0.9808996151968711</v>
+        <v>1.036711080450307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04009758336238</v>
+        <v>1.048040347209418</v>
       </c>
       <c r="J17">
-        <v>1.000832117365699</v>
+        <v>1.016882167359668</v>
       </c>
       <c r="K17">
-        <v>1.036461243429072</v>
+        <v>1.050558356887353</v>
       </c>
       <c r="L17">
-        <v>0.9943197559341187</v>
+        <v>1.012082112658103</v>
       </c>
       <c r="M17">
-        <v>0.9952510419422343</v>
+        <v>1.050104657420035</v>
       </c>
       <c r="N17">
-        <v>1.002253413769406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009625144602869</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049348495923429</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.046898267852102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9746370819536337</v>
+        <v>0.9897212868344811</v>
       </c>
       <c r="D18">
-        <v>1.02413843861689</v>
+        <v>1.037382702406895</v>
       </c>
       <c r="E18">
-        <v>0.9820065413437232</v>
+        <v>0.9985788513321429</v>
       </c>
       <c r="F18">
-        <v>0.9833024487925826</v>
+        <v>1.036814516397031</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041037287087573</v>
+        <v>1.048091707356526</v>
       </c>
       <c r="J18">
-        <v>1.002693739992457</v>
+        <v>1.017178315680842</v>
       </c>
       <c r="K18">
-        <v>1.037553125058072</v>
+        <v>1.05058591964087</v>
       </c>
       <c r="L18">
-        <v>0.9961432658414067</v>
+        <v>1.012422160825991</v>
       </c>
       <c r="M18">
-        <v>0.9974157657198665</v>
+        <v>1.050026663834347</v>
       </c>
       <c r="N18">
-        <v>1.004117680113826</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009710558264725</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049050865146654</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.046906282863685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9754393904107197</v>
+        <v>0.9898646823096896</v>
       </c>
       <c r="D19">
-        <v>1.024577221526916</v>
+        <v>1.037223060531022</v>
       </c>
       <c r="E19">
-        <v>0.9827018512159867</v>
+        <v>0.9986680300732949</v>
       </c>
       <c r="F19">
-        <v>0.9841153092078584</v>
+        <v>1.03641640574616</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041354906071607</v>
+        <v>1.047995436049702</v>
       </c>
       <c r="J19">
-        <v>1.003323224421943</v>
+        <v>1.017179232503628</v>
       </c>
       <c r="K19">
-        <v>1.037922445978029</v>
+        <v>1.050367516126997</v>
       </c>
       <c r="L19">
-        <v>0.9967598189380952</v>
+        <v>1.012445127612351</v>
       </c>
       <c r="M19">
-        <v>0.9981479344396826</v>
+        <v>1.049573480900547</v>
       </c>
       <c r="N19">
-        <v>1.004748058483404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009693448023353</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04836968204458</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.046758175130029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9718251935963236</v>
+        <v>0.9883683609535476</v>
       </c>
       <c r="D20">
-        <v>1.022602235224584</v>
+        <v>1.036012134899248</v>
       </c>
       <c r="E20">
-        <v>0.9795699609000776</v>
+        <v>0.9974925434128987</v>
       </c>
       <c r="F20">
-        <v>0.9804545223783477</v>
+        <v>1.034652380297489</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039923384865745</v>
+        <v>1.047486118739183</v>
       </c>
       <c r="J20">
-        <v>1.000487138933942</v>
+        <v>1.016355145154988</v>
       </c>
       <c r="K20">
-        <v>1.036258962947515</v>
+        <v>1.049449991900935</v>
       </c>
       <c r="L20">
-        <v>0.9939818192800709</v>
+        <v>1.011579627183425</v>
       </c>
       <c r="M20">
-        <v>0.9948499884701436</v>
+        <v>1.048112098972151</v>
       </c>
       <c r="N20">
-        <v>1.001907945428707</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009389096187761</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046690348008969</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.046113332078295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9595845049398629</v>
+        <v>0.9842223179518458</v>
       </c>
       <c r="D21">
-        <v>1.015944944462869</v>
+        <v>1.033775646419147</v>
       </c>
       <c r="E21">
-        <v>0.9689692290700168</v>
+        <v>0.9943386305014581</v>
       </c>
       <c r="F21">
-        <v>0.96807359528905</v>
+        <v>1.032046922908067</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035062753921035</v>
+        <v>1.046662081362028</v>
       </c>
       <c r="J21">
-        <v>0.9908748606628456</v>
+        <v>1.014394836399773</v>
       </c>
       <c r="K21">
-        <v>1.03063040328872</v>
+        <v>1.048144189047129</v>
       </c>
       <c r="L21">
-        <v>0.9845633420448141</v>
+        <v>1.009428058959676</v>
       </c>
       <c r="M21">
-        <v>0.9836861637064839</v>
+        <v>1.046445570407581</v>
       </c>
       <c r="N21">
-        <v>0.9922820166199218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008724346237858</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.045330928120148</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.045193277228795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9514678901342849</v>
+        <v>0.9815779546405826</v>
       </c>
       <c r="D22">
-        <v>1.011558516674195</v>
+        <v>1.032366314771697</v>
       </c>
       <c r="E22">
-        <v>0.9619463945858814</v>
+        <v>0.9923360226037935</v>
       </c>
       <c r="F22">
-        <v>0.9598783605232144</v>
+        <v>1.030432199661293</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031831289604205</v>
+        <v>1.046136858957769</v>
       </c>
       <c r="J22">
-        <v>0.984496542349235</v>
+        <v>1.013148558171316</v>
       </c>
       <c r="K22">
-        <v>1.026904422760001</v>
+        <v>1.047322747259777</v>
       </c>
       <c r="L22">
-        <v>0.9783113676632624</v>
+        <v>1.008060848756248</v>
       </c>
       <c r="M22">
-        <v>0.9762888560458322</v>
+        <v>1.045423970830289</v>
       </c>
       <c r="N22">
-        <v>0.9858946403627025</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008302356926068</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.044522405476518</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.044599172723343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.955813664379461</v>
+        <v>0.9829808851542661</v>
       </c>
       <c r="D23">
-        <v>1.01390425339815</v>
+        <v>1.03310087121036</v>
       </c>
       <c r="E23">
-        <v>0.9657058554867972</v>
+        <v>0.9933971586654753</v>
       </c>
       <c r="F23">
-        <v>0.964264838877491</v>
+        <v>1.031281439101682</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033562182705235</v>
+        <v>1.046411022126746</v>
       </c>
       <c r="J23">
-        <v>0.9879119714018042</v>
+        <v>1.013808130658486</v>
       </c>
       <c r="K23">
-        <v>1.028898654268973</v>
+        <v>1.047745616991575</v>
       </c>
       <c r="L23">
-        <v>0.9816593435702333</v>
+        <v>1.00878468995877</v>
       </c>
       <c r="M23">
-        <v>0.9802489576271421</v>
+        <v>1.045958599719703</v>
       </c>
       <c r="N23">
-        <v>0.9893149197162816</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008525152722346</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044945525930316</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.044888651418664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9720239335210813</v>
+        <v>0.9884109115537313</v>
       </c>
       <c r="D24">
-        <v>1.022710728481241</v>
+        <v>1.035981388053916</v>
       </c>
       <c r="E24">
-        <v>0.9797421586630838</v>
+        <v>0.997521257209948</v>
       </c>
       <c r="F24">
-        <v>0.9806557614845509</v>
+        <v>1.034600092380925</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04000214994703</v>
+        <v>1.047467954256818</v>
       </c>
       <c r="J24">
-        <v>1.000643118753935</v>
+        <v>1.016362489763843</v>
       </c>
       <c r="K24">
-        <v>1.036350420562092</v>
+        <v>1.049404780259909</v>
       </c>
       <c r="L24">
-        <v>0.9941346160022531</v>
+        <v>1.011592042630131</v>
       </c>
       <c r="M24">
-        <v>0.9950313187142455</v>
+        <v>1.04804566652863</v>
       </c>
       <c r="N24">
-        <v>1.002064146757935</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009388805176312</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046597287411981</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.046054332384167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9892753575201924</v>
+        <v>0.9945189627264412</v>
       </c>
       <c r="D25">
-        <v>1.032175484418404</v>
+        <v>1.039254263644287</v>
       </c>
       <c r="E25">
-        <v>0.9946978737322731</v>
+        <v>1.002191579785856</v>
       </c>
       <c r="F25">
-        <v>0.9981527108574243</v>
+        <v>1.0383739043007</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046815676999096</v>
+        <v>1.048629935747174</v>
       </c>
       <c r="J25">
-        <v>1.014169118736604</v>
+        <v>1.019232204138244</v>
       </c>
       <c r="K25">
-        <v>1.044294037187134</v>
+        <v>1.051272304830482</v>
       </c>
       <c r="L25">
-        <v>1.007379059806866</v>
+        <v>1.01475596930075</v>
       </c>
       <c r="M25">
-        <v>1.010779771456986</v>
+        <v>1.050404351405436</v>
       </c>
       <c r="N25">
-        <v>1.015609355212034</v>
+        <v>1.010358832513372</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048464010370728</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047371913742335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.99923609958005</v>
+        <v>0.9991990344932999</v>
       </c>
       <c r="D2">
-        <v>1.04176964619767</v>
+        <v>1.039010924378248</v>
       </c>
       <c r="E2">
-        <v>1.00582051793344</v>
+        <v>1.005790522517787</v>
       </c>
       <c r="F2">
-        <v>1.041299914074903</v>
+        <v>1.039711316797023</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049489597424202</v>
+        <v>1.04857158571795</v>
       </c>
       <c r="J2">
-        <v>1.021439682808201</v>
+        <v>1.021403728721978</v>
       </c>
       <c r="K2">
-        <v>1.052676190130859</v>
+        <v>1.049952266279482</v>
       </c>
       <c r="L2">
-        <v>1.017199354937891</v>
+        <v>1.017169771350118</v>
       </c>
       <c r="M2">
-        <v>1.052212366868143</v>
+        <v>1.050643802261219</v>
       </c>
       <c r="N2">
-        <v>1.011103362724741</v>
+        <v>1.012909321172919</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049894916424716</v>
+        <v>1.048653517580397</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.048316842088136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046399504733881</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025290331270917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002588089934675</v>
+        <v>1.002495497275266</v>
       </c>
       <c r="D3">
-        <v>1.043590614723179</v>
+        <v>1.040699378495969</v>
       </c>
       <c r="E3">
-        <v>1.008413123743554</v>
+        <v>1.008334664719683</v>
       </c>
       <c r="F3">
-        <v>1.043406537936855</v>
+        <v>1.041733728979006</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050095197783374</v>
+        <v>1.049119871567786</v>
       </c>
       <c r="J3">
-        <v>1.023008448801099</v>
+        <v>1.022918362926345</v>
       </c>
       <c r="K3">
-        <v>1.053694546366698</v>
+        <v>1.050836697335354</v>
       </c>
       <c r="L3">
-        <v>1.018939477038175</v>
+        <v>1.018862001228249</v>
       </c>
       <c r="M3">
-        <v>1.053512588437189</v>
+        <v>1.051859077121361</v>
       </c>
       <c r="N3">
-        <v>1.011633097998722</v>
+        <v>1.013316147983291</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050923940723956</v>
+        <v>1.049615314807918</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049034256423432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04702195263939</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025429308055913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004722353231918</v>
+        <v>1.004594691060832</v>
       </c>
       <c r="D4">
-        <v>1.044756495729419</v>
+        <v>1.041780942843387</v>
       </c>
       <c r="E4">
-        <v>1.010069734377769</v>
+        <v>1.009960626720587</v>
       </c>
       <c r="F4">
-        <v>1.044755658944514</v>
+        <v>1.043029327613921</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050474533539961</v>
+        <v>1.04946268991626</v>
       </c>
       <c r="J4">
-        <v>1.024006027298593</v>
+        <v>1.023881589975897</v>
       </c>
       <c r="K4">
-        <v>1.054343167916701</v>
+        <v>1.051399962110894</v>
       </c>
       <c r="L4">
-        <v>1.020048126977217</v>
+        <v>1.019940304013713</v>
       </c>
       <c r="M4">
-        <v>1.054342340196671</v>
+        <v>1.052634748180081</v>
       </c>
       <c r="N4">
-        <v>1.01196988144701</v>
+        <v>1.013574829672675</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051580624001158</v>
+        <v>1.050229198554728</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049493758383996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047421188017741</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025515692170868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005612659332664</v>
+        <v>1.005470360540812</v>
       </c>
       <c r="D5">
-        <v>1.045248620468046</v>
+        <v>1.0422377606136</v>
       </c>
       <c r="E5">
-        <v>1.010762322147175</v>
+        <v>1.010640412263997</v>
       </c>
       <c r="F5">
-        <v>1.045322501552485</v>
+        <v>1.043573761128274</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050633020126418</v>
+        <v>1.049605856105321</v>
       </c>
       <c r="J5">
-        <v>1.024422420978952</v>
+        <v>1.024283610470742</v>
       </c>
       <c r="K5">
-        <v>1.054618268107107</v>
+        <v>1.051639291397844</v>
       </c>
       <c r="L5">
-        <v>1.020511180843236</v>
+        <v>1.020390668111991</v>
       </c>
       <c r="M5">
-        <v>1.054691369660059</v>
+        <v>1.052961116712955</v>
       </c>
       <c r="N5">
-        <v>1.012110584173544</v>
+        <v>1.013682896603551</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051856853206679</v>
+        <v>1.050487493895884</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049695349738766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047598204262861</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025552576988191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005763072123629</v>
+        <v>1.005618216451026</v>
       </c>
       <c r="D6">
-        <v>1.045337048728458</v>
+        <v>1.042320042798097</v>
       </c>
       <c r="E6">
-        <v>1.010879601231985</v>
+        <v>1.010755451641201</v>
       </c>
       <c r="F6">
-        <v>1.045421082406543</v>
+        <v>1.043668429342009</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050661867078778</v>
+        <v>1.049632014460109</v>
       </c>
       <c r="J6">
-        <v>1.024493457390369</v>
+        <v>1.024352134624896</v>
       </c>
       <c r="K6">
-        <v>1.054670222439018</v>
+        <v>1.051685022209287</v>
       </c>
       <c r="L6">
-        <v>1.020589954041844</v>
+        <v>1.02046722075173</v>
       </c>
       <c r="M6">
-        <v>1.054753373434462</v>
+        <v>1.053019166080868</v>
       </c>
       <c r="N6">
-        <v>1.012134766906989</v>
+        <v>1.013701452386053</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051905924277832</v>
+        <v>1.050533435451904</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049740716757388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04764004574489</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025560435740837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004738026918903</v>
+        <v>1.004617798802498</v>
       </c>
       <c r="D7">
-        <v>1.044779075357168</v>
+        <v>1.041804434268898</v>
       </c>
       <c r="E7">
-        <v>1.010082434240547</v>
+        <v>1.009979925041764</v>
       </c>
       <c r="F7">
-        <v>1.044772884563049</v>
+        <v>1.043048489435043</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050483121748192</v>
+        <v>1.049473263496861</v>
       </c>
       <c r="J7">
-        <v>1.024015258508349</v>
+        <v>1.023898066181388</v>
       </c>
       <c r="K7">
-        <v>1.054362672574383</v>
+        <v>1.051420356158248</v>
       </c>
       <c r="L7">
-        <v>1.020057716208949</v>
+        <v>1.019956413557988</v>
       </c>
       <c r="M7">
-        <v>1.054356548819617</v>
+        <v>1.052650864969588</v>
       </c>
       <c r="N7">
-        <v>1.011973490827746</v>
+        <v>1.01360546007057</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051591869004038</v>
+        <v>1.050241953743753</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049527400847653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047457471570435</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025521403811716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000380902018547</v>
+        <v>1.000348888273457</v>
       </c>
       <c r="D8">
-        <v>1.042407383505031</v>
+        <v>1.039609032401509</v>
       </c>
       <c r="E8">
-        <v>1.006705395098925</v>
+        <v>1.006680190014099</v>
       </c>
       <c r="F8">
-        <v>1.042026695337042</v>
+        <v>1.040417143660423</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04970485053078</v>
+        <v>1.048774710808875</v>
       </c>
       <c r="J8">
-        <v>1.021978060885431</v>
+        <v>1.021946974862564</v>
       </c>
       <c r="K8">
-        <v>1.053041998685392</v>
+        <v>1.050277927727299</v>
       </c>
       <c r="L8">
-        <v>1.017795297206509</v>
+        <v>1.017770427864198</v>
       </c>
       <c r="M8">
-        <v>1.05266596054201</v>
+        <v>1.051076115970547</v>
       </c>
       <c r="N8">
-        <v>1.011285812829792</v>
+        <v>1.013134243754508</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050253900718453</v>
+        <v>1.048995661003154</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04859809859045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046654658444351</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025345633030458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9924209529732657</v>
+        <v>0.9925264976745857</v>
       </c>
       <c r="D9">
-        <v>1.03810532848641</v>
+        <v>1.035623579572018</v>
       </c>
       <c r="E9">
-        <v>1.000582699914338</v>
+        <v>1.000677339250737</v>
       </c>
       <c r="F9">
-        <v>1.037061848257274</v>
+        <v>1.035654591956562</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048225743422929</v>
+        <v>1.047433084431044</v>
       </c>
       <c r="J9">
-        <v>1.018244215263851</v>
+        <v>1.018345953173339</v>
       </c>
       <c r="K9">
-        <v>1.050609010553321</v>
+        <v>1.048163969450608</v>
       </c>
       <c r="L9">
-        <v>1.013666330288002</v>
+        <v>1.013759436648767</v>
       </c>
       <c r="M9">
-        <v>1.049580937354215</v>
+        <v>1.048194521747997</v>
       </c>
       <c r="N9">
-        <v>1.010024068154574</v>
+        <v>1.012175916012069</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047812340168142</v>
+        <v>1.04671509534266</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046874734631637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045156567049029</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024999165899326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9869405918248927</v>
+        <v>0.9871760869134233</v>
       </c>
       <c r="D10">
-        <v>1.035229316981792</v>
+        <v>1.032968819508387</v>
       </c>
       <c r="E10">
-        <v>0.9964050924920613</v>
+        <v>0.9966131257471109</v>
       </c>
       <c r="F10">
-        <v>1.033777973695958</v>
+        <v>1.032518908380466</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047202017135151</v>
+        <v>1.046512339817389</v>
       </c>
       <c r="J10">
-        <v>1.015682103634797</v>
+        <v>1.015907903605123</v>
       </c>
       <c r="K10">
-        <v>1.048990351863756</v>
+        <v>1.04676727701478</v>
       </c>
       <c r="L10">
-        <v>1.010839558881112</v>
+        <v>1.01104380170449</v>
       </c>
       <c r="M10">
-        <v>1.047563011413507</v>
+        <v>1.046324839361686</v>
       </c>
       <c r="N10">
-        <v>1.009160749468515</v>
+        <v>1.011639440199164</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046266258193455</v>
+        <v>1.045286395156954</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.045746861284879</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044187311310025</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.0247679736641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9847238476141386</v>
+        <v>0.9850527196469733</v>
       </c>
       <c r="D11">
-        <v>1.034432364966829</v>
+        <v>1.032225860478599</v>
       </c>
       <c r="E11">
-        <v>0.9947532438896662</v>
+        <v>0.9950426763896334</v>
       </c>
       <c r="F11">
-        <v>1.033151611759158</v>
+        <v>1.031941337183701</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04697042885506</v>
+        <v>1.046317418845985</v>
       </c>
       <c r="J11">
-        <v>1.014746236588491</v>
+        <v>1.015060820201877</v>
       </c>
       <c r="K11">
-        <v>1.04873289403815</v>
+        <v>1.046564600453964</v>
       </c>
       <c r="L11">
-        <v>1.009774789320159</v>
+        <v>1.010058690042533</v>
       </c>
       <c r="M11">
-        <v>1.0474742944212</v>
+        <v>1.04628501975579</v>
       </c>
       <c r="N11">
-        <v>1.008867815193858</v>
+        <v>1.011656690615951</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04662819220103</v>
+        <v>1.045687490750165</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045597221674319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.0440796332486</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024787009971561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9839594941484994</v>
+        <v>0.9843219248859202</v>
       </c>
       <c r="D12">
-        <v>1.034284784247927</v>
+        <v>1.032078912071706</v>
       </c>
       <c r="E12">
-        <v>0.9941964350410465</v>
+        <v>0.994514660523668</v>
       </c>
       <c r="F12">
-        <v>1.033197905842132</v>
+        <v>1.031995370268131</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046954674834684</v>
+        <v>1.046307931376795</v>
       </c>
       <c r="J12">
-        <v>1.014458580571049</v>
+        <v>1.014804956124987</v>
       </c>
       <c r="K12">
-        <v>1.048783354746845</v>
+        <v>1.046616298357006</v>
       </c>
       <c r="L12">
-        <v>1.009435673273986</v>
+        <v>1.009747710965383</v>
       </c>
       <c r="M12">
-        <v>1.047715574824532</v>
+        <v>1.046534230831467</v>
       </c>
       <c r="N12">
-        <v>1.00878915119048</v>
+        <v>1.011702661215172</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047142623787868</v>
+        <v>1.046208506535514</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045632898088424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04411618376459</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024831003892154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9842671136708537</v>
+        <v>0.9846071985614444</v>
       </c>
       <c r="D13">
-        <v>1.03464918528749</v>
+        <v>1.032398691101172</v>
       </c>
       <c r="E13">
-        <v>0.994447511451853</v>
+        <v>0.9947453399743119</v>
       </c>
       <c r="F13">
-        <v>1.03378910115219</v>
+        <v>1.032558316863292</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047117310057415</v>
+        <v>1.046449595494979</v>
       </c>
       <c r="J13">
-        <v>1.014657453952318</v>
+        <v>1.014982541824742</v>
       </c>
       <c r="K13">
-        <v>1.049099454040848</v>
+        <v>1.04688839517446</v>
       </c>
       <c r="L13">
-        <v>1.009637472768134</v>
+        <v>1.009929533273274</v>
       </c>
       <c r="M13">
-        <v>1.048254414865045</v>
+        <v>1.047045216480309</v>
       </c>
       <c r="N13">
-        <v>1.008873084351152</v>
+        <v>1.011739442516022</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047843228196369</v>
+        <v>1.046887322767315</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.045853927629017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044305855698444</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024904717949764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9849684664456587</v>
+        <v>0.9852681061153293</v>
       </c>
       <c r="D14">
-        <v>1.035137648946372</v>
+        <v>1.032835918194288</v>
       </c>
       <c r="E14">
-        <v>0.9949895662205894</v>
+        <v>0.9952513752479535</v>
       </c>
       <c r="F14">
-        <v>1.034449738587252</v>
+        <v>1.033183301626125</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047311793529131</v>
+        <v>1.046617487755567</v>
       </c>
       <c r="J14">
-        <v>1.015016795445809</v>
+        <v>1.015303406757553</v>
       </c>
       <c r="K14">
-        <v>1.049442150126953</v>
+        <v>1.047180265512559</v>
       </c>
       <c r="L14">
-        <v>1.010023688444689</v>
+        <v>1.010280490000788</v>
       </c>
       <c r="M14">
-        <v>1.048766124412208</v>
+        <v>1.047521620536543</v>
       </c>
       <c r="N14">
-        <v>1.009005501189967</v>
+        <v>1.0117621800428</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04841988959801</v>
+        <v>1.047436205658242</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046097622709196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044513752349826</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024970135260256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9853740135427462</v>
+        <v>0.9856520919105511</v>
       </c>
       <c r="D15">
-        <v>1.035378858066019</v>
+        <v>1.033054157347646</v>
       </c>
       <c r="E15">
-        <v>0.9952992785055012</v>
+        <v>0.9955420596473532</v>
       </c>
       <c r="F15">
-        <v>1.034745141667928</v>
+        <v>1.033461887145568</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047403075043126</v>
+        <v>1.046696209204187</v>
       </c>
       <c r="J15">
-        <v>1.015213310399789</v>
+        <v>1.015479402319446</v>
       </c>
       <c r="K15">
-        <v>1.049594661752721</v>
+        <v>1.047309908312509</v>
       </c>
       <c r="L15">
-        <v>1.010237967359447</v>
+        <v>1.010476140527043</v>
       </c>
       <c r="M15">
-        <v>1.048971812032176</v>
+        <v>1.047710614944082</v>
       </c>
       <c r="N15">
-        <v>1.009074336705573</v>
+        <v>1.011769460850088</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048619773280738</v>
+        <v>1.04762292072672</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046211237476168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044611771908898</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02499577088384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9876290563293729</v>
+        <v>0.9878029830336905</v>
       </c>
       <c r="D16">
-        <v>1.036537654400953</v>
+        <v>1.034113204386352</v>
       </c>
       <c r="E16">
-        <v>0.9970085486616123</v>
+        <v>0.9971601700786452</v>
       </c>
       <c r="F16">
-        <v>1.036055508275123</v>
+        <v>1.034696178968404</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047822376467545</v>
+        <v>1.047058932069251</v>
       </c>
       <c r="J16">
-        <v>1.016263855501287</v>
+        <v>1.01643065830427</v>
       </c>
       <c r="K16">
-        <v>1.050242290004544</v>
+        <v>1.04785773815258</v>
       </c>
       <c r="L16">
-        <v>1.011395188307405</v>
+        <v>1.011544059398723</v>
       </c>
       <c r="M16">
-        <v>1.049768059226688</v>
+        <v>1.048431096998471</v>
       </c>
       <c r="N16">
-        <v>1.00942522136198</v>
+        <v>1.011815468815165</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049210647456865</v>
+        <v>1.048153880448782</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046672247226963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045002527878732</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025085320339113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9889943898382909</v>
+        <v>0.9891186331505756</v>
       </c>
       <c r="D17">
-        <v>1.037172142392539</v>
+        <v>1.034700181933615</v>
       </c>
       <c r="E17">
-        <v>0.9980396234082299</v>
+        <v>0.9981480582396979</v>
       </c>
       <c r="F17">
-        <v>1.036711080450307</v>
+        <v>1.035315075309843</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048040347209418</v>
+        <v>1.04725008653359</v>
       </c>
       <c r="J17">
-        <v>1.016882167359668</v>
+        <v>1.017001485316426</v>
       </c>
       <c r="K17">
-        <v>1.050558356887353</v>
+        <v>1.04812596836758</v>
       </c>
       <c r="L17">
-        <v>1.012082112658103</v>
+        <v>1.012188636807736</v>
       </c>
       <c r="M17">
-        <v>1.050104657420035</v>
+        <v>1.048730995689223</v>
       </c>
       <c r="N17">
-        <v>1.009625144602869</v>
+        <v>1.011868303798901</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049348495923429</v>
+        <v>1.048262613880726</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046898267852102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045194978759399</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025119290709996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9897212868344811</v>
+        <v>0.9898276773467138</v>
       </c>
       <c r="D18">
-        <v>1.037382702406895</v>
+        <v>1.034903863205714</v>
       </c>
       <c r="E18">
-        <v>0.9985788513321429</v>
+        <v>0.9986721495651453</v>
       </c>
       <c r="F18">
-        <v>1.036814516397031</v>
+        <v>1.035410333103966</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048091707356526</v>
+        <v>1.047295660950168</v>
       </c>
       <c r="J18">
-        <v>1.017178315680842</v>
+        <v>1.017280568594709</v>
       </c>
       <c r="K18">
-        <v>1.05058591964087</v>
+        <v>1.048146132549377</v>
       </c>
       <c r="L18">
-        <v>1.012422160825991</v>
+        <v>1.012513842868694</v>
       </c>
       <c r="M18">
-        <v>1.050026663834347</v>
+        <v>1.04864460396621</v>
       </c>
       <c r="N18">
-        <v>1.009710558264725</v>
+        <v>1.011891872849547</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049050865146654</v>
+        <v>1.047958119620251</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.046906282863685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045196622005264</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02509903356405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9898646823096896</v>
+        <v>0.989976398729026</v>
       </c>
       <c r="D19">
-        <v>1.037223060531022</v>
+        <v>1.034772492060601</v>
       </c>
       <c r="E19">
-        <v>0.9986680300732949</v>
+        <v>0.9987665649227691</v>
       </c>
       <c r="F19">
-        <v>1.03641640574616</v>
+        <v>1.035028083425648</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047995436049702</v>
+        <v>1.047211135087694</v>
       </c>
       <c r="J19">
-        <v>1.017179232503628</v>
+        <v>1.01728663147824</v>
       </c>
       <c r="K19">
-        <v>1.050367516126997</v>
+        <v>1.047955363044776</v>
       </c>
       <c r="L19">
-        <v>1.012445127612351</v>
+        <v>1.012541965130775</v>
       </c>
       <c r="M19">
-        <v>1.049573480900547</v>
+        <v>1.048206936859011</v>
       </c>
       <c r="N19">
-        <v>1.009693448023353</v>
+        <v>1.011869553248091</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04836968204458</v>
+        <v>1.047288856592299</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046758175130029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04506868129211</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025033474899433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9883683609535476</v>
+        <v>0.9885469785040994</v>
       </c>
       <c r="D20">
-        <v>1.036012134899248</v>
+        <v>1.033686266092424</v>
       </c>
       <c r="E20">
-        <v>0.9974925434128987</v>
+        <v>0.9976505675805465</v>
       </c>
       <c r="F20">
-        <v>1.034652380297489</v>
+        <v>1.033345686048245</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047486118739183</v>
+        <v>1.04676140654418</v>
       </c>
       <c r="J20">
-        <v>1.016355145154988</v>
+        <v>1.016526647463524</v>
       </c>
       <c r="K20">
-        <v>1.049449991900935</v>
+        <v>1.047161562480144</v>
       </c>
       <c r="L20">
-        <v>1.011579627183425</v>
+        <v>1.011734855111432</v>
       </c>
       <c r="M20">
-        <v>1.048112098972151</v>
+        <v>1.046826482892979</v>
       </c>
       <c r="N20">
-        <v>1.009389096187761</v>
+        <v>1.011708170879539</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046690348008969</v>
+        <v>1.045672926554588</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046113332078295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044511703728983</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02483866928876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9842223179518458</v>
+        <v>0.9846104584646322</v>
       </c>
       <c r="D21">
-        <v>1.033775646419147</v>
+        <v>1.031655761634557</v>
       </c>
       <c r="E21">
-        <v>0.9943386305014581</v>
+        <v>0.9946814593873926</v>
       </c>
       <c r="F21">
-        <v>1.032046922908067</v>
+        <v>1.03089610951185</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046662081362028</v>
+        <v>1.04605481209312</v>
       </c>
       <c r="J21">
-        <v>1.014394836399773</v>
+        <v>1.014766005404131</v>
       </c>
       <c r="K21">
-        <v>1.048144189047129</v>
+        <v>1.046061239144448</v>
       </c>
       <c r="L21">
-        <v>1.009428058959676</v>
+        <v>1.009764298609418</v>
       </c>
       <c r="M21">
-        <v>1.046445570407581</v>
+        <v>1.045314870379302</v>
       </c>
       <c r="N21">
-        <v>1.008724346237858</v>
+        <v>1.011650325056097</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045330928120148</v>
+        <v>1.044436060257777</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045193277228795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.043737249970748</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024645698012061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9815779546405826</v>
+        <v>0.982097743205528</v>
       </c>
       <c r="D22">
-        <v>1.032366314771697</v>
+        <v>1.030375526014333</v>
       </c>
       <c r="E22">
-        <v>0.9923360226037935</v>
+        <v>0.9927950521145278</v>
       </c>
       <c r="F22">
-        <v>1.030432199661293</v>
+        <v>1.029379439403839</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046136858957769</v>
+        <v>1.045603294647098</v>
       </c>
       <c r="J22">
-        <v>1.013148558171316</v>
+        <v>1.0136443020614</v>
       </c>
       <c r="K22">
-        <v>1.047322747259777</v>
+        <v>1.045368335286488</v>
       </c>
       <c r="L22">
-        <v>1.008060848756248</v>
+        <v>1.008510604516442</v>
       </c>
       <c r="M22">
-        <v>1.045423970830289</v>
+        <v>1.044390518511488</v>
       </c>
       <c r="N22">
-        <v>1.008302356926068</v>
+        <v>1.011605828414967</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044522405476518</v>
+        <v>1.043704501330455</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044599172723343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043232711583886</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024523232723994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9829808851542661</v>
+        <v>0.9834183036277586</v>
       </c>
       <c r="D23">
-        <v>1.03310087121036</v>
+        <v>1.031038693917266</v>
       </c>
       <c r="E23">
-        <v>0.9933971586654753</v>
+        <v>0.9937833445375972</v>
       </c>
       <c r="F23">
-        <v>1.031281439101682</v>
+        <v>1.030172542136598</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046411022126746</v>
+        <v>1.045834475614593</v>
       </c>
       <c r="J23">
-        <v>1.013808130658486</v>
+        <v>1.014225905453844</v>
       </c>
       <c r="K23">
-        <v>1.047745616991575</v>
+        <v>1.045720190493411</v>
       </c>
       <c r="L23">
-        <v>1.00878468995877</v>
+        <v>1.009163275662624</v>
       </c>
       <c r="M23">
-        <v>1.045958599719703</v>
+        <v>1.044869531702073</v>
       </c>
       <c r="N23">
-        <v>1.008525152722346</v>
+        <v>1.011586028126708</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044945525930316</v>
+        <v>1.044083606379785</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044888651418664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043471035152814</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02458343394948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9884109115537313</v>
+        <v>0.9885898262526369</v>
       </c>
       <c r="D24">
-        <v>1.035981388053916</v>
+        <v>1.033659324140495</v>
       </c>
       <c r="E24">
-        <v>0.997521257209948</v>
+        <v>0.9976796188902654</v>
       </c>
       <c r="F24">
-        <v>1.034600092380925</v>
+        <v>1.033295633727922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047467954256818</v>
+        <v>1.046744982132842</v>
       </c>
       <c r="J24">
-        <v>1.016362489763843</v>
+        <v>1.016534288297084</v>
       </c>
       <c r="K24">
-        <v>1.049404780259909</v>
+        <v>1.047120049443326</v>
       </c>
       <c r="L24">
-        <v>1.011592042630131</v>
+        <v>1.01174760592465</v>
       </c>
       <c r="M24">
-        <v>1.04804566652863</v>
+        <v>1.04676222578683</v>
       </c>
       <c r="N24">
-        <v>1.009388805176312</v>
+        <v>1.011704254140609</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046597287411981</v>
+        <v>1.045581537913937</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046054332384167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.044452630136491</v>
+      </c>
+      <c r="S24">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T24">
+        <v>1.024823801907894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9945189627264412</v>
+        <v>0.9945778244143426</v>
       </c>
       <c r="D25">
-        <v>1.039254263644287</v>
+        <v>1.036685567971949</v>
       </c>
       <c r="E25">
-        <v>1.002191579785856</v>
+        <v>1.002245413096165</v>
       </c>
       <c r="F25">
-        <v>1.0383739043007</v>
+        <v>1.036909235078927</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048629935747174</v>
+        <v>1.047797408273807</v>
       </c>
       <c r="J25">
-        <v>1.019232204138244</v>
+        <v>1.019289054480486</v>
       </c>
       <c r="K25">
-        <v>1.051272304830482</v>
+        <v>1.048739881442815</v>
       </c>
       <c r="L25">
-        <v>1.01475596930075</v>
+        <v>1.0148089716358</v>
       </c>
       <c r="M25">
-        <v>1.050404351405436</v>
+        <v>1.048960381139461</v>
       </c>
       <c r="N25">
-        <v>1.010358832513372</v>
+        <v>1.012397172491233</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048464010370728</v>
+        <v>1.047321216284955</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047371913742335</v>
+        <v>1.045594788468206</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025098390234677</v>
       </c>
     </row>
   </sheetData>
